--- a/Testing/Sprint 2/Casos-de-prueba/Documentacion-Testing-S2.xlsx
+++ b/Testing/Sprint 2/Casos-de-prueba/Documentacion-Testing-S2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rainv\Desktop\Proyecto Integrador\templatePI\Testing\Sprint 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p1p3p\OneDrive\Documentos\PI\grupo-09\Testing\Sprint 2\Casos-de-prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5B8E97-0832-4EEE-BBDA-FE1A0EDC12F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de Prueba" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="424">
   <si>
     <t>ID</t>
   </si>
@@ -1315,15 +1316,94 @@
   <si>
     <t>Tester</t>
   </si>
+  <si>
+    <t>CDP-70</t>
+  </si>
+  <si>
+    <t>MVP</t>
+  </si>
+  <si>
+    <t>Como financista del proyecto, quiero poder acceder a un Producto Mínimo Viable (MVP) gastando lo mínimo posible para poder buscar inversiones</t>
+  </si>
+  <si>
+    <t>Infraestructura</t>
+  </si>
+  <si>
+    <t>Tener credenciales para la cuenta de amazon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingresarr a la consola de amazon </t>
+  </si>
+  <si>
+    <t>Visualizacion de la pagina de los servicios de amazon</t>
+  </si>
+  <si>
+    <t>REVIEWED</t>
+  </si>
+  <si>
+    <r>
+      <t>Alejandra Marin / Andres F</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ajardo</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Buscar el servicio de EC2, RDS y S3   </t>
+  </si>
+  <si>
+    <t>Visualizacion de los recursos asociados a Wesped</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revisar que se tenga la menor cantidad de recursos en operación para gastar lo menos posible </t>
+  </si>
+  <si>
+    <t>Visualizar la ejecucion de una instancia EC2 con la VPC predeterminada por la region, asi como tambien la visualizacion de 2 bucket y una instancia MYSQL RDS.</t>
+  </si>
+  <si>
+    <t>CDP-71</t>
+  </si>
+  <si>
+    <t>Acceder a los servicios de amazon 24/7</t>
+  </si>
+  <si>
+    <t>Como usuario quiero poder acceder 24/7 y de forma online al servicio de búsqueda de productos para poder consultar la información y reservar en cualquier momento.</t>
+  </si>
+  <si>
+    <t>Tener coneccion a internet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingresar a la url http://ec2-18-224-138-216.us-east-2.compute.amazonaws.com:8080/products, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obtener el Json con todos los atributos correspondientes a los productos de nuestra aplicación </t>
+  </si>
+  <si>
+    <t>REGRESION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingresar a la url http://wesped-frontend.s3-website.us-east-2.amazonaws.com/ </t>
+  </si>
+  <si>
+    <t>Visualizacion del contenido estatico (Front end), de nuestra aplicación</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1451,6 +1531,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF202124"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1508,7 +1601,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1783,12 +1876,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1865,104 +1969,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1981,19 +1989,100 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2001,29 +2090,44 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2031,41 +2135,65 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2282,70 +2410,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z87"/>
+  <dimension ref="A1:Z92"/>
   <sheetViews>
-    <sheetView zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" customWidth="1"/>
-    <col min="9" max="9" width="25.42578125" customWidth="1"/>
-    <col min="11" max="11" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="29.5546875" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="7" max="7" width="6.109375" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" customWidth="1"/>
+    <col min="9" max="9" width="25.44140625" customWidth="1"/>
+    <col min="11" max="11" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="12.75">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:13" ht="13.2">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="41" t="s">
+      <c r="H1" s="81"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="78" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="14.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
+    <row r="2" spans="1:13" ht="13.8">
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
@@ -2355,27 +2483,27 @@
       <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
     </row>
     <row r="3" spans="1:13" ht="56.25" customHeight="1">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="51" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-    </row>
-    <row r="4" spans="1:13" ht="76.5">
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+    </row>
+    <row r="4" spans="1:13" ht="66">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -2414,7 +2542,7 @@
       </c>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="1:13" ht="76.5">
+    <row r="5" spans="1:13" ht="66">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -2453,7 +2581,7 @@
       </c>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="1:13" ht="76.5">
+    <row r="6" spans="1:13" ht="66">
       <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
@@ -2492,7 +2620,7 @@
       </c>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="1:13" ht="51">
+    <row r="7" spans="1:13" ht="52.8">
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
@@ -2531,7 +2659,7 @@
       </c>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:13" ht="76.5">
+    <row r="8" spans="1:13" ht="79.2">
       <c r="A8" s="2" t="s">
         <v>37</v>
       </c>
@@ -2570,7 +2698,7 @@
       </c>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="1:13" ht="76.5">
+    <row r="9" spans="1:13" ht="79.2">
       <c r="A9" s="2" t="s">
         <v>43</v>
       </c>
@@ -2609,7 +2737,7 @@
       </c>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:13" ht="76.5">
+    <row r="10" spans="1:13" ht="79.2">
       <c r="A10" s="2" t="s">
         <v>49</v>
       </c>
@@ -2648,7 +2776,7 @@
       </c>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:13" ht="76.5">
+    <row r="11" spans="1:13" ht="79.2">
       <c r="A11" s="22" t="s">
         <v>55</v>
       </c>
@@ -2679,7 +2807,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" ht="89.25">
+    <row r="12" spans="1:13" ht="92.4">
       <c r="A12" s="22" t="s">
         <v>61</v>
       </c>
@@ -2718,7 +2846,7 @@
       </c>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13" ht="89.25">
+    <row r="13" spans="1:13" ht="92.4">
       <c r="A13" s="22" t="s">
         <v>65</v>
       </c>
@@ -2757,7 +2885,7 @@
       </c>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:13" ht="89.25">
+    <row r="14" spans="1:13" ht="92.4">
       <c r="A14" s="22" t="s">
         <v>69</v>
       </c>
@@ -2796,7 +2924,7 @@
       </c>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:13" ht="114.75">
+    <row r="15" spans="1:13" ht="118.8">
       <c r="A15" s="22" t="s">
         <v>76</v>
       </c>
@@ -2835,7 +2963,7 @@
       </c>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:13" ht="102">
+    <row r="16" spans="1:13" ht="105.6">
       <c r="A16" s="22" t="s">
         <v>81</v>
       </c>
@@ -2874,7 +3002,7 @@
       </c>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="1:26" ht="89.25">
+    <row r="17" spans="1:26" ht="92.4">
       <c r="A17" s="22" t="s">
         <v>87</v>
       </c>
@@ -2913,7 +3041,7 @@
       </c>
       <c r="M17" s="5"/>
     </row>
-    <row r="18" spans="1:26" ht="89.25">
+    <row r="18" spans="1:26" ht="92.4">
       <c r="A18" s="22" t="s">
         <v>89</v>
       </c>
@@ -2952,7 +3080,7 @@
       </c>
       <c r="M18" s="5"/>
     </row>
-    <row r="19" spans="1:26" ht="90" thickBot="1">
+    <row r="19" spans="1:26" ht="93" thickBot="1">
       <c r="A19" s="22" t="s">
         <v>91</v>
       </c>
@@ -2992,40 +3120,40 @@
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:26" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="39">
+      <c r="B20" s="68">
         <v>44779</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="E20" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="F20" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="G20" s="30">
+      <c r="G20" s="60">
         <v>1</v>
       </c>
-      <c r="H20" s="35" t="s">
+      <c r="H20" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="I20" s="30" t="s">
+      <c r="I20" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="J20" s="79" t="s">
+      <c r="J20" s="64" t="s">
         <v>395</v>
       </c>
-      <c r="K20" s="30" t="s">
+      <c r="K20" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="L20" s="30" t="s">
+      <c r="L20" s="60" t="s">
         <v>133</v>
       </c>
       <c r="M20" s="10"/>
@@ -3043,19 +3171,19 @@
       <c r="Y20" s="10"/>
       <c r="Z20" s="10"/>
     </row>
-    <row r="21" spans="1:26" ht="13.5" thickBot="1">
-      <c r="A21" s="46"/>
-      <c r="B21" s="81"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
+    <row r="21" spans="1:26" ht="13.8" thickBot="1">
+      <c r="A21" s="67"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
@@ -3071,13 +3199,13 @@
       <c r="Y21" s="10"/>
       <c r="Z21" s="10"/>
     </row>
-    <row r="22" spans="1:26" ht="39" thickBot="1">
-      <c r="A22" s="31"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
+    <row r="22" spans="1:26" ht="40.200000000000003" thickBot="1">
+      <c r="A22" s="61"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
       <c r="G22" s="7">
         <v>2</v>
       </c>
@@ -3087,7 +3215,7 @@
       <c r="I22" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="J22" s="82" t="s">
+      <c r="J22" s="39" t="s">
         <v>395</v>
       </c>
       <c r="K22" s="7" t="s">
@@ -3111,23 +3239,23 @@
       <c r="Y22" s="10"/>
       <c r="Z22" s="10"/>
     </row>
-    <row r="23" spans="1:26" ht="13.5" thickBot="1">
+    <row r="23" spans="1:26" ht="13.8" thickBot="1">
       <c r="A23" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B23" s="8">
         <v>44779</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="60" t="s">
         <v>138</v>
       </c>
       <c r="G23" s="7">
@@ -3136,16 +3264,16 @@
       <c r="H23" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="I23" s="30" t="s">
+      <c r="I23" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="J23" s="79" t="s">
+      <c r="J23" s="64" t="s">
         <v>395</v>
       </c>
-      <c r="K23" s="30" t="s">
+      <c r="K23" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="L23" s="30" t="s">
+      <c r="L23" s="60" t="s">
         <v>133</v>
       </c>
       <c r="M23" s="10"/>
@@ -3163,23 +3291,23 @@
       <c r="Y23" s="10"/>
       <c r="Z23" s="10"/>
     </row>
-    <row r="24" spans="1:26" ht="39" thickBot="1">
+    <row r="24" spans="1:26" ht="40.200000000000003" thickBot="1">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
       <c r="G24" s="7">
         <v>2</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="I24" s="31"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
@@ -3195,23 +3323,23 @@
       <c r="Y24" s="10"/>
       <c r="Z24" s="10"/>
     </row>
-    <row r="25" spans="1:26" ht="26.25" thickBot="1">
+    <row r="25" spans="1:26" ht="27" thickBot="1">
       <c r="A25" s="7" t="s">
         <v>99</v>
       </c>
       <c r="B25" s="8">
         <v>44779</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="65" t="s">
         <v>142</v>
       </c>
-      <c r="E25" s="35" t="s">
+      <c r="E25" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="F25" s="35" t="s">
+      <c r="F25" s="65" t="s">
         <v>144</v>
       </c>
       <c r="G25" s="9">
@@ -3220,10 +3348,10 @@
       <c r="H25" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="I25" s="35" t="s">
+      <c r="I25" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="J25" s="83" t="s">
+      <c r="J25" s="62" t="s">
         <v>395</v>
       </c>
       <c r="K25" s="7" t="s">
@@ -3247,21 +3375,21 @@
       <c r="Y25" s="10"/>
       <c r="Z25" s="10"/>
     </row>
-    <row r="26" spans="1:26" ht="26.25" thickBot="1">
+    <row r="26" spans="1:26" ht="27" thickBot="1">
       <c r="A26" s="10"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
       <c r="G26" s="9">
         <v>2</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="I26" s="36"/>
-      <c r="J26" s="80"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="63"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
@@ -3279,23 +3407,23 @@
       <c r="Y26" s="10"/>
       <c r="Z26" s="10"/>
     </row>
-    <row r="27" spans="1:26" ht="26.25" thickBot="1">
-      <c r="A27" s="30" t="s">
+    <row r="27" spans="1:26" ht="27" thickBot="1">
+      <c r="A27" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="39">
+      <c r="B27" s="68">
         <v>44779</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="E27" s="30" t="s">
+      <c r="E27" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="30" t="s">
+      <c r="F27" s="60" t="s">
         <v>95</v>
       </c>
       <c r="G27" s="7">
@@ -3304,13 +3432,13 @@
       <c r="H27" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="I27" s="30" t="s">
+      <c r="I27" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="J27" s="83" t="s">
+      <c r="J27" s="62" t="s">
         <v>395</v>
       </c>
-      <c r="K27" s="30" t="s">
+      <c r="K27" s="60" t="s">
         <v>102</v>
       </c>
       <c r="L27" s="7" t="s">
@@ -3331,22 +3459,22 @@
       <c r="Y27" s="11"/>
       <c r="Z27" s="11"/>
     </row>
-    <row r="28" spans="1:26" ht="39" thickBot="1">
-      <c r="A28" s="31"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
+    <row r="28" spans="1:26" ht="40.200000000000003" thickBot="1">
+      <c r="A28" s="61"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
       <c r="G28" s="7">
         <v>2</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="I28" s="31"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="31"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="61"/>
       <c r="L28" s="7" t="s">
         <v>149</v>
       </c>
@@ -3365,23 +3493,23 @@
       <c r="Y28" s="11"/>
       <c r="Z28" s="11"/>
     </row>
-    <row r="29" spans="1:26" ht="39" thickBot="1">
-      <c r="A29" s="35" t="s">
+    <row r="29" spans="1:26" ht="40.200000000000003" thickBot="1">
+      <c r="A29" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="37">
+      <c r="B29" s="83">
         <v>44779</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="E29" s="35" t="s">
+      <c r="E29" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="35" t="s">
+      <c r="F29" s="65" t="s">
         <v>105</v>
       </c>
       <c r="G29" s="9" t="s">
@@ -3390,16 +3518,16 @@
       <c r="H29" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="I29" s="35" t="s">
+      <c r="I29" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="J29" s="83" t="s">
+      <c r="J29" s="62" t="s">
         <v>395</v>
       </c>
-      <c r="K29" s="30" t="s">
+      <c r="K29" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="30" t="s">
+      <c r="L29" s="60" t="s">
         <v>153</v>
       </c>
       <c r="M29" s="11"/>
@@ -3417,23 +3545,23 @@
       <c r="Y29" s="11"/>
       <c r="Z29" s="11"/>
     </row>
-    <row r="30" spans="1:26" ht="26.25" thickBot="1">
-      <c r="A30" s="36"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
+    <row r="30" spans="1:26" ht="27" thickBot="1">
+      <c r="A30" s="66"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
       <c r="G30" s="9" t="s">
         <v>154</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="I30" s="36"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
       <c r="O30" s="11"/>
@@ -3449,23 +3577,23 @@
       <c r="Y30" s="11"/>
       <c r="Z30" s="11"/>
     </row>
-    <row r="31" spans="1:26" ht="13.5" thickBot="1">
-      <c r="A31" s="30" t="s">
+    <row r="31" spans="1:26" ht="13.8" thickBot="1">
+      <c r="A31" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="B31" s="39">
+      <c r="B31" s="68">
         <v>44779</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="60" t="s">
         <v>156</v>
       </c>
-      <c r="E31" s="30" t="s">
+      <c r="E31" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="30" t="s">
+      <c r="F31" s="60" t="s">
         <v>157</v>
       </c>
       <c r="G31" s="7">
@@ -3474,16 +3602,16 @@
       <c r="H31" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="I31" s="30" t="s">
+      <c r="I31" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="J31" s="83" t="s">
+      <c r="J31" s="62" t="s">
         <v>395</v>
       </c>
-      <c r="K31" s="30" t="s">
+      <c r="K31" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="L31" s="30" t="s">
+      <c r="L31" s="60" t="s">
         <v>133</v>
       </c>
       <c r="M31" s="11"/>
@@ -3501,23 +3629,23 @@
       <c r="Y31" s="11"/>
       <c r="Z31" s="11"/>
     </row>
-    <row r="32" spans="1:26" ht="26.25" thickBot="1">
-      <c r="A32" s="31"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
+    <row r="32" spans="1:26" ht="27" thickBot="1">
+      <c r="A32" s="61"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
       <c r="G32" s="7">
         <v>2</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="I32" s="31"/>
-      <c r="J32" s="80"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
       <c r="O32" s="11"/>
@@ -3533,23 +3661,23 @@
       <c r="Y32" s="11"/>
       <c r="Z32" s="11"/>
     </row>
-    <row r="33" spans="1:26" ht="13.5" thickBot="1">
-      <c r="A33" s="30" t="s">
+    <row r="33" spans="1:26" ht="13.8" thickBot="1">
+      <c r="A33" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="B33" s="39">
+      <c r="B33" s="68">
         <v>44779</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="60" t="s">
         <v>162</v>
       </c>
-      <c r="E33" s="30" t="s">
+      <c r="E33" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="30" t="s">
+      <c r="F33" s="60" t="s">
         <v>111</v>
       </c>
       <c r="G33" s="7" t="s">
@@ -3558,16 +3686,16 @@
       <c r="H33" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="I33" s="30" t="s">
+      <c r="I33" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="J33" s="83" t="s">
+      <c r="J33" s="62" t="s">
         <v>395</v>
       </c>
-      <c r="K33" s="30" t="s">
+      <c r="K33" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="L33" s="30" t="s">
+      <c r="L33" s="60" t="s">
         <v>133</v>
       </c>
       <c r="M33" s="11"/>
@@ -3585,23 +3713,23 @@
       <c r="Y33" s="11"/>
       <c r="Z33" s="11"/>
     </row>
-    <row r="34" spans="1:26" ht="51.75" thickBot="1">
-      <c r="A34" s="31"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
+    <row r="34" spans="1:26" ht="53.4" thickBot="1">
+      <c r="A34" s="61"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
       <c r="G34" s="7" t="s">
         <v>154</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="I34" s="31"/>
-      <c r="J34" s="80"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="61"/>
       <c r="M34" s="11"/>
       <c r="N34" s="11"/>
       <c r="O34" s="11"/>
@@ -3617,23 +3745,23 @@
       <c r="Y34" s="11"/>
       <c r="Z34" s="11"/>
     </row>
-    <row r="35" spans="1:26" ht="13.5" thickBot="1">
-      <c r="A35" s="35" t="s">
+    <row r="35" spans="1:26" ht="13.8" thickBot="1">
+      <c r="A35" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="B35" s="37">
+      <c r="B35" s="83">
         <v>44779</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="D35" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="E35" s="35" t="s">
+      <c r="E35" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="35" t="s">
+      <c r="F35" s="65" t="s">
         <v>115</v>
       </c>
       <c r="G35" s="9">
@@ -3642,16 +3770,16 @@
       <c r="H35" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I35" s="35" t="s">
+      <c r="I35" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="J35" s="83" t="s">
+      <c r="J35" s="62" t="s">
         <v>395</v>
       </c>
-      <c r="K35" s="30" t="s">
+      <c r="K35" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="L35" s="30" t="s">
+      <c r="L35" s="60" t="s">
         <v>153</v>
       </c>
       <c r="M35" s="11"/>
@@ -3669,23 +3797,23 @@
       <c r="Y35" s="11"/>
       <c r="Z35" s="11"/>
     </row>
-    <row r="36" spans="1:26" ht="51.75" thickBot="1">
-      <c r="A36" s="36"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
+    <row r="36" spans="1:26" ht="40.200000000000003" thickBot="1">
+      <c r="A36" s="66"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
       <c r="G36" s="9">
         <v>2</v>
       </c>
       <c r="H36" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="I36" s="36"/>
-      <c r="J36" s="80"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="61"/>
       <c r="M36" s="11"/>
       <c r="N36" s="11"/>
       <c r="O36" s="11"/>
@@ -3701,23 +3829,23 @@
       <c r="Y36" s="11"/>
       <c r="Z36" s="11"/>
     </row>
-    <row r="37" spans="1:26" ht="39" thickBot="1">
-      <c r="A37" s="35" t="s">
+    <row r="37" spans="1:26" ht="27" thickBot="1">
+      <c r="A37" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="B37" s="37">
+      <c r="B37" s="83">
         <v>44779</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="D37" s="35" t="s">
+      <c r="D37" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="E37" s="35" t="s">
+      <c r="E37" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="F37" s="35" t="s">
+      <c r="F37" s="65" t="s">
         <v>168</v>
       </c>
       <c r="G37" s="9">
@@ -3726,16 +3854,16 @@
       <c r="H37" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="I37" s="35" t="s">
+      <c r="I37" s="65" t="s">
         <v>170</v>
       </c>
-      <c r="J37" s="83" t="s">
+      <c r="J37" s="62" t="s">
         <v>395</v>
       </c>
-      <c r="K37" s="30" t="s">
+      <c r="K37" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="L37" s="30" t="s">
+      <c r="L37" s="60" t="s">
         <v>133</v>
       </c>
       <c r="M37" s="11"/>
@@ -3753,23 +3881,23 @@
       <c r="Y37" s="11"/>
       <c r="Z37" s="11"/>
     </row>
-    <row r="38" spans="1:26" ht="39" thickBot="1">
-      <c r="A38" s="36"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
+    <row r="38" spans="1:26" ht="40.200000000000003" thickBot="1">
+      <c r="A38" s="66"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
       <c r="G38" s="9">
         <v>2</v>
       </c>
       <c r="H38" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="I38" s="36"/>
-      <c r="J38" s="80"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
+      <c r="I38" s="66"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="61"/>
+      <c r="L38" s="61"/>
       <c r="M38" s="11"/>
       <c r="N38" s="11"/>
       <c r="O38" s="11"/>
@@ -3785,23 +3913,23 @@
       <c r="Y38" s="11"/>
       <c r="Z38" s="11"/>
     </row>
-    <row r="39" spans="1:26" ht="12.75">
-      <c r="A39" s="47" t="s">
+    <row r="39" spans="1:26" ht="13.2">
+      <c r="A39" s="75" t="s">
         <v>211</v>
       </c>
-      <c r="B39" s="50">
+      <c r="B39" s="77">
         <v>44779</v>
       </c>
-      <c r="C39" s="49" t="s">
+      <c r="C39" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="D39" s="51" t="s">
+      <c r="D39" s="73" t="s">
         <v>174</v>
       </c>
-      <c r="E39" s="47" t="s">
+      <c r="E39" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="47" t="s">
+      <c r="F39" s="75" t="s">
         <v>161</v>
       </c>
       <c r="G39" s="13">
@@ -3810,90 +3938,90 @@
       <c r="H39" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="I39" s="51" t="s">
+      <c r="I39" s="73" t="s">
         <v>177</v>
       </c>
-      <c r="J39" s="84" t="s">
+      <c r="J39" s="71" t="s">
         <v>396</v>
       </c>
-      <c r="K39" s="30" t="s">
+      <c r="K39" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="L39" s="30" t="s">
+      <c r="L39" s="60" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:26" ht="25.5">
-      <c r="A40" s="48"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
+    <row r="40" spans="1:26" ht="26.4">
+      <c r="A40" s="74"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
       <c r="G40" s="24">
         <v>2</v>
       </c>
       <c r="H40" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="I40" s="48"/>
-      <c r="J40" s="85"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="67"/>
+      <c r="L40" s="67"/>
     </row>
     <row r="41" spans="1:26" ht="38.25" customHeight="1">
-      <c r="A41" s="32" t="s">
+      <c r="A41" s="86" t="s">
         <v>228</v>
       </c>
-      <c r="B41" s="88">
+      <c r="B41" s="55">
         <v>44789</v>
       </c>
-      <c r="C41" s="86" t="s">
+      <c r="C41" s="57" t="s">
         <v>230</v>
       </c>
-      <c r="D41" s="86" t="s">
+      <c r="D41" s="57" t="s">
         <v>233</v>
       </c>
-      <c r="E41" s="86" t="s">
+      <c r="E41" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="F41" s="86" t="s">
+      <c r="F41" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="G41" s="86">
+      <c r="G41" s="57">
         <v>1</v>
       </c>
-      <c r="H41" s="86" t="s">
+      <c r="H41" s="57" t="s">
         <v>236</v>
       </c>
-      <c r="I41" s="86" t="s">
+      <c r="I41" s="57" t="s">
         <v>239</v>
       </c>
-      <c r="J41" s="86" t="s">
+      <c r="J41" s="57" t="s">
         <v>395</v>
       </c>
-      <c r="K41" s="34" t="s">
+      <c r="K41" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="L41" s="34" t="s">
+      <c r="L41" s="85" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="42" spans="1:26" ht="12.75">
-      <c r="A42" s="33"/>
-      <c r="B42" s="89"/>
-      <c r="C42" s="87"/>
-      <c r="D42" s="87"/>
-      <c r="E42" s="87"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="87"/>
-      <c r="H42" s="87"/>
-      <c r="I42" s="87"/>
-      <c r="J42" s="87"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="34"/>
-    </row>
-    <row r="43" spans="1:26" ht="38.25">
+    <row r="42" spans="1:26" ht="13.2">
+      <c r="A42" s="87"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="58"/>
+      <c r="K42" s="85"/>
+      <c r="L42" s="85"/>
+    </row>
+    <row r="43" spans="1:26" ht="39.6">
       <c r="A43" s="27" t="s">
         <v>229</v>
       </c>
@@ -3931,7 +4059,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:26" ht="25.5">
+    <row r="44" spans="1:26" ht="26.4">
       <c r="A44" s="26" t="s">
         <v>241</v>
       </c>
@@ -3970,912 +4098,912 @@
       </c>
     </row>
     <row r="45" spans="1:26" ht="139.5" customHeight="1">
-      <c r="A45" s="90"/>
-      <c r="B45" s="91"/>
-      <c r="C45" s="90"/>
-      <c r="D45" s="90"/>
-      <c r="E45" s="90"/>
-      <c r="F45" s="90"/>
-      <c r="G45" s="90"/>
-      <c r="H45" s="90"/>
-      <c r="I45" s="90"/>
-      <c r="J45" s="90"/>
-      <c r="K45" s="90"/>
-      <c r="L45" s="90"/>
+      <c r="A45" s="40"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
     </row>
     <row r="46" spans="1:26" ht="49.5" customHeight="1">
-      <c r="A46" s="94" t="s">
+      <c r="A46" s="88" t="s">
         <v>398</v>
       </c>
-      <c r="B46" s="95"/>
-      <c r="C46" s="95"/>
-      <c r="D46" s="95"/>
-      <c r="E46" s="95"/>
-      <c r="F46" s="95"/>
-      <c r="G46" s="95"/>
-      <c r="H46" s="95"/>
-      <c r="I46" s="95"/>
-      <c r="J46" s="95"/>
-      <c r="K46" s="95"/>
-      <c r="L46" s="95"/>
-    </row>
-    <row r="47" spans="1:26" ht="89.25">
+      <c r="B46" s="89"/>
+      <c r="C46" s="89"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="89"/>
+      <c r="F46" s="89"/>
+      <c r="G46" s="89"/>
+      <c r="H46" s="89"/>
+      <c r="I46" s="89"/>
+      <c r="J46" s="89"/>
+      <c r="K46" s="89"/>
+      <c r="L46" s="89"/>
+    </row>
+    <row r="47" spans="1:26" ht="79.2">
       <c r="A47" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="B47" s="96">
+      <c r="B47" s="42">
         <v>44791</v>
       </c>
-      <c r="C47" s="97" t="s">
+      <c r="C47" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="D47" s="97" t="s">
+      <c r="D47" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="E47" s="97" t="s">
+      <c r="E47" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="98" t="s">
+      <c r="F47" s="44" t="s">
         <v>250</v>
       </c>
       <c r="G47" s="20"/>
-      <c r="H47" s="98" t="s">
+      <c r="H47" s="44" t="s">
         <v>284</v>
       </c>
-      <c r="I47" s="97" t="s">
+      <c r="I47" s="43" t="s">
         <v>285</v>
       </c>
-      <c r="J47" s="97" t="s">
+      <c r="J47" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="K47" s="97" t="s">
+      <c r="K47" s="43" t="s">
         <v>301</v>
       </c>
-      <c r="L47" s="97" t="s">
+      <c r="L47" s="43" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="48" spans="1:26" ht="89.25">
+    <row r="48" spans="1:26" ht="79.2">
       <c r="A48" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="B48" s="96">
+      <c r="B48" s="42">
         <v>44791</v>
       </c>
-      <c r="C48" s="97" t="s">
+      <c r="C48" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="D48" s="97" t="s">
+      <c r="D48" s="43" t="s">
         <v>252</v>
       </c>
-      <c r="E48" s="97" t="s">
+      <c r="E48" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F48" s="98" t="s">
+      <c r="F48" s="44" t="s">
         <v>250</v>
       </c>
       <c r="G48" s="20"/>
-      <c r="H48" s="97" t="s">
+      <c r="H48" s="43" t="s">
         <v>286</v>
       </c>
-      <c r="I48" s="97" t="s">
+      <c r="I48" s="43" t="s">
         <v>285</v>
       </c>
-      <c r="J48" s="97" t="s">
+      <c r="J48" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="K48" s="97" t="s">
+      <c r="K48" s="43" t="s">
         <v>301</v>
       </c>
-      <c r="L48" s="97" t="s">
+      <c r="L48" s="43" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="114.75">
+    <row r="49" spans="1:12" ht="105.6">
       <c r="A49" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="B49" s="96">
+      <c r="B49" s="42">
         <v>44791</v>
       </c>
-      <c r="C49" s="97" t="s">
+      <c r="C49" s="43" t="s">
         <v>253</v>
       </c>
-      <c r="D49" s="97" t="s">
+      <c r="D49" s="43" t="s">
         <v>254</v>
       </c>
-      <c r="E49" s="97" t="s">
+      <c r="E49" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F49" s="98" t="s">
+      <c r="F49" s="44" t="s">
         <v>255</v>
       </c>
       <c r="G49" s="20"/>
-      <c r="H49" s="97" t="s">
+      <c r="H49" s="43" t="s">
         <v>287</v>
       </c>
-      <c r="I49" s="97" t="s">
+      <c r="I49" s="43" t="s">
         <v>288</v>
       </c>
-      <c r="J49" s="97" t="s">
+      <c r="J49" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="K49" s="97" t="s">
+      <c r="K49" s="43" t="s">
         <v>301</v>
       </c>
-      <c r="L49" s="97" t="s">
+      <c r="L49" s="43" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="38.25">
+    <row r="50" spans="1:12" ht="39.6">
       <c r="A50" s="20" t="s">
         <v>304</v>
       </c>
-      <c r="B50" s="96">
+      <c r="B50" s="42">
         <v>44791</v>
       </c>
-      <c r="C50" s="97" t="s">
+      <c r="C50" s="43" t="s">
         <v>256</v>
       </c>
-      <c r="D50" s="97" t="s">
+      <c r="D50" s="43" t="s">
         <v>257</v>
       </c>
-      <c r="E50" s="97" t="s">
+      <c r="E50" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="F50" s="98" t="s">
+      <c r="F50" s="44" t="s">
         <v>255</v>
       </c>
       <c r="G50" s="20"/>
-      <c r="H50" s="97"/>
-      <c r="I50" s="97"/>
-      <c r="J50" s="97" t="s">
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="K50" s="97" t="s">
+      <c r="K50" s="43" t="s">
         <v>301</v>
       </c>
-      <c r="L50" s="97" t="s">
+      <c r="L50" s="43" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="114.75">
+    <row r="51" spans="1:12" ht="105.6">
       <c r="A51" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="B51" s="96">
+      <c r="B51" s="42">
         <v>44791</v>
       </c>
-      <c r="C51" s="97" t="s">
+      <c r="C51" s="43" t="s">
         <v>258</v>
       </c>
-      <c r="D51" s="97" t="s">
+      <c r="D51" s="43" t="s">
         <v>259</v>
       </c>
-      <c r="E51" s="97" t="s">
+      <c r="E51" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="98" t="s">
+      <c r="F51" s="44" t="s">
         <v>255</v>
       </c>
       <c r="G51" s="20"/>
-      <c r="H51" s="97" t="s">
+      <c r="H51" s="43" t="s">
         <v>287</v>
       </c>
-      <c r="I51" s="97" t="s">
+      <c r="I51" s="43" t="s">
         <v>288</v>
       </c>
-      <c r="J51" s="97" t="s">
+      <c r="J51" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="K51" s="97" t="s">
+      <c r="K51" s="43" t="s">
         <v>301</v>
       </c>
-      <c r="L51" s="97" t="s">
+      <c r="L51" s="43" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="140.25">
+    <row r="52" spans="1:12" ht="132">
       <c r="A52" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="B52" s="96">
+      <c r="B52" s="42">
         <v>44791</v>
       </c>
-      <c r="C52" s="97" t="s">
+      <c r="C52" s="43" t="s">
         <v>260</v>
       </c>
-      <c r="D52" s="97" t="s">
+      <c r="D52" s="43" t="s">
         <v>261</v>
       </c>
-      <c r="E52" s="97" t="s">
+      <c r="E52" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F52" s="98" t="s">
+      <c r="F52" s="44" t="s">
         <v>255</v>
       </c>
       <c r="G52" s="20"/>
-      <c r="H52" s="97" t="s">
+      <c r="H52" s="43" t="s">
         <v>289</v>
       </c>
-      <c r="I52" s="99" t="s">
+      <c r="I52" s="45" t="s">
         <v>290</v>
       </c>
-      <c r="J52" s="97" t="s">
+      <c r="J52" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="K52" s="97" t="s">
+      <c r="K52" s="43" t="s">
         <v>301</v>
       </c>
-      <c r="L52" s="97" t="s">
+      <c r="L52" s="43" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="127.5">
+    <row r="53" spans="1:12" ht="132">
       <c r="A53" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="B53" s="96">
+      <c r="B53" s="42">
         <v>44791</v>
       </c>
-      <c r="C53" s="97" t="s">
+      <c r="C53" s="43" t="s">
         <v>262</v>
       </c>
-      <c r="D53" s="97" t="s">
+      <c r="D53" s="43" t="s">
         <v>263</v>
       </c>
-      <c r="E53" s="97" t="s">
+      <c r="E53" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F53" s="98" t="s">
+      <c r="F53" s="44" t="s">
         <v>264</v>
       </c>
       <c r="G53" s="20"/>
-      <c r="H53" s="97" t="s">
+      <c r="H53" s="43" t="s">
         <v>291</v>
       </c>
-      <c r="I53" s="99" t="s">
+      <c r="I53" s="45" t="s">
         <v>292</v>
       </c>
-      <c r="J53" s="97" t="s">
+      <c r="J53" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="K53" s="97" t="s">
+      <c r="K53" s="43" t="s">
         <v>301</v>
       </c>
-      <c r="L53" s="97" t="s">
+      <c r="L53" s="43" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="114.75">
+    <row r="54" spans="1:12" ht="118.8">
       <c r="A54" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="B54" s="96">
+      <c r="B54" s="42">
         <v>44791</v>
       </c>
-      <c r="C54" s="97" t="s">
+      <c r="C54" s="43" t="s">
         <v>265</v>
       </c>
-      <c r="D54" s="97" t="s">
+      <c r="D54" s="43" t="s">
         <v>266</v>
       </c>
-      <c r="E54" s="97" t="s">
+      <c r="E54" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F54" s="98" t="s">
+      <c r="F54" s="44" t="s">
         <v>264</v>
       </c>
       <c r="G54" s="20"/>
-      <c r="H54" s="97" t="s">
+      <c r="H54" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="I54" s="99" t="s">
+      <c r="I54" s="45" t="s">
         <v>294</v>
       </c>
-      <c r="J54" s="97" t="s">
+      <c r="J54" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="K54" s="97" t="s">
+      <c r="K54" s="43" t="s">
         <v>301</v>
       </c>
-      <c r="L54" s="97" t="s">
+      <c r="L54" s="43" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="165.75">
+    <row r="55" spans="1:12" ht="158.4">
       <c r="A55" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="B55" s="96">
+      <c r="B55" s="42">
         <v>44791</v>
       </c>
-      <c r="C55" s="97" t="s">
+      <c r="C55" s="43" t="s">
         <v>267</v>
       </c>
-      <c r="D55" s="97" t="s">
+      <c r="D55" s="43" t="s">
         <v>268</v>
       </c>
-      <c r="E55" s="97" t="s">
+      <c r="E55" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F55" s="98" t="s">
+      <c r="F55" s="44" t="s">
         <v>264</v>
       </c>
       <c r="G55" s="20"/>
-      <c r="H55" s="97" t="s">
+      <c r="H55" s="43" t="s">
         <v>295</v>
       </c>
-      <c r="I55" s="99" t="s">
+      <c r="I55" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="J55" s="97" t="s">
+      <c r="J55" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="K55" s="97" t="s">
+      <c r="K55" s="43" t="s">
         <v>301</v>
       </c>
-      <c r="L55" s="97" t="s">
+      <c r="L55" s="43" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="127.5">
+    <row r="56" spans="1:12" ht="132">
       <c r="A56" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="B56" s="96">
+      <c r="B56" s="42">
         <v>44791</v>
       </c>
-      <c r="C56" s="97" t="s">
+      <c r="C56" s="43" t="s">
         <v>269</v>
       </c>
-      <c r="D56" s="97" t="s">
+      <c r="D56" s="43" t="s">
         <v>270</v>
       </c>
-      <c r="E56" s="97" t="s">
+      <c r="E56" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F56" s="98" t="s">
+      <c r="F56" s="44" t="s">
         <v>264</v>
       </c>
       <c r="G56" s="20"/>
-      <c r="H56" s="97" t="s">
+      <c r="H56" s="43" t="s">
         <v>297</v>
       </c>
-      <c r="I56" s="99" t="s">
+      <c r="I56" s="45" t="s">
         <v>298</v>
       </c>
-      <c r="J56" s="97" t="s">
+      <c r="J56" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="K56" s="97" t="s">
+      <c r="K56" s="43" t="s">
         <v>301</v>
       </c>
-      <c r="L56" s="97" t="s">
+      <c r="L56" s="43" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="127.5">
+    <row r="57" spans="1:12" ht="132">
       <c r="A57" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="B57" s="96">
+      <c r="B57" s="42">
         <v>44792</v>
       </c>
-      <c r="C57" s="97" t="s">
+      <c r="C57" s="43" t="s">
         <v>269</v>
       </c>
-      <c r="D57" s="97" t="s">
+      <c r="D57" s="43" t="s">
         <v>270</v>
       </c>
-      <c r="E57" s="97" t="s">
+      <c r="E57" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F57" s="98" t="s">
+      <c r="F57" s="44" t="s">
         <v>264</v>
       </c>
       <c r="G57" s="20"/>
-      <c r="H57" s="97" t="s">
+      <c r="H57" s="43" t="s">
         <v>297</v>
       </c>
-      <c r="I57" s="99" t="s">
+      <c r="I57" s="45" t="s">
         <v>298</v>
       </c>
-      <c r="J57" s="97" t="s">
+      <c r="J57" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="K57" s="97" t="s">
+      <c r="K57" s="43" t="s">
         <v>301</v>
       </c>
-      <c r="L57" s="97" t="s">
+      <c r="L57" s="43" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="127.5">
+    <row r="58" spans="1:12" ht="132">
       <c r="A58" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="B58" s="96">
+      <c r="B58" s="42">
         <v>44793</v>
       </c>
-      <c r="C58" s="97" t="s">
+      <c r="C58" s="43" t="s">
         <v>269</v>
       </c>
-      <c r="D58" s="97" t="s">
+      <c r="D58" s="43" t="s">
         <v>270</v>
       </c>
-      <c r="E58" s="97" t="s">
+      <c r="E58" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F58" s="98" t="s">
+      <c r="F58" s="44" t="s">
         <v>264</v>
       </c>
       <c r="G58" s="20"/>
-      <c r="H58" s="97" t="s">
+      <c r="H58" s="43" t="s">
         <v>297</v>
       </c>
-      <c r="I58" s="99" t="s">
+      <c r="I58" s="45" t="s">
         <v>298</v>
       </c>
-      <c r="J58" s="97" t="s">
+      <c r="J58" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="K58" s="97" t="s">
+      <c r="K58" s="43" t="s">
         <v>301</v>
       </c>
-      <c r="L58" s="97" t="s">
+      <c r="L58" s="43" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="127.5">
+    <row r="59" spans="1:12" ht="132">
       <c r="A59" s="20" t="s">
         <v>313</v>
       </c>
-      <c r="B59" s="96">
+      <c r="B59" s="42">
         <v>44794</v>
       </c>
-      <c r="C59" s="97" t="s">
+      <c r="C59" s="43" t="s">
         <v>269</v>
       </c>
-      <c r="D59" s="97" t="s">
+      <c r="D59" s="43" t="s">
         <v>270</v>
       </c>
-      <c r="E59" s="97" t="s">
+      <c r="E59" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F59" s="98" t="s">
+      <c r="F59" s="44" t="s">
         <v>264</v>
       </c>
       <c r="G59" s="20"/>
-      <c r="H59" s="97" t="s">
+      <c r="H59" s="43" t="s">
         <v>297</v>
       </c>
-      <c r="I59" s="99" t="s">
+      <c r="I59" s="45" t="s">
         <v>298</v>
       </c>
-      <c r="J59" s="97" t="s">
+      <c r="J59" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="K59" s="97" t="s">
+      <c r="K59" s="43" t="s">
         <v>301</v>
       </c>
-      <c r="L59" s="97" t="s">
+      <c r="L59" s="43" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="127.5">
+    <row r="60" spans="1:12" ht="132">
       <c r="A60" s="20" t="s">
         <v>314</v>
       </c>
-      <c r="B60" s="96">
+      <c r="B60" s="42">
         <v>44795</v>
       </c>
-      <c r="C60" s="97" t="s">
+      <c r="C60" s="43" t="s">
         <v>269</v>
       </c>
-      <c r="D60" s="97" t="s">
+      <c r="D60" s="43" t="s">
         <v>270</v>
       </c>
-      <c r="E60" s="97" t="s">
+      <c r="E60" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F60" s="98" t="s">
+      <c r="F60" s="44" t="s">
         <v>264</v>
       </c>
       <c r="G60" s="20"/>
-      <c r="H60" s="97" t="s">
+      <c r="H60" s="43" t="s">
         <v>297</v>
       </c>
-      <c r="I60" s="99" t="s">
+      <c r="I60" s="45" t="s">
         <v>298</v>
       </c>
-      <c r="J60" s="97" t="s">
+      <c r="J60" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="K60" s="97" t="s">
+      <c r="K60" s="43" t="s">
         <v>301</v>
       </c>
-      <c r="L60" s="97" t="s">
+      <c r="L60" s="43" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="127.5">
+    <row r="61" spans="1:12" ht="132">
       <c r="A61" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="B61" s="96">
+      <c r="B61" s="42">
         <v>44796</v>
       </c>
-      <c r="C61" s="97" t="s">
+      <c r="C61" s="43" t="s">
         <v>269</v>
       </c>
-      <c r="D61" s="97" t="s">
+      <c r="D61" s="43" t="s">
         <v>270</v>
       </c>
-      <c r="E61" s="97" t="s">
+      <c r="E61" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F61" s="98" t="s">
+      <c r="F61" s="44" t="s">
         <v>264</v>
       </c>
       <c r="G61" s="20"/>
-      <c r="H61" s="97" t="s">
+      <c r="H61" s="43" t="s">
         <v>297</v>
       </c>
-      <c r="I61" s="99" t="s">
+      <c r="I61" s="45" t="s">
         <v>298</v>
       </c>
-      <c r="J61" s="97" t="s">
+      <c r="J61" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="K61" s="97" t="s">
+      <c r="K61" s="43" t="s">
         <v>301</v>
       </c>
-      <c r="L61" s="97" t="s">
+      <c r="L61" s="43" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="127.5">
+    <row r="62" spans="1:12" ht="132">
       <c r="A62" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="B62" s="96">
+      <c r="B62" s="42">
         <v>44797</v>
       </c>
-      <c r="C62" s="97" t="s">
+      <c r="C62" s="43" t="s">
         <v>269</v>
       </c>
-      <c r="D62" s="97" t="s">
+      <c r="D62" s="43" t="s">
         <v>270</v>
       </c>
-      <c r="E62" s="97" t="s">
+      <c r="E62" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F62" s="98" t="s">
+      <c r="F62" s="44" t="s">
         <v>264</v>
       </c>
       <c r="G62" s="20"/>
-      <c r="H62" s="97" t="s">
+      <c r="H62" s="43" t="s">
         <v>297</v>
       </c>
-      <c r="I62" s="99" t="s">
+      <c r="I62" s="45" t="s">
         <v>298</v>
       </c>
-      <c r="J62" s="97" t="s">
+      <c r="J62" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="K62" s="97" t="s">
+      <c r="K62" s="43" t="s">
         <v>301</v>
       </c>
-      <c r="L62" s="97" t="s">
+      <c r="L62" s="43" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="127.5">
+    <row r="63" spans="1:12" ht="132">
       <c r="A63" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="B63" s="96">
+      <c r="B63" s="42">
         <v>44798</v>
       </c>
-      <c r="C63" s="97" t="s">
+      <c r="C63" s="43" t="s">
         <v>269</v>
       </c>
-      <c r="D63" s="97" t="s">
+      <c r="D63" s="43" t="s">
         <v>270</v>
       </c>
-      <c r="E63" s="97" t="s">
+      <c r="E63" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F63" s="98" t="s">
+      <c r="F63" s="44" t="s">
         <v>264</v>
       </c>
       <c r="G63" s="20"/>
-      <c r="H63" s="97" t="s">
+      <c r="H63" s="43" t="s">
         <v>297</v>
       </c>
-      <c r="I63" s="99" t="s">
+      <c r="I63" s="45" t="s">
         <v>298</v>
       </c>
-      <c r="J63" s="97" t="s">
+      <c r="J63" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="K63" s="97" t="s">
+      <c r="K63" s="43" t="s">
         <v>301</v>
       </c>
-      <c r="L63" s="97" t="s">
+      <c r="L63" s="43" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="165.75">
+    <row r="64" spans="1:12" ht="158.4">
       <c r="A64" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="B64" s="96">
+      <c r="B64" s="42">
         <v>44791</v>
       </c>
-      <c r="C64" s="97" t="s">
+      <c r="C64" s="43" t="s">
         <v>272</v>
       </c>
-      <c r="D64" s="97" t="s">
+      <c r="D64" s="43" t="s">
         <v>273</v>
       </c>
-      <c r="E64" s="97" t="s">
+      <c r="E64" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F64" s="98" t="s">
+      <c r="F64" s="44" t="s">
         <v>271</v>
       </c>
       <c r="G64" s="20"/>
-      <c r="H64" s="97" t="s">
+      <c r="H64" s="43" t="s">
         <v>299</v>
       </c>
-      <c r="I64" s="99" t="s">
+      <c r="I64" s="45" t="s">
         <v>300</v>
       </c>
-      <c r="J64" s="97" t="s">
+      <c r="J64" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="K64" s="97" t="s">
+      <c r="K64" s="43" t="s">
         <v>301</v>
       </c>
-      <c r="L64" s="97" t="s">
+      <c r="L64" s="43" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="165.75">
+    <row r="65" spans="1:12" ht="158.4">
       <c r="A65" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="B65" s="96">
+      <c r="B65" s="42">
         <v>44791</v>
       </c>
-      <c r="C65" s="100" t="s">
+      <c r="C65" s="46" t="s">
         <v>274</v>
       </c>
-      <c r="D65" s="97" t="s">
+      <c r="D65" s="43" t="s">
         <v>275</v>
       </c>
-      <c r="E65" s="97" t="s">
+      <c r="E65" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F65" s="98" t="s">
+      <c r="F65" s="44" t="s">
         <v>271</v>
       </c>
       <c r="G65" s="20"/>
-      <c r="H65" s="97" t="s">
+      <c r="H65" s="43" t="s">
         <v>299</v>
       </c>
-      <c r="I65" s="99" t="s">
+      <c r="I65" s="45" t="s">
         <v>300</v>
       </c>
-      <c r="J65" s="97" t="s">
+      <c r="J65" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="K65" s="97" t="s">
+      <c r="K65" s="43" t="s">
         <v>301</v>
       </c>
-      <c r="L65" s="97" t="s">
+      <c r="L65" s="43" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="165.75">
+    <row r="66" spans="1:12" ht="158.4">
       <c r="A66" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="B66" s="96">
+      <c r="B66" s="42">
         <v>44791</v>
       </c>
-      <c r="C66" s="100" t="s">
+      <c r="C66" s="46" t="s">
         <v>276</v>
       </c>
-      <c r="D66" s="97" t="s">
+      <c r="D66" s="43" t="s">
         <v>277</v>
       </c>
-      <c r="E66" s="97" t="s">
+      <c r="E66" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F66" s="98" t="s">
+      <c r="F66" s="44" t="s">
         <v>271</v>
       </c>
       <c r="G66" s="20"/>
-      <c r="H66" s="97" t="s">
+      <c r="H66" s="43" t="s">
         <v>299</v>
       </c>
-      <c r="I66" s="99" t="s">
+      <c r="I66" s="45" t="s">
         <v>300</v>
       </c>
-      <c r="J66" s="97" t="s">
+      <c r="J66" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="K66" s="97" t="s">
+      <c r="K66" s="43" t="s">
         <v>301</v>
       </c>
-      <c r="L66" s="97" t="s">
+      <c r="L66" s="43" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="165.75">
+    <row r="67" spans="1:12" ht="158.4">
       <c r="A67" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="B67" s="96">
+      <c r="B67" s="42">
         <v>44791</v>
       </c>
-      <c r="C67" s="100" t="s">
+      <c r="C67" s="46" t="s">
         <v>278</v>
       </c>
-      <c r="D67" s="97" t="s">
+      <c r="D67" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="E67" s="97" t="s">
+      <c r="E67" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F67" s="98" t="s">
+      <c r="F67" s="44" t="s">
         <v>271</v>
       </c>
       <c r="G67" s="20"/>
-      <c r="H67" s="97" t="s">
+      <c r="H67" s="43" t="s">
         <v>299</v>
       </c>
-      <c r="I67" s="99" t="s">
+      <c r="I67" s="45" t="s">
         <v>300</v>
       </c>
-      <c r="J67" s="97" t="s">
+      <c r="J67" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="K67" s="97" t="s">
+      <c r="K67" s="43" t="s">
         <v>301</v>
       </c>
-      <c r="L67" s="97" t="s">
+      <c r="L67" s="43" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="165.75">
+    <row r="68" spans="1:12" ht="158.4">
       <c r="A68" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="B68" s="96">
+      <c r="B68" s="42">
         <v>44791</v>
       </c>
-      <c r="C68" s="100" t="s">
+      <c r="C68" s="46" t="s">
         <v>280</v>
       </c>
-      <c r="D68" s="97" t="s">
+      <c r="D68" s="43" t="s">
         <v>281</v>
       </c>
-      <c r="E68" s="97" t="s">
+      <c r="E68" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F68" s="98" t="s">
+      <c r="F68" s="44" t="s">
         <v>271</v>
       </c>
       <c r="G68" s="20"/>
-      <c r="H68" s="97" t="s">
+      <c r="H68" s="43" t="s">
         <v>299</v>
       </c>
-      <c r="I68" s="99" t="s">
+      <c r="I68" s="45" t="s">
         <v>300</v>
       </c>
-      <c r="J68" s="97" t="s">
+      <c r="J68" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="K68" s="97" t="s">
+      <c r="K68" s="43" t="s">
         <v>301</v>
       </c>
-      <c r="L68" s="97" t="s">
+      <c r="L68" s="43" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="165.75">
+    <row r="69" spans="1:12" ht="158.4">
       <c r="A69" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B69" s="96">
+      <c r="B69" s="42">
         <v>44791</v>
       </c>
-      <c r="C69" s="100" t="s">
+      <c r="C69" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="D69" s="97" t="s">
+      <c r="D69" s="43" t="s">
         <v>283</v>
       </c>
-      <c r="E69" s="97" t="s">
+      <c r="E69" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F69" s="98" t="s">
+      <c r="F69" s="44" t="s">
         <v>271</v>
       </c>
       <c r="G69" s="20"/>
-      <c r="H69" s="97" t="s">
+      <c r="H69" s="43" t="s">
         <v>299</v>
       </c>
-      <c r="I69" s="99" t="s">
+      <c r="I69" s="45" t="s">
         <v>300</v>
       </c>
-      <c r="J69" s="97" t="s">
+      <c r="J69" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="K69" s="97" t="s">
+      <c r="K69" s="43" t="s">
         <v>301</v>
       </c>
-      <c r="L69" s="97" t="s">
+      <c r="L69" s="43" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="38.25" customHeight="1">
-      <c r="A70" s="101" t="s">
+      <c r="A70" s="53" t="s">
         <v>324</v>
       </c>
-      <c r="B70" s="88">
+      <c r="B70" s="55">
         <v>44795</v>
       </c>
-      <c r="C70" s="86" t="s">
+      <c r="C70" s="57" t="s">
         <v>230</v>
       </c>
-      <c r="D70" s="86" t="s">
+      <c r="D70" s="57" t="s">
         <v>336</v>
       </c>
-      <c r="E70" s="86" t="s">
+      <c r="E70" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="F70" s="86" t="s">
+      <c r="F70" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="G70" s="86">
+      <c r="G70" s="57">
         <v>1</v>
       </c>
-      <c r="H70" s="86" t="s">
+      <c r="H70" s="57" t="s">
         <v>236</v>
       </c>
-      <c r="I70" s="86" t="s">
+      <c r="I70" s="57" t="s">
         <v>337</v>
       </c>
-      <c r="J70" s="103" t="s">
+      <c r="J70" s="59" t="s">
         <v>227</v>
       </c>
-      <c r="K70" s="34" t="s">
+      <c r="K70" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="L70" s="34" t="s">
+      <c r="L70" s="85" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="12.75">
-      <c r="A71" s="102"/>
-      <c r="B71" s="89"/>
-      <c r="C71" s="87"/>
-      <c r="D71" s="87"/>
-      <c r="E71" s="87"/>
-      <c r="F71" s="87"/>
-      <c r="G71" s="87"/>
-      <c r="H71" s="87"/>
-      <c r="I71" s="87"/>
-      <c r="J71" s="87"/>
-      <c r="K71" s="34"/>
-      <c r="L71" s="34"/>
-    </row>
-    <row r="72" spans="1:12" ht="38.25">
+    <row r="71" spans="1:12" ht="13.2">
+      <c r="A71" s="54"/>
+      <c r="B71" s="56"/>
+      <c r="C71" s="58"/>
+      <c r="D71" s="58"/>
+      <c r="E71" s="58"/>
+      <c r="F71" s="58"/>
+      <c r="G71" s="58"/>
+      <c r="H71" s="58"/>
+      <c r="I71" s="58"/>
+      <c r="J71" s="58"/>
+      <c r="K71" s="85"/>
+      <c r="L71" s="85"/>
+    </row>
+    <row r="72" spans="1:12" ht="39.6">
       <c r="A72" s="20" t="s">
         <v>325</v>
       </c>
@@ -4913,7 +5041,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="38.25">
+    <row r="73" spans="1:12" ht="39.6">
       <c r="A73" s="20" t="s">
         <v>326</v>
       </c>
@@ -4951,7 +5079,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="38.25">
+    <row r="74" spans="1:12" ht="39.6">
       <c r="A74" s="20" t="s">
         <v>327</v>
       </c>
@@ -4989,7 +5117,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="25.5">
+    <row r="75" spans="1:12" ht="26.4">
       <c r="A75" s="20" t="s">
         <v>328</v>
       </c>
@@ -5027,7 +5155,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="38.25">
+    <row r="76" spans="1:12" ht="39.6">
       <c r="A76" s="20" t="s">
         <v>329</v>
       </c>
@@ -5065,7 +5193,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="38.25">
+    <row r="77" spans="1:12" ht="39.6">
       <c r="A77" s="20" t="s">
         <v>330</v>
       </c>
@@ -5103,7 +5231,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="25.5">
+    <row r="78" spans="1:12" ht="26.4">
       <c r="A78" s="20" t="s">
         <v>331</v>
       </c>
@@ -5141,7 +5269,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="38.25">
+    <row r="79" spans="1:12" ht="39.6">
       <c r="A79" s="20" t="s">
         <v>332</v>
       </c>
@@ -5179,7 +5307,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="38.25">
+    <row r="80" spans="1:12" ht="39.6">
       <c r="A80" s="20" t="s">
         <v>333</v>
       </c>
@@ -5217,7 +5345,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="25.5">
+    <row r="81" spans="1:12" ht="26.4">
       <c r="A81" s="20" t="s">
         <v>334</v>
       </c>
@@ -5255,7 +5383,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="38.25">
+    <row r="82" spans="1:12" ht="39.6">
       <c r="A82" s="20" t="s">
         <v>335</v>
       </c>
@@ -5293,7 +5421,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="38.25">
+    <row r="83" spans="1:12" ht="39.6">
       <c r="A83" s="20" t="s">
         <v>390</v>
       </c>
@@ -5331,7 +5459,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="25.5">
+    <row r="84" spans="1:12" ht="26.4">
       <c r="A84" s="20" t="s">
         <v>391</v>
       </c>
@@ -5369,7 +5497,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="38.25">
+    <row r="85" spans="1:12" ht="39.6">
       <c r="A85" s="20" t="s">
         <v>392</v>
       </c>
@@ -5407,7 +5535,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="38.25">
+    <row r="86" spans="1:12" ht="39.6">
       <c r="A86" s="20" t="s">
         <v>393</v>
       </c>
@@ -5445,7 +5573,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="25.5">
+    <row r="87" spans="1:12" ht="26.4">
       <c r="A87" s="20" t="s">
         <v>394</v>
       </c>
@@ -5483,8 +5611,267 @@
         <v>133</v>
       </c>
     </row>
+    <row r="88" spans="1:12" ht="26.4">
+      <c r="A88" s="57" t="s">
+        <v>402</v>
+      </c>
+      <c r="B88" s="55">
+        <v>44798</v>
+      </c>
+      <c r="C88" s="57" t="s">
+        <v>403</v>
+      </c>
+      <c r="D88" s="112" t="s">
+        <v>404</v>
+      </c>
+      <c r="E88" s="59" t="s">
+        <v>405</v>
+      </c>
+      <c r="F88" s="59" t="s">
+        <v>406</v>
+      </c>
+      <c r="G88" s="26">
+        <v>1</v>
+      </c>
+      <c r="H88" s="30" t="s">
+        <v>407</v>
+      </c>
+      <c r="I88" s="30" t="s">
+        <v>408</v>
+      </c>
+      <c r="J88" s="59" t="s">
+        <v>409</v>
+      </c>
+      <c r="K88" s="57"/>
+      <c r="L88" s="59" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="26.4">
+      <c r="A89" s="111"/>
+      <c r="B89" s="115"/>
+      <c r="C89" s="111"/>
+      <c r="D89" s="113"/>
+      <c r="E89" s="109"/>
+      <c r="F89" s="109"/>
+      <c r="G89" s="26">
+        <v>2</v>
+      </c>
+      <c r="H89" s="30" t="s">
+        <v>411</v>
+      </c>
+      <c r="I89" s="30" t="s">
+        <v>412</v>
+      </c>
+      <c r="J89" s="109"/>
+      <c r="K89" s="111"/>
+      <c r="L89" s="109"/>
+    </row>
+    <row r="90" spans="1:12" ht="79.2">
+      <c r="A90" s="58"/>
+      <c r="B90" s="56"/>
+      <c r="C90" s="58"/>
+      <c r="D90" s="114"/>
+      <c r="E90" s="110"/>
+      <c r="F90" s="110"/>
+      <c r="G90" s="26">
+        <v>3</v>
+      </c>
+      <c r="H90" s="30" t="s">
+        <v>413</v>
+      </c>
+      <c r="I90" s="30" t="s">
+        <v>414</v>
+      </c>
+      <c r="J90" s="110"/>
+      <c r="K90" s="58"/>
+      <c r="L90" s="110"/>
+    </row>
+    <row r="91" spans="1:12" ht="66">
+      <c r="A91" s="57" t="s">
+        <v>415</v>
+      </c>
+      <c r="B91" s="55">
+        <v>44799</v>
+      </c>
+      <c r="C91" s="57" t="s">
+        <v>416</v>
+      </c>
+      <c r="D91" s="112" t="s">
+        <v>417</v>
+      </c>
+      <c r="E91" s="59" t="s">
+        <v>405</v>
+      </c>
+      <c r="F91" s="57" t="s">
+        <v>418</v>
+      </c>
+      <c r="G91" s="26">
+        <v>1</v>
+      </c>
+      <c r="H91" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="I91" s="30" t="s">
+        <v>420</v>
+      </c>
+      <c r="J91" s="59" t="s">
+        <v>409</v>
+      </c>
+      <c r="K91" s="59" t="s">
+        <v>421</v>
+      </c>
+      <c r="L91" s="59" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="66">
+      <c r="A92" s="58"/>
+      <c r="B92" s="56"/>
+      <c r="C92" s="58"/>
+      <c r="D92" s="114"/>
+      <c r="E92" s="110"/>
+      <c r="F92" s="58"/>
+      <c r="G92" s="26">
+        <v>2</v>
+      </c>
+      <c r="H92" s="30" t="s">
+        <v>422</v>
+      </c>
+      <c r="I92" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="J92" s="110"/>
+      <c r="K92" s="110"/>
+      <c r="L92" s="110"/>
+    </row>
   </sheetData>
-  <mergeCells count="131">
+  <mergeCells count="149">
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="J91:J92"/>
+    <mergeCell ref="K91:K92"/>
+    <mergeCell ref="L91:L92"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="D88:D90"/>
+    <mergeCell ref="E88:E90"/>
+    <mergeCell ref="F88:F90"/>
+    <mergeCell ref="J88:J90"/>
+    <mergeCell ref="K88:K90"/>
+    <mergeCell ref="L88:L90"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="L70:L71"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A46:L46"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F20:F22"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A70:A71"/>
     <mergeCell ref="B70:B71"/>
@@ -5509,117 +5896,10 @@
     <mergeCell ref="L20:L21"/>
     <mergeCell ref="J23:J24"/>
     <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="L70:L71"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A46:L46"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H36" r:id="rId1" display="http://email.com/"/>
+    <hyperlink ref="H36" r:id="rId1" display="http://email.com/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -5627,7 +5907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -5637,534 +5917,534 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="72" t="s">
+      <c r="G1" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="H1" s="72" t="s">
+      <c r="H1" s="32" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73" t="s">
+      <c r="E2" s="33"/>
+      <c r="F2" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73" t="s">
+      <c r="E3" s="33"/>
+      <c r="F3" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="73"/>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="33"/>
+      <c r="B4" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73" t="s">
+      <c r="E4" s="33"/>
+      <c r="F4" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A5" s="73"/>
-      <c r="B5" s="74" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73" t="s">
+      <c r="E5" s="33"/>
+      <c r="F5" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="73"/>
-      <c r="B6" s="74" t="s">
+      <c r="A6" s="33"/>
+      <c r="B6" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="E6" s="73"/>
-      <c r="F6" s="75" t="s">
+      <c r="E6" s="33"/>
+      <c r="F6" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="73"/>
-      <c r="B7" s="74" t="s">
+      <c r="A7" s="33"/>
+      <c r="B7" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="D7" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="E7" s="73"/>
-      <c r="F7" s="75" t="s">
+      <c r="E7" s="33"/>
+      <c r="F7" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A8" s="73"/>
-      <c r="B8" s="74" t="s">
+      <c r="A8" s="33"/>
+      <c r="B8" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="D8" s="75" t="s">
+      <c r="D8" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="E8" s="73"/>
-      <c r="F8" s="75" t="s">
+      <c r="E8" s="33"/>
+      <c r="F8" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="73"/>
-      <c r="B9" s="74" t="s">
+      <c r="A9" s="33"/>
+      <c r="B9" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="D9" s="75" t="s">
+      <c r="D9" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="E9" s="73"/>
-      <c r="F9" s="75" t="s">
+      <c r="E9" s="33"/>
+      <c r="F9" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="73"/>
-      <c r="B10" s="74" t="s">
+      <c r="A10" s="33"/>
+      <c r="B10" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="75" t="s">
+      <c r="C10" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="D10" s="75" t="s">
+      <c r="D10" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="75" t="s">
+      <c r="E10" s="33"/>
+      <c r="F10" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="73"/>
-      <c r="B11" s="74" t="s">
+      <c r="A11" s="33"/>
+      <c r="B11" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="75" t="s">
+      <c r="C11" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="D11" s="75" t="s">
+      <c r="D11" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73" t="s">
+      <c r="E11" s="33"/>
+      <c r="F11" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="73"/>
-      <c r="B12" s="74" t="s">
+      <c r="A12" s="33"/>
+      <c r="B12" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="75" t="s">
+      <c r="C12" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="D12" s="75" t="s">
+      <c r="D12" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73" t="s">
+      <c r="E12" s="33"/>
+      <c r="F12" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="73"/>
-      <c r="B13" s="74" t="s">
+      <c r="A13" s="33"/>
+      <c r="B13" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A14" s="73"/>
-      <c r="B14" s="74" t="s">
+      <c r="A14" s="33"/>
+      <c r="B14" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73" t="s">
+      <c r="C14" s="33"/>
+      <c r="D14" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A15" s="73"/>
-      <c r="B15" s="74" t="s">
+      <c r="A15" s="33"/>
+      <c r="B15" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73" t="s">
+      <c r="C15" s="33"/>
+      <c r="D15" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A16" s="73"/>
-      <c r="B16" s="74" t="s">
+      <c r="A16" s="33"/>
+      <c r="B16" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73" t="s">
+      <c r="C16" s="33"/>
+      <c r="D16" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-    </row>
-    <row r="17" spans="1:8" ht="12.75">
-      <c r="A17" s="76"/>
-      <c r="B17" s="74" t="s">
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+    </row>
+    <row r="17" spans="1:8" ht="13.2">
+      <c r="A17" s="36"/>
+      <c r="B17" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-    </row>
-    <row r="18" spans="1:8" ht="76.5">
-      <c r="A18" s="76">
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+    </row>
+    <row r="18" spans="1:8" ht="66">
+      <c r="A18" s="36">
         <v>44779</v>
       </c>
-      <c r="B18" s="77" t="s">
+      <c r="B18" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="77" t="s">
+      <c r="C18" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="D18" s="77" t="s">
+      <c r="D18" s="37" t="s">
         <v>224</v>
       </c>
-      <c r="E18" s="77" t="s">
+      <c r="E18" s="37" t="s">
         <v>246</v>
       </c>
-      <c r="F18" s="77" t="s">
+      <c r="F18" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A19" s="73"/>
-      <c r="B19" s="74" t="s">
+      <c r="A19" s="33"/>
+      <c r="B19" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73" t="s">
+      <c r="C19" s="33"/>
+      <c r="D19" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73" t="s">
+      <c r="E19" s="33"/>
+      <c r="F19" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A20" s="73"/>
-      <c r="B20" s="74" t="s">
+      <c r="A20" s="33"/>
+      <c r="B20" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73" t="s">
+      <c r="C20" s="33"/>
+      <c r="D20" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73" t="s">
+      <c r="E20" s="33"/>
+      <c r="F20" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A21" s="73"/>
-      <c r="B21" s="74" t="s">
+      <c r="A21" s="33"/>
+      <c r="B21" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73" t="s">
+      <c r="C21" s="33"/>
+      <c r="D21" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73" t="s">
+      <c r="E21" s="33"/>
+      <c r="F21" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A22" s="73"/>
-      <c r="B22" s="74" t="s">
+      <c r="A22" s="33"/>
+      <c r="B22" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73" t="s">
+      <c r="C22" s="33"/>
+      <c r="D22" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73" t="s">
+      <c r="E22" s="33"/>
+      <c r="F22" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A23" s="73"/>
-      <c r="B23" s="74" t="s">
+      <c r="A23" s="33"/>
+      <c r="B23" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73" t="s">
+      <c r="C23" s="33"/>
+      <c r="D23" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73" t="s">
+      <c r="E23" s="33"/>
+      <c r="F23" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A24" s="73"/>
-      <c r="B24" s="74" t="s">
+      <c r="A24" s="33"/>
+      <c r="B24" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73" t="s">
+      <c r="C24" s="33"/>
+      <c r="D24" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A25" s="73"/>
-      <c r="B25" s="74" t="s">
+      <c r="A25" s="33"/>
+      <c r="B25" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="73" t="s">
+      <c r="C25" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="D25" s="73" t="s">
+      <c r="D25" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73" t="s">
+      <c r="E25" s="33"/>
+      <c r="F25" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A26" s="73"/>
-      <c r="B26" s="74" t="s">
+      <c r="A26" s="33"/>
+      <c r="B26" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="C26" s="75" t="s">
+      <c r="C26" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="D26" s="75" t="s">
+      <c r="D26" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A27" s="73"/>
-      <c r="B27" s="78" t="s">
+      <c r="A27" s="33"/>
+      <c r="B27" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="C27" s="73" t="s">
+      <c r="C27" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="D27" s="73" t="s">
+      <c r="D27" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-    </row>
-    <row r="28" spans="1:8" ht="63.75">
-      <c r="A28" s="76">
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+    </row>
+    <row r="28" spans="1:8" ht="66">
+      <c r="A28" s="36">
         <v>44779</v>
       </c>
-      <c r="B28" s="77" t="s">
+      <c r="B28" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="C28" s="77" t="s">
+      <c r="C28" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="D28" s="77" t="s">
+      <c r="D28" s="37" t="s">
         <v>224</v>
       </c>
-      <c r="E28" s="77" t="s">
+      <c r="E28" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="F28" s="77" t="s">
+      <c r="F28" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-    </row>
-    <row r="29" spans="1:8" ht="51">
-      <c r="A29" s="76">
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+    </row>
+    <row r="29" spans="1:8" ht="66">
+      <c r="A29" s="36">
         <v>44779</v>
       </c>
-      <c r="B29" s="77" t="s">
+      <c r="B29" s="37" t="s">
         <v>229</v>
       </c>
-      <c r="C29" s="77" t="s">
+      <c r="C29" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="D29" s="77" t="s">
+      <c r="D29" s="37" t="s">
         <v>224</v>
       </c>
-      <c r="E29" s="77" t="s">
+      <c r="E29" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="F29" s="77" t="s">
+      <c r="F29" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-    </row>
-    <row r="30" spans="1:8" ht="76.5">
-      <c r="A30" s="76">
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+    </row>
+    <row r="30" spans="1:8" ht="66">
+      <c r="A30" s="36">
         <v>44779</v>
       </c>
-      <c r="B30" s="77" t="s">
+      <c r="B30" s="37" t="s">
         <v>241</v>
       </c>
-      <c r="C30" s="77" t="s">
+      <c r="C30" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="D30" s="77" t="s">
+      <c r="D30" s="37" t="s">
         <v>224</v>
       </c>
-      <c r="E30" s="77" t="s">
+      <c r="E30" s="37" t="s">
         <v>245</v>
       </c>
-      <c r="F30" s="77" t="s">
+      <c r="F30" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -6173,7 +6453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -6183,31 +6463,31 @@
       <selection sqref="A1:H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="105" t="s">
+      <c r="C1" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="105" t="s">
+      <c r="D1" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="105" t="s">
+      <c r="E1" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="105" t="s">
+      <c r="F1" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="105" t="s">
+      <c r="G1" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="H1" s="105" t="s">
+      <c r="H1" s="48" t="s">
         <v>127</v>
       </c>
     </row>
@@ -6377,101 +6657,101 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <cols>
-    <col min="8" max="8" width="24.140625" customWidth="1"/>
+    <col min="8" max="8" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="106" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="108" t="s">
         <v>181</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="108" t="s">
         <v>182</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="108" t="s">
         <v>183</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="62"/>
-      <c r="I1" s="52" t="s">
+      <c r="H1" s="105"/>
+      <c r="I1" s="103" t="s">
         <v>184</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="J1" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="52" t="s">
+      <c r="K1" s="103" t="s">
         <v>185</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="L1" s="103" t="s">
         <v>186</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="M1" s="103" t="s">
         <v>187</v>
       </c>
-      <c r="N1" s="52" t="s">
+      <c r="N1" s="103" t="s">
         <v>188</v>
       </c>
-      <c r="O1" s="52" t="s">
+      <c r="O1" s="103" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="64"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="16" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="92"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="94" t="s">
         <v>190</v>
       </c>
-      <c r="B3" s="56">
+      <c r="B3" s="101">
         <v>44784</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="96" t="s">
         <v>200</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="90" t="s">
         <v>199</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="90" t="s">
         <v>198</v>
       </c>
-      <c r="F3" s="58" t="s">
+      <c r="F3" s="90" t="s">
         <v>201</v>
       </c>
       <c r="G3" s="17">
@@ -6480,577 +6760,651 @@
       <c r="H3" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="I3" s="59"/>
-      <c r="J3" s="60" t="s">
+      <c r="I3" s="99"/>
+      <c r="J3" s="93" t="s">
         <v>191</v>
       </c>
-      <c r="K3" s="60" t="s">
+      <c r="K3" s="93" t="s">
         <v>202</v>
       </c>
-      <c r="L3" s="60" t="s">
+      <c r="L3" s="93" t="s">
         <v>203</v>
       </c>
-      <c r="M3" s="60" t="s">
+      <c r="M3" s="93" t="s">
         <v>180</v>
       </c>
-      <c r="N3" s="58" t="s">
+      <c r="N3" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="60" t="s">
+      <c r="O3" s="93" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="55"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
+      <c r="A4" s="91"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
       <c r="G4" s="17">
         <v>2</v>
       </c>
       <c r="H4" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="91"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="55"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
+      <c r="A5" s="91"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
       <c r="G5" s="17">
         <v>3</v>
       </c>
       <c r="H5" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="55"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
+      <c r="A6" s="91"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
       <c r="G6" s="17">
         <v>4</v>
       </c>
       <c r="H6" s="17"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="91"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
+      <c r="A7" s="92"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
       <c r="G7" s="17">
         <v>5</v>
       </c>
       <c r="H7" s="17"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="92"/>
+      <c r="O7" s="92"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="54"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
+      <c r="A8" s="94"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="93"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="90"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="55"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
+      <c r="A9" s="91"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="91"/>
+      <c r="O9" s="91"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="55"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="91"/>
+      <c r="O10" s="91"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="53"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
+      <c r="A11" s="92"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="54"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="69"/>
+      <c r="A12" s="94"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="100"/>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="90"/>
+      <c r="N12" s="90"/>
+      <c r="O12" s="90"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="55"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
+      <c r="A13" s="91"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="91"/>
+      <c r="O13" s="91"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="53"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
+      <c r="A14" s="92"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="92"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="54"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="66"/>
+      <c r="A15" s="94"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="98"/>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="90"/>
+      <c r="N15" s="90"/>
+      <c r="O15" s="90"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="55"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
+      <c r="A16" s="91"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="91"/>
+      <c r="N16" s="91"/>
+      <c r="O16" s="91"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="53"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
+      <c r="A17" s="92"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="54"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
+      <c r="A18" s="94"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="90"/>
+      <c r="O18" s="90"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="55"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
+      <c r="A19" s="91"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="91"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="55"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="91"/>
+      <c r="L19" s="91"/>
+      <c r="M19" s="91"/>
+      <c r="N19" s="91"/>
+      <c r="O19" s="91"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="55"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
+      <c r="A20" s="91"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91"/>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="91"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="91"/>
+      <c r="N20" s="91"/>
+      <c r="O20" s="91"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="53"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
+      <c r="A21" s="92"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+      <c r="N21" s="92"/>
+      <c r="O21" s="92"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="54"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
+      <c r="A22" s="94"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="98"/>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="90"/>
+      <c r="M22" s="90"/>
+      <c r="N22" s="90"/>
+      <c r="O22" s="90"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="55"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
+      <c r="A23" s="91"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="91"/>
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
+      <c r="I23" s="91"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="91"/>
+      <c r="L23" s="91"/>
+      <c r="M23" s="91"/>
+      <c r="N23" s="91"/>
+      <c r="O23" s="91"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="55"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
+      <c r="A24" s="91"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="91"/>
       <c r="G24" s="18"/>
       <c r="H24" s="19"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55"/>
+      <c r="I24" s="91"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="91"/>
+      <c r="L24" s="91"/>
+      <c r="M24" s="91"/>
+      <c r="N24" s="91"/>
+      <c r="O24" s="91"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="55"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
+      <c r="A25" s="91"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="55"/>
+      <c r="I25" s="91"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="91"/>
+      <c r="L25" s="91"/>
+      <c r="M25" s="91"/>
+      <c r="N25" s="91"/>
+      <c r="O25" s="91"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="53"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
+      <c r="A26" s="92"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="92"/>
+      <c r="M26" s="92"/>
+      <c r="N26" s="92"/>
+      <c r="O26" s="92"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="54"/>
-      <c r="B27" s="68"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
+      <c r="A27" s="94"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="96"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="60"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
+      <c r="I27" s="99"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="90"/>
+      <c r="L27" s="90"/>
+      <c r="M27" s="93"/>
+      <c r="N27" s="90"/>
+      <c r="O27" s="90"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="55"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
+      <c r="A28" s="91"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="91"/>
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="55"/>
-      <c r="O28" s="55"/>
+      <c r="I28" s="91"/>
+      <c r="J28" s="91"/>
+      <c r="K28" s="91"/>
+      <c r="L28" s="91"/>
+      <c r="M28" s="91"/>
+      <c r="N28" s="91"/>
+      <c r="O28" s="91"/>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="55"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
+      <c r="A29" s="91"/>
+      <c r="B29" s="91"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="91"/>
       <c r="G29" s="18"/>
       <c r="H29" s="18"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="55"/>
+      <c r="I29" s="91"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="91"/>
+      <c r="L29" s="91"/>
+      <c r="M29" s="91"/>
+      <c r="N29" s="91"/>
+      <c r="O29" s="91"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="53"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
+      <c r="A30" s="92"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
+      <c r="I30" s="92"/>
+      <c r="J30" s="92"/>
+      <c r="K30" s="92"/>
+      <c r="L30" s="92"/>
+      <c r="M30" s="92"/>
+      <c r="N30" s="92"/>
+      <c r="O30" s="92"/>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="54"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
+      <c r="A31" s="94"/>
+      <c r="B31" s="95"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="98"/>
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="58"/>
-      <c r="O31" s="58"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="93"/>
+      <c r="K31" s="90"/>
+      <c r="L31" s="90"/>
+      <c r="M31" s="90"/>
+      <c r="N31" s="90"/>
+      <c r="O31" s="90"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="55"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
+      <c r="A32" s="91"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="91"/>
+      <c r="F32" s="91"/>
       <c r="G32" s="18"/>
       <c r="H32" s="19"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="55"/>
-      <c r="O32" s="55"/>
+      <c r="I32" s="91"/>
+      <c r="J32" s="91"/>
+      <c r="K32" s="91"/>
+      <c r="L32" s="91"/>
+      <c r="M32" s="91"/>
+      <c r="N32" s="91"/>
+      <c r="O32" s="91"/>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="55"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
+      <c r="A33" s="91"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="91"/>
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="55"/>
-      <c r="O33" s="55"/>
+      <c r="I33" s="91"/>
+      <c r="J33" s="91"/>
+      <c r="K33" s="91"/>
+      <c r="L33" s="91"/>
+      <c r="M33" s="91"/>
+      <c r="N33" s="91"/>
+      <c r="O33" s="91"/>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="53"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
+      <c r="A34" s="92"/>
+      <c r="B34" s="92"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="92"/>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
+      <c r="I34" s="92"/>
+      <c r="J34" s="92"/>
+      <c r="K34" s="92"/>
+      <c r="L34" s="92"/>
+      <c r="M34" s="92"/>
+      <c r="N34" s="92"/>
+      <c r="O34" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="118">
-    <mergeCell ref="O27:O30"/>
-    <mergeCell ref="I31:I34"/>
-    <mergeCell ref="J31:J34"/>
-    <mergeCell ref="K31:K34"/>
-    <mergeCell ref="L31:L34"/>
-    <mergeCell ref="M31:M34"/>
-    <mergeCell ref="K27:K30"/>
-    <mergeCell ref="L27:L30"/>
-    <mergeCell ref="M27:M30"/>
-    <mergeCell ref="N27:N30"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="J8:J11"/>
+    <mergeCell ref="M3:M7"/>
+    <mergeCell ref="N3:N7"/>
+    <mergeCell ref="O3:O7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="N8:N11"/>
+    <mergeCell ref="O8:O11"/>
+    <mergeCell ref="K8:K11"/>
+    <mergeCell ref="L8:L11"/>
+    <mergeCell ref="M8:M11"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="N15:N17"/>
+    <mergeCell ref="O15:O17"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="K18:K21"/>
+    <mergeCell ref="L18:L21"/>
+    <mergeCell ref="M18:M21"/>
+    <mergeCell ref="N18:N21"/>
+    <mergeCell ref="O18:O21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="E22:E26"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="J18:J21"/>
     <mergeCell ref="A31:A34"/>
     <mergeCell ref="B31:B34"/>
     <mergeCell ref="C31:C34"/>
@@ -7075,93 +7429,19 @@
     <mergeCell ref="N31:N34"/>
     <mergeCell ref="O31:O34"/>
     <mergeCell ref="F31:F34"/>
-    <mergeCell ref="K18:K21"/>
-    <mergeCell ref="L18:L21"/>
-    <mergeCell ref="M18:M21"/>
-    <mergeCell ref="N18:N21"/>
-    <mergeCell ref="O18:O21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="E22:E26"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="J18:J21"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="N12:N14"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="N15:N17"/>
-    <mergeCell ref="O15:O17"/>
-    <mergeCell ref="K15:K17"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="I8:I11"/>
-    <mergeCell ref="J8:J11"/>
-    <mergeCell ref="M3:M7"/>
-    <mergeCell ref="N3:N7"/>
-    <mergeCell ref="O3:O7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="N8:N11"/>
-    <mergeCell ref="O8:O11"/>
-    <mergeCell ref="K8:K11"/>
-    <mergeCell ref="L8:L11"/>
-    <mergeCell ref="M8:M11"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="O27:O30"/>
+    <mergeCell ref="I31:I34"/>
+    <mergeCell ref="J31:J34"/>
+    <mergeCell ref="K31:K34"/>
+    <mergeCell ref="L31:L34"/>
+    <mergeCell ref="M31:M34"/>
+    <mergeCell ref="K27:K30"/>
+    <mergeCell ref="L27:L30"/>
+    <mergeCell ref="M27:M30"/>
+    <mergeCell ref="N27:N30"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="J3 J8 J12 J15 J18 J22 J27 J31">
+    <dataValidation type="list" allowBlank="1" sqref="J3 J8 J12 J15 J18 J22 J27 J31" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Reportado,En revisión,Finalizado"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7171,60 +7451,60 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
+    <sheetView zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="C1" s="106" t="s">
+      <c r="C1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="106" t="s">
+      <c r="D1" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="E1" s="106" t="s">
+      <c r="E1" s="49" t="s">
         <v>209</v>
       </c>
-      <c r="F1" s="106" t="s">
+      <c r="F1" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="G1" s="106" t="s">
+      <c r="G1" s="49" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="24">
-      <c r="A2" s="107" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="50" t="s">
         <v>400</v>
       </c>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="50" t="s">
         <v>212</v>
       </c>
-      <c r="C2" s="107" t="s">
+      <c r="C2" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="D2" s="107" t="s">
+      <c r="D2" s="50" t="s">
         <v>400</v>
       </c>
-      <c r="E2" s="107" t="s">
+      <c r="E2" s="50" t="s">
         <v>400</v>
       </c>
-      <c r="F2" s="107" t="s">
+      <c r="F2" s="50" t="s">
         <v>218</v>
       </c>
       <c r="G2" s="21" t="s">
@@ -7232,22 +7512,22 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="50" t="s">
         <v>400</v>
       </c>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="50" t="s">
         <v>213</v>
       </c>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="D3" s="107" t="s">
+      <c r="D3" s="50" t="s">
         <v>400</v>
       </c>
-      <c r="E3" s="107" t="s">
+      <c r="E3" s="50" t="s">
         <v>400</v>
       </c>
-      <c r="F3" s="107" t="s">
+      <c r="F3" s="50" t="s">
         <v>219</v>
       </c>
       <c r="G3" s="21" t="s">
@@ -7255,68 +7535,68 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="50" t="s">
         <v>400</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="50" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="D4" s="107" t="s">
+      <c r="D4" s="50" t="s">
         <v>400</v>
       </c>
-      <c r="E4" s="107" t="s">
+      <c r="E4" s="50" t="s">
         <v>400</v>
       </c>
-      <c r="F4" s="107" t="s">
+      <c r="F4" s="50" t="s">
         <v>220</v>
       </c>
       <c r="G4" s="21" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="24">
-      <c r="A5" s="107" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="50" t="s">
         <v>400</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="C5" s="107" t="s">
+      <c r="C5" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="D5" s="107" t="s">
+      <c r="D5" s="50" t="s">
         <v>400</v>
       </c>
-      <c r="E5" s="107" t="s">
+      <c r="E5" s="50" t="s">
         <v>400</v>
       </c>
-      <c r="F5" s="107" t="s">
+      <c r="F5" s="50" t="s">
         <v>222</v>
       </c>
       <c r="G5" s="21" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="36">
-      <c r="A6" s="107" t="s">
+    <row r="6" spans="1:7" ht="23.4">
+      <c r="A6" s="50" t="s">
         <v>400</v>
       </c>
-      <c r="B6" s="107" t="s">
+      <c r="B6" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="C6" s="107" t="s">
+      <c r="C6" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="D6" s="107" t="s">
+      <c r="D6" s="50" t="s">
         <v>400</v>
       </c>
-      <c r="E6" s="107" t="s">
+      <c r="E6" s="50" t="s">
         <v>400</v>
       </c>
-      <c r="F6" s="107" t="s">
+      <c r="F6" s="50" t="s">
         <v>221</v>
       </c>
       <c r="G6" s="21" t="s">
@@ -7324,22 +7604,22 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="107" t="s">
+      <c r="A7" s="50" t="s">
         <v>400</v>
       </c>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="50" t="s">
         <v>217</v>
       </c>
-      <c r="C7" s="107" t="s">
+      <c r="C7" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="D7" s="107" t="s">
+      <c r="D7" s="50" t="s">
         <v>400</v>
       </c>
-      <c r="E7" s="107" t="s">
+      <c r="E7" s="50" t="s">
         <v>400</v>
       </c>
-      <c r="F7" s="107" t="s">
+      <c r="F7" s="50" t="s">
         <v>223</v>
       </c>
       <c r="G7" s="21" t="s">

--- a/Testing/Sprint 2/Casos-de-prueba/Documentacion-Testing-S2.xlsx
+++ b/Testing/Sprint 2/Casos-de-prueba/Documentacion-Testing-S2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p1p3p\OneDrive\Documentos\PI\grupo-09\Testing\Sprint 2\Casos-de-prueba\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dina\Documents\Subir desde aqui\grupo-09\Testing\Sprint 2\Casos-de-prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5B8E97-0832-4EEE-BBDA-FE1A0EDC12F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de Prueba" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="449">
   <si>
     <t>ID</t>
   </si>
@@ -621,9 +620,6 @@
     <t>DEF001</t>
   </si>
   <si>
-    <t>Finalizado</t>
-  </si>
-  <si>
     <t>PASED</t>
   </si>
   <si>
@@ -642,82 +638,16 @@
     <t xml:space="preserve">Comprobar que el header ocupe el 100% de la pantalla </t>
   </si>
   <si>
-    <t>Letras aparecen corridas</t>
-  </si>
-  <si>
-    <t>En la vista de tablet en el bloque de busqueda  del campo buscador el nombre de la ciudad aparece corrido.</t>
-  </si>
-  <si>
-    <t>Nombre de la ciudad aparece corrido</t>
-  </si>
-  <si>
-    <t>Que en e buscador aaparezca el texto centrado</t>
-  </si>
-  <si>
-    <t>Reportado</t>
-  </si>
-  <si>
-    <t>Baja</t>
-  </si>
-  <si>
-    <t>Dar clic en en el buscador</t>
-  </si>
-  <si>
-    <t>Seleccionar la Ciudad</t>
-  </si>
-  <si>
     <t>ID Issue</t>
   </si>
   <si>
-    <t>Git Lab Issues</t>
-  </si>
-  <si>
     <t>Fecha de Ejecución</t>
   </si>
   <si>
     <t>ID defecto</t>
   </si>
   <si>
-    <t xml:space="preserve">Comentarios </t>
-  </si>
-  <si>
     <t>CP-026</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># 1 </t>
-  </si>
-  <si>
-    <t>#6</t>
-  </si>
-  <si>
-    <t>#7</t>
-  </si>
-  <si>
-    <t>#9</t>
-  </si>
-  <si>
-    <t>#10</t>
-  </si>
-  <si>
-    <t>#11</t>
-  </si>
-  <si>
-    <t>Que el aplicativo sea responsive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lista de ciudades </t>
-  </si>
-  <si>
-    <t>Listado de poductos</t>
-  </si>
-  <si>
-    <t>Mail valido, contraseña de 6 digitos, contraseñas coincidan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Que los campos son correctos </t>
-  </si>
-  <si>
-    <t>Evento de header</t>
   </si>
   <si>
     <t>PASSED</t>
@@ -1044,21 +974,12 @@
     <t>CDP-39</t>
   </si>
   <si>
-    <t>CDP-40</t>
-  </si>
-  <si>
     <t>CDP-41</t>
   </si>
   <si>
     <t>CDP-42</t>
   </si>
   <si>
-    <t>CDP-43</t>
-  </si>
-  <si>
-    <t>CDP-44</t>
-  </si>
-  <si>
     <t>CDP-45</t>
   </si>
   <si>
@@ -1071,54 +992,6 @@
     <t>CDP-48</t>
   </si>
   <si>
-    <t>CDP-49</t>
-  </si>
-  <si>
-    <t>CDP-50</t>
-  </si>
-  <si>
-    <t>CDP-51</t>
-  </si>
-  <si>
-    <t>CDP-52</t>
-  </si>
-  <si>
-    <t>CDP-53</t>
-  </si>
-  <si>
-    <t>CDP-54</t>
-  </si>
-  <si>
-    <t>CDP-55</t>
-  </si>
-  <si>
-    <t>CDP-56</t>
-  </si>
-  <si>
-    <t>CDP-57</t>
-  </si>
-  <si>
-    <t>CDP-58</t>
-  </si>
-  <si>
-    <t>CDP-59</t>
-  </si>
-  <si>
-    <t>CDP-60</t>
-  </si>
-  <si>
-    <t>CDP-61</t>
-  </si>
-  <si>
-    <t>CDP-62</t>
-  </si>
-  <si>
-    <t>CDP-63</t>
-  </si>
-  <si>
-    <t>CDP-64</t>
-  </si>
-  <si>
     <t>Llamar categoria por id en postan</t>
   </si>
   <si>
@@ -1281,21 +1154,6 @@
     <t>Politica llamada por id</t>
   </si>
   <si>
-    <t>CDP-65</t>
-  </si>
-  <si>
-    <t>CDP-66</t>
-  </si>
-  <si>
-    <t>CDP-67</t>
-  </si>
-  <si>
-    <t>CDP-68</t>
-  </si>
-  <si>
-    <t>CDP-69</t>
-  </si>
-  <si>
     <t>Done</t>
   </si>
   <si>
@@ -1308,16 +1166,7 @@
     <t>Sprint 2</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Tester</t>
-  </si>
-  <si>
-    <t>CDP-70</t>
   </si>
   <si>
     <t>MVP</t>
@@ -1369,9 +1218,6 @@
     <t>Visualizar la ejecucion de una instancia EC2 con la VPC predeterminada por la region, asi como tambien la visualizacion de 2 bucket y una instancia MYSQL RDS.</t>
   </si>
   <si>
-    <t>CDP-71</t>
-  </si>
-  <si>
     <t>Acceder a los servicios de amazon 24/7</t>
   </si>
   <si>
@@ -1394,16 +1240,245 @@
   </si>
   <si>
     <t>Visualizacion del contenido estatico (Front end), de nuestra aplicación</t>
+  </si>
+  <si>
+    <t>CDP-044</t>
+  </si>
+  <si>
+    <t>CDP-043</t>
+  </si>
+  <si>
+    <t>CDP-040</t>
+  </si>
+  <si>
+    <t>CDP-049</t>
+  </si>
+  <si>
+    <t>CDP-050</t>
+  </si>
+  <si>
+    <t>CDP-051</t>
+  </si>
+  <si>
+    <t>CDP-052</t>
+  </si>
+  <si>
+    <t>CDP-053</t>
+  </si>
+  <si>
+    <t>CDP-054</t>
+  </si>
+  <si>
+    <t>CDP-055</t>
+  </si>
+  <si>
+    <t>CDP-056</t>
+  </si>
+  <si>
+    <t>CDP-057</t>
+  </si>
+  <si>
+    <t>CDP-058</t>
+  </si>
+  <si>
+    <t>CDP-059</t>
+  </si>
+  <si>
+    <t>CDP-060</t>
+  </si>
+  <si>
+    <t>CDP-061</t>
+  </si>
+  <si>
+    <t>CDP-062</t>
+  </si>
+  <si>
+    <t>CDP-063</t>
+  </si>
+  <si>
+    <t>CDP-064</t>
+  </si>
+  <si>
+    <t>CDP-065</t>
+  </si>
+  <si>
+    <t>Desktop</t>
+  </si>
+  <si>
+    <t>CDP-40</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>CDP-43</t>
+  </si>
+  <si>
+    <t>CDP-44</t>
+  </si>
+  <si>
+    <t>FALLED</t>
+  </si>
+  <si>
+    <t>CDP-49</t>
+  </si>
+  <si>
+    <t>CDP-50</t>
+  </si>
+  <si>
+    <t>CDP-51</t>
+  </si>
+  <si>
+    <t>CDP-52</t>
+  </si>
+  <si>
+    <t>CDP-53</t>
+  </si>
+  <si>
+    <t>CDP-54</t>
+  </si>
+  <si>
+    <t>CDP-55</t>
+  </si>
+  <si>
+    <t>CDP-56</t>
+  </si>
+  <si>
+    <t>CDP-57</t>
+  </si>
+  <si>
+    <t>CDP-58</t>
+  </si>
+  <si>
+    <t>CDP-59</t>
+  </si>
+  <si>
+    <t>CDP-60</t>
+  </si>
+  <si>
+    <t>CDP-61</t>
+  </si>
+  <si>
+    <t>CDP-62</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Titulo</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>CPE-01</t>
+  </si>
+  <si>
+    <t>validar que el aplicativo sea responsive</t>
+  </si>
+  <si>
+    <t>Prueba satisfactoria</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1oiYzDQdYdzl-fDrQeiHYrVDAPPA2LyYYkw5E6q7uZUo/edit?usp=sharing</t>
+  </si>
+  <si>
+    <t>CPE-02</t>
+  </si>
+  <si>
+    <t>Validar el buscador de ciudad</t>
+  </si>
+  <si>
+    <t>CPE-03</t>
+  </si>
+  <si>
+    <t>Validar lista de productos</t>
+  </si>
+  <si>
+    <t>CPE-04</t>
+  </si>
+  <si>
+    <t>Validar buscador</t>
+  </si>
+  <si>
+    <t>CPE-05</t>
+  </si>
+  <si>
+    <t>Validar login del usuario con credenciales correctas</t>
+  </si>
+  <si>
+    <t>CPE-006</t>
+  </si>
+  <si>
+    <t>Validar login del usuario cuando se coloca credenciales incorrectos</t>
+  </si>
+  <si>
+    <t>CPE-007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar eventos en Header 
+</t>
+  </si>
+  <si>
+    <t>CPE-008</t>
+  </si>
+  <si>
+    <t>Validar login del aplicativo</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1ctgYjBKbBwXZuBgA49Yu6WRGp97y6a71ktUYSRh1pWE/edit?usp=sharing</t>
+  </si>
+  <si>
+    <t>CPE-009</t>
+  </si>
+  <si>
+    <t>Validar que aparezcan los datos de ubicación en la descripción del producto</t>
+  </si>
+  <si>
+    <t>CPE-010</t>
+  </si>
+  <si>
+    <t>Validar que no se realice filtro cuando no se ha seleccionado una ciudad</t>
+  </si>
+  <si>
+    <t>CPE-011</t>
+  </si>
+  <si>
+    <t>Validar el detalle de los productos</t>
+  </si>
+  <si>
+    <t>CPE-012</t>
+  </si>
+  <si>
+    <t>Validar el botón volver atras</t>
+  </si>
+  <si>
+    <t>CPE-013</t>
+  </si>
+  <si>
+    <t>Validar que cuando el usuario no esta logueado le aparezcan los productos en orden aleatorio</t>
+  </si>
+  <si>
+    <t>CPE-014</t>
+  </si>
+  <si>
+    <t>Validar que cuando el usuario estaloueado le aparezcan los productos siempre en el mismo orden</t>
+  </si>
+  <si>
+    <t>CPE-015</t>
+  </si>
+  <si>
+    <t>Validar que al dar clic en el botón cerrar en la galeria de imagenes redireccione al detalle del producto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1532,17 +1607,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF202124"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1584,12 +1666,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1600,8 +1676,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1887,12 +1969,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1946,7 +2088,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1978,16 +2119,16 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2018,16 +2159,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2095,15 +2230,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2129,10 +2255,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2174,26 +2318,77 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2410,15 +2605,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z92"/>
+  <dimension ref="A1:Z86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+    <sheetView zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D96" sqref="D96"/>
+      <selection pane="bottomLeft" activeCell="E82" sqref="E82:E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
@@ -2434,46 +2629,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="13.2">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="78" t="s">
+      <c r="D1" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="78" t="s">
+      <c r="E1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="78" t="s">
+      <c r="F1" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="80" t="s">
+      <c r="G1" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="81"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="78" t="s">
+      <c r="H1" s="75"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="78" t="s">
+      <c r="K1" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="78" t="s">
+      <c r="L1" s="72" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="13.8">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
@@ -2483,25 +2678,25 @@
       <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
     </row>
     <row r="3" spans="1:13" ht="56.25" customHeight="1">
-      <c r="A3" s="51" t="s">
-        <v>397</v>
-      </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
+      <c r="A3" s="48" t="s">
+        <v>350</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
     </row>
     <row r="4" spans="1:13" ht="66">
       <c r="A4" s="2" t="s">
@@ -2532,7 +2727,7 @@
         <v>19</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>395</v>
+        <v>348</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>20</v>
@@ -2571,7 +2766,7 @@
         <v>26</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>395</v>
+        <v>348</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>20</v>
@@ -2610,7 +2805,7 @@
         <v>31</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>395</v>
+        <v>348</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>20</v>
@@ -2628,7 +2823,7 @@
         <v>44779</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>33</v>
@@ -2649,7 +2844,7 @@
         <v>36</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>395</v>
+        <v>348</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>20</v>
@@ -2688,7 +2883,7 @@
         <v>42</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>395</v>
+        <v>348</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>20</v>
@@ -2727,7 +2922,7 @@
         <v>48</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>395</v>
+        <v>348</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>20</v>
@@ -2766,7 +2961,7 @@
         <v>54</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>395</v>
+        <v>348</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>20</v>
@@ -2777,23 +2972,23 @@
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13" ht="79.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="21" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="3">
         <v>44779</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>196</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>197</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="23" t="s">
-        <v>225</v>
+      <c r="F11" s="22" t="s">
+        <v>202</v>
       </c>
       <c r="G11" s="5">
         <v>8</v>
@@ -2801,14 +2996,14 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5" t="s">
-        <v>395</v>
+        <v>348</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13" ht="92.4">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="21" t="s">
         <v>61</v>
       </c>
       <c r="B12" s="3">
@@ -2836,7 +3031,7 @@
         <v>60</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>395</v>
+        <v>348</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>20</v>
@@ -2847,7 +3042,7 @@
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="92.4">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="21" t="s">
         <v>65</v>
       </c>
       <c r="B13" s="3">
@@ -2875,7 +3070,7 @@
         <v>64</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>395</v>
+        <v>348</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>20</v>
@@ -2886,7 +3081,7 @@
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:13" ht="92.4">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="21" t="s">
         <v>69</v>
       </c>
       <c r="B14" s="3">
@@ -2914,7 +3109,7 @@
         <v>68</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>395</v>
+        <v>348</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>20</v>
@@ -2925,7 +3120,7 @@
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:13" ht="118.8">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B15" s="3">
@@ -2953,7 +3148,7 @@
         <v>75</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>395</v>
+        <v>348</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>20</v>
@@ -2964,7 +3159,7 @@
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:13" ht="105.6">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="21" t="s">
         <v>81</v>
       </c>
       <c r="B16" s="3">
@@ -2992,7 +3187,7 @@
         <v>80</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>395</v>
+        <v>348</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>20</v>
@@ -3003,7 +3198,7 @@
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:26" ht="92.4">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="21" t="s">
         <v>87</v>
       </c>
       <c r="B17" s="3">
@@ -3031,7 +3226,7 @@
         <v>86</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>395</v>
+        <v>348</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>20</v>
@@ -3042,7 +3237,7 @@
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:26" ht="92.4">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="21" t="s">
         <v>89</v>
       </c>
       <c r="B18" s="3">
@@ -3070,7 +3265,7 @@
         <v>86</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>395</v>
+        <v>348</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>20</v>
@@ -3081,7 +3276,7 @@
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:26" ht="93" thickBot="1">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="21" t="s">
         <v>91</v>
       </c>
       <c r="B19" s="3">
@@ -3109,7 +3304,7 @@
         <v>86</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>395</v>
+        <v>348</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>20</v>
@@ -3120,40 +3315,40 @@
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:26" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="68">
+      <c r="B20" s="65">
         <v>44779</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="60" t="s">
+      <c r="D20" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="E20" s="60" t="s">
+      <c r="E20" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="60" t="s">
+      <c r="F20" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="G20" s="60">
+      <c r="G20" s="57">
         <v>1</v>
       </c>
-      <c r="H20" s="65" t="s">
+      <c r="H20" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="I20" s="60" t="s">
+      <c r="I20" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="J20" s="64" t="s">
-        <v>395</v>
-      </c>
-      <c r="K20" s="60" t="s">
+      <c r="J20" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="K20" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="L20" s="60" t="s">
+      <c r="L20" s="57" t="s">
         <v>133</v>
       </c>
       <c r="M20" s="10"/>
@@ -3172,18 +3367,18 @@
       <c r="Z20" s="10"/>
     </row>
     <row r="21" spans="1:26" ht="13.8" thickBot="1">
-      <c r="A21" s="67"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="61"/>
+      <c r="A21" s="64"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
@@ -3200,12 +3395,12 @@
       <c r="Z21" s="10"/>
     </row>
     <row r="22" spans="1:26" ht="40.200000000000003" thickBot="1">
-      <c r="A22" s="61"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
       <c r="G22" s="7">
         <v>2</v>
       </c>
@@ -3215,8 +3410,8 @@
       <c r="I22" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="J22" s="39" t="s">
-        <v>395</v>
+      <c r="J22" s="38" t="s">
+        <v>348</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>93</v>
@@ -3246,16 +3441,16 @@
       <c r="B23" s="8">
         <v>44779</v>
       </c>
-      <c r="C23" s="60" t="s">
+      <c r="C23" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="D23" s="60" t="s">
+      <c r="D23" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="E23" s="60" t="s">
+      <c r="E23" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="60" t="s">
+      <c r="F23" s="57" t="s">
         <v>138</v>
       </c>
       <c r="G23" s="7">
@@ -3264,16 +3459,16 @@
       <c r="H23" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="I23" s="60" t="s">
+      <c r="I23" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="J23" s="64" t="s">
-        <v>395</v>
-      </c>
-      <c r="K23" s="60" t="s">
+      <c r="J23" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="K23" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="L23" s="60" t="s">
+      <c r="L23" s="57" t="s">
         <v>133</v>
       </c>
       <c r="M23" s="10"/>
@@ -3294,20 +3489,20 @@
     <row r="24" spans="1:26" ht="40.200000000000003" thickBot="1">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
       <c r="G24" s="7">
         <v>2</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="I24" s="61"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
@@ -3330,16 +3525,16 @@
       <c r="B25" s="8">
         <v>44779</v>
       </c>
-      <c r="C25" s="65" t="s">
+      <c r="C25" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="D25" s="65" t="s">
+      <c r="D25" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="E25" s="65" t="s">
+      <c r="E25" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="F25" s="65" t="s">
+      <c r="F25" s="62" t="s">
         <v>144</v>
       </c>
       <c r="G25" s="9">
@@ -3348,11 +3543,11 @@
       <c r="H25" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="I25" s="65" t="s">
+      <c r="I25" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="J25" s="62" t="s">
-        <v>395</v>
+      <c r="J25" s="59" t="s">
+        <v>348</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>20</v>
@@ -3378,18 +3573,18 @@
     <row r="26" spans="1:26" ht="27" thickBot="1">
       <c r="A26" s="10"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
       <c r="G26" s="9">
         <v>2</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="I26" s="66"/>
-      <c r="J26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="60"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
@@ -3408,22 +3603,22 @@
       <c r="Z26" s="10"/>
     </row>
     <row r="27" spans="1:26" ht="27" thickBot="1">
-      <c r="A27" s="60" t="s">
+      <c r="A27" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="68">
+      <c r="B27" s="65">
         <v>44779</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="C27" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="D27" s="60" t="s">
+      <c r="D27" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="E27" s="60" t="s">
+      <c r="E27" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="60" t="s">
+      <c r="F27" s="57" t="s">
         <v>95</v>
       </c>
       <c r="G27" s="7">
@@ -3432,13 +3627,13 @@
       <c r="H27" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="I27" s="60" t="s">
+      <c r="I27" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="J27" s="62" t="s">
-        <v>395</v>
-      </c>
-      <c r="K27" s="60" t="s">
+      <c r="J27" s="59" t="s">
+        <v>348</v>
+      </c>
+      <c r="K27" s="57" t="s">
         <v>102</v>
       </c>
       <c r="L27" s="7" t="s">
@@ -3460,21 +3655,21 @@
       <c r="Z27" s="11"/>
     </row>
     <row r="28" spans="1:26" ht="40.200000000000003" thickBot="1">
-      <c r="A28" s="61"/>
-      <c r="B28" s="70"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
       <c r="G28" s="7">
         <v>2</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="I28" s="61"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="61"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="58"/>
       <c r="L28" s="7" t="s">
         <v>149</v>
       </c>
@@ -3494,22 +3689,22 @@
       <c r="Z28" s="11"/>
     </row>
     <row r="29" spans="1:26" ht="40.200000000000003" thickBot="1">
-      <c r="A29" s="65" t="s">
+      <c r="A29" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="83">
+      <c r="B29" s="77">
         <v>44779</v>
       </c>
-      <c r="C29" s="65" t="s">
+      <c r="C29" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="D29" s="65" t="s">
+      <c r="D29" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="E29" s="65" t="s">
+      <c r="E29" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="65" t="s">
+      <c r="F29" s="62" t="s">
         <v>105</v>
       </c>
       <c r="G29" s="9" t="s">
@@ -3518,16 +3713,16 @@
       <c r="H29" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="I29" s="65" t="s">
+      <c r="I29" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="J29" s="62" t="s">
-        <v>395</v>
-      </c>
-      <c r="K29" s="60" t="s">
+      <c r="J29" s="59" t="s">
+        <v>348</v>
+      </c>
+      <c r="K29" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="60" t="s">
+      <c r="L29" s="57" t="s">
         <v>153</v>
       </c>
       <c r="M29" s="11"/>
@@ -3546,22 +3741,22 @@
       <c r="Z29" s="11"/>
     </row>
     <row r="30" spans="1:26" ht="27" thickBot="1">
-      <c r="A30" s="66"/>
-      <c r="B30" s="84"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
+      <c r="A30" s="63"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
       <c r="G30" s="9" t="s">
         <v>154</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="I30" s="66"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="61"/>
-      <c r="L30" s="61"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
       <c r="O30" s="11"/>
@@ -3578,22 +3773,22 @@
       <c r="Z30" s="11"/>
     </row>
     <row r="31" spans="1:26" ht="13.8" thickBot="1">
-      <c r="A31" s="60" t="s">
+      <c r="A31" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="B31" s="68">
+      <c r="B31" s="65">
         <v>44779</v>
       </c>
-      <c r="C31" s="60" t="s">
+      <c r="C31" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="D31" s="60" t="s">
+      <c r="D31" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="E31" s="60" t="s">
+      <c r="E31" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="60" t="s">
+      <c r="F31" s="57" t="s">
         <v>157</v>
       </c>
       <c r="G31" s="7">
@@ -3602,16 +3797,16 @@
       <c r="H31" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="I31" s="60" t="s">
+      <c r="I31" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="J31" s="62" t="s">
-        <v>395</v>
-      </c>
-      <c r="K31" s="60" t="s">
+      <c r="J31" s="59" t="s">
+        <v>348</v>
+      </c>
+      <c r="K31" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="L31" s="60" t="s">
+      <c r="L31" s="57" t="s">
         <v>133</v>
       </c>
       <c r="M31" s="11"/>
@@ -3630,22 +3825,22 @@
       <c r="Z31" s="11"/>
     </row>
     <row r="32" spans="1:26" ht="27" thickBot="1">
-      <c r="A32" s="61"/>
-      <c r="B32" s="70"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
+      <c r="A32" s="58"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
       <c r="G32" s="7">
         <v>2</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="I32" s="61"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="61"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="58"/>
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
       <c r="O32" s="11"/>
@@ -3662,22 +3857,22 @@
       <c r="Z32" s="11"/>
     </row>
     <row r="33" spans="1:26" ht="13.8" thickBot="1">
-      <c r="A33" s="60" t="s">
+      <c r="A33" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="B33" s="68">
+      <c r="B33" s="65">
         <v>44779</v>
       </c>
-      <c r="C33" s="60" t="s">
+      <c r="C33" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="D33" s="60" t="s">
+      <c r="D33" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="E33" s="60" t="s">
+      <c r="E33" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="60" t="s">
+      <c r="F33" s="57" t="s">
         <v>111</v>
       </c>
       <c r="G33" s="7" t="s">
@@ -3686,16 +3881,16 @@
       <c r="H33" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="I33" s="60" t="s">
+      <c r="I33" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="J33" s="62" t="s">
-        <v>395</v>
-      </c>
-      <c r="K33" s="60" t="s">
+      <c r="J33" s="59" t="s">
+        <v>348</v>
+      </c>
+      <c r="K33" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="L33" s="60" t="s">
+      <c r="L33" s="57" t="s">
         <v>133</v>
       </c>
       <c r="M33" s="11"/>
@@ -3714,22 +3909,22 @@
       <c r="Z33" s="11"/>
     </row>
     <row r="34" spans="1:26" ht="53.4" thickBot="1">
-      <c r="A34" s="61"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
+      <c r="A34" s="58"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
       <c r="G34" s="7" t="s">
         <v>154</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="I34" s="61"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="61"/>
-      <c r="L34" s="61"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="58"/>
       <c r="M34" s="11"/>
       <c r="N34" s="11"/>
       <c r="O34" s="11"/>
@@ -3746,22 +3941,22 @@
       <c r="Z34" s="11"/>
     </row>
     <row r="35" spans="1:26" ht="13.8" thickBot="1">
-      <c r="A35" s="65" t="s">
+      <c r="A35" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="B35" s="83">
+      <c r="B35" s="77">
         <v>44779</v>
       </c>
-      <c r="C35" s="65" t="s">
+      <c r="C35" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="D35" s="65" t="s">
+      <c r="D35" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="E35" s="65" t="s">
+      <c r="E35" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="65" t="s">
+      <c r="F35" s="62" t="s">
         <v>115</v>
       </c>
       <c r="G35" s="9">
@@ -3770,16 +3965,16 @@
       <c r="H35" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I35" s="65" t="s">
+      <c r="I35" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="J35" s="62" t="s">
-        <v>395</v>
-      </c>
-      <c r="K35" s="60" t="s">
+      <c r="J35" s="59" t="s">
+        <v>348</v>
+      </c>
+      <c r="K35" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="L35" s="60" t="s">
+      <c r="L35" s="57" t="s">
         <v>153</v>
       </c>
       <c r="M35" s="11"/>
@@ -3798,22 +3993,22 @@
       <c r="Z35" s="11"/>
     </row>
     <row r="36" spans="1:26" ht="40.200000000000003" thickBot="1">
-      <c r="A36" s="66"/>
-      <c r="B36" s="84"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
+      <c r="A36" s="63"/>
+      <c r="B36" s="78"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
       <c r="G36" s="9">
         <v>2</v>
       </c>
       <c r="H36" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="I36" s="66"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="61"/>
-      <c r="L36" s="61"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="58"/>
       <c r="M36" s="11"/>
       <c r="N36" s="11"/>
       <c r="O36" s="11"/>
@@ -3830,22 +4025,22 @@
       <c r="Z36" s="11"/>
     </row>
     <row r="37" spans="1:26" ht="27" thickBot="1">
-      <c r="A37" s="65" t="s">
+      <c r="A37" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="B37" s="83">
+      <c r="B37" s="77">
         <v>44779</v>
       </c>
-      <c r="C37" s="65" t="s">
+      <c r="C37" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="D37" s="65" t="s">
+      <c r="D37" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="E37" s="65" t="s">
+      <c r="E37" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="F37" s="65" t="s">
+      <c r="F37" s="62" t="s">
         <v>168</v>
       </c>
       <c r="G37" s="9">
@@ -3854,16 +4049,16 @@
       <c r="H37" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="I37" s="65" t="s">
+      <c r="I37" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="J37" s="62" t="s">
-        <v>395</v>
-      </c>
-      <c r="K37" s="60" t="s">
+      <c r="J37" s="59" t="s">
+        <v>348</v>
+      </c>
+      <c r="K37" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="L37" s="60" t="s">
+      <c r="L37" s="57" t="s">
         <v>133</v>
       </c>
       <c r="M37" s="11"/>
@@ -3882,22 +4077,22 @@
       <c r="Z37" s="11"/>
     </row>
     <row r="38" spans="1:26" ht="40.200000000000003" thickBot="1">
-      <c r="A38" s="66"/>
-      <c r="B38" s="84"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
+      <c r="A38" s="63"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
       <c r="G38" s="9">
         <v>2</v>
       </c>
       <c r="H38" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="I38" s="66"/>
-      <c r="J38" s="63"/>
-      <c r="K38" s="61"/>
-      <c r="L38" s="61"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="60"/>
+      <c r="K38" s="58"/>
+      <c r="L38" s="58"/>
       <c r="M38" s="11"/>
       <c r="N38" s="11"/>
       <c r="O38" s="11"/>
@@ -3914,22 +4109,22 @@
       <c r="Z38" s="11"/>
     </row>
     <row r="39" spans="1:26" ht="13.2">
-      <c r="A39" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="B39" s="77">
+      <c r="A39" s="84" t="s">
+        <v>200</v>
+      </c>
+      <c r="B39" s="86">
         <v>44779</v>
       </c>
-      <c r="C39" s="76" t="s">
+      <c r="C39" s="85" t="s">
         <v>173</v>
       </c>
-      <c r="D39" s="73" t="s">
+      <c r="D39" s="70" t="s">
         <v>174</v>
       </c>
-      <c r="E39" s="75" t="s">
+      <c r="E39" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="75" t="s">
+      <c r="F39" s="84" t="s">
         <v>161</v>
       </c>
       <c r="G39" s="13">
@@ -3938,1837 +4133,1630 @@
       <c r="H39" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="I39" s="73" t="s">
+      <c r="I39" s="70" t="s">
         <v>177</v>
       </c>
-      <c r="J39" s="71" t="s">
-        <v>396</v>
-      </c>
-      <c r="K39" s="60" t="s">
+      <c r="J39" s="68" t="s">
+        <v>349</v>
+      </c>
+      <c r="K39" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="L39" s="60" t="s">
+      <c r="L39" s="57" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="26.4">
-      <c r="A40" s="74"/>
-      <c r="B40" s="74"/>
-      <c r="C40" s="74"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="74"/>
-      <c r="G40" s="24">
+      <c r="A40" s="71"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="71"/>
+      <c r="D40" s="71"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="23">
         <v>2</v>
       </c>
       <c r="H40" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="I40" s="74"/>
-      <c r="J40" s="72"/>
-      <c r="K40" s="67"/>
-      <c r="L40" s="67"/>
+      <c r="I40" s="71"/>
+      <c r="J40" s="69"/>
+      <c r="K40" s="64"/>
+      <c r="L40" s="64"/>
     </row>
     <row r="41" spans="1:26" ht="38.25" customHeight="1">
-      <c r="A41" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="B41" s="55">
+      <c r="A41" s="80" t="s">
+        <v>205</v>
+      </c>
+      <c r="B41" s="52">
         <v>44789</v>
       </c>
-      <c r="C41" s="57" t="s">
-        <v>230</v>
-      </c>
-      <c r="D41" s="57" t="s">
-        <v>233</v>
-      </c>
-      <c r="E41" s="57" t="s">
+      <c r="C41" s="54" t="s">
+        <v>207</v>
+      </c>
+      <c r="D41" s="54" t="s">
+        <v>210</v>
+      </c>
+      <c r="E41" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="F41" s="57" t="s">
+      <c r="F41" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="G41" s="57">
+      <c r="G41" s="54">
         <v>1</v>
       </c>
-      <c r="H41" s="57" t="s">
-        <v>236</v>
-      </c>
-      <c r="I41" s="57" t="s">
-        <v>239</v>
-      </c>
-      <c r="J41" s="57" t="s">
-        <v>395</v>
-      </c>
-      <c r="K41" s="85" t="s">
+      <c r="H41" s="54" t="s">
+        <v>213</v>
+      </c>
+      <c r="I41" s="54" t="s">
+        <v>216</v>
+      </c>
+      <c r="J41" s="54" t="s">
+        <v>348</v>
+      </c>
+      <c r="K41" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="L41" s="85" t="s">
+      <c r="L41" s="79" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:26" ht="13.2">
-      <c r="A42" s="87"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="58"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="58"/>
-      <c r="K42" s="85"/>
-      <c r="L42" s="85"/>
+      <c r="A42" s="81"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="55"/>
+      <c r="K42" s="79"/>
+      <c r="L42" s="79"/>
     </row>
     <row r="43" spans="1:26" ht="39.6">
-      <c r="A43" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="B43" s="28">
+      <c r="A43" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="B43" s="27">
         <v>44789</v>
       </c>
-      <c r="C43" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="D43" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="E43" s="27" t="s">
+      <c r="C43" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="E43" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="F43" s="26" t="s">
+      <c r="F43" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="G43" s="27">
+      <c r="G43" s="26">
         <v>1</v>
       </c>
-      <c r="H43" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="I43" s="27" t="s">
-        <v>240</v>
-      </c>
-      <c r="J43" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="K43" s="27" t="s">
+      <c r="H43" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="I43" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="J43" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="K43" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="L43" s="26" t="s">
+      <c r="L43" s="25" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:26" ht="26.4">
-      <c r="A44" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="B44" s="25">
+      <c r="A44" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="B44" s="24">
         <v>44789</v>
       </c>
-      <c r="C44" s="26" t="s">
-        <v>232</v>
-      </c>
-      <c r="D44" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="E44" s="26" t="s">
+      <c r="C44" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="E44" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="F44" s="26" t="s">
+      <c r="F44" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="G44" s="26">
+      <c r="G44" s="25">
         <v>1</v>
       </c>
-      <c r="H44" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="I44" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="J44" s="26" t="s">
-        <v>395</v>
-      </c>
-      <c r="K44" s="26" t="s">
+      <c r="H44" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="I44" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="J44" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="K44" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="L44" s="26" t="s">
+      <c r="L44" s="25" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="139.5" customHeight="1">
-      <c r="A45" s="40"/>
-      <c r="B45" s="41"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="40"/>
-      <c r="K45" s="40"/>
-      <c r="L45" s="40"/>
+      <c r="A45" s="39"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="39"/>
     </row>
     <row r="46" spans="1:26" ht="49.5" customHeight="1">
-      <c r="A46" s="88" t="s">
-        <v>398</v>
-      </c>
-      <c r="B46" s="89"/>
-      <c r="C46" s="89"/>
-      <c r="D46" s="89"/>
-      <c r="E46" s="89"/>
-      <c r="F46" s="89"/>
-      <c r="G46" s="89"/>
-      <c r="H46" s="89"/>
-      <c r="I46" s="89"/>
-      <c r="J46" s="89"/>
-      <c r="K46" s="89"/>
-      <c r="L46" s="89"/>
+      <c r="A46" s="82" t="s">
+        <v>351</v>
+      </c>
+      <c r="B46" s="83"/>
+      <c r="C46" s="83"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="83"/>
+      <c r="F46" s="83"/>
+      <c r="G46" s="83"/>
+      <c r="H46" s="83"/>
+      <c r="I46" s="83"/>
+      <c r="J46" s="83"/>
+      <c r="K46" s="83"/>
+      <c r="L46" s="83"/>
     </row>
     <row r="47" spans="1:26" ht="79.2">
       <c r="A47" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="B47" s="42">
+        <v>224</v>
+      </c>
+      <c r="B47" s="41">
         <v>44791</v>
       </c>
-      <c r="C47" s="43" t="s">
-        <v>248</v>
-      </c>
-      <c r="D47" s="43" t="s">
-        <v>249</v>
-      </c>
-      <c r="E47" s="43" t="s">
+      <c r="C47" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="D47" s="42" t="s">
+        <v>226</v>
+      </c>
+      <c r="E47" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="44" t="s">
-        <v>250</v>
+      <c r="F47" s="43" t="s">
+        <v>227</v>
       </c>
       <c r="G47" s="20"/>
-      <c r="H47" s="44" t="s">
-        <v>284</v>
-      </c>
-      <c r="I47" s="43" t="s">
-        <v>285</v>
-      </c>
-      <c r="J47" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="K47" s="43" t="s">
-        <v>301</v>
-      </c>
-      <c r="L47" s="43" t="s">
+      <c r="H47" s="43" t="s">
+        <v>261</v>
+      </c>
+      <c r="I47" s="42" t="s">
+        <v>262</v>
+      </c>
+      <c r="J47" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="K47" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="L47" s="42" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:26" ht="79.2">
       <c r="A48" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="B48" s="42">
+        <v>279</v>
+      </c>
+      <c r="B48" s="41">
         <v>44791</v>
       </c>
-      <c r="C48" s="43" t="s">
-        <v>251</v>
-      </c>
-      <c r="D48" s="43" t="s">
-        <v>252</v>
-      </c>
-      <c r="E48" s="43" t="s">
+      <c r="C48" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="D48" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="E48" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F48" s="44" t="s">
-        <v>250</v>
+      <c r="F48" s="43" t="s">
+        <v>227</v>
       </c>
       <c r="G48" s="20"/>
-      <c r="H48" s="43" t="s">
-        <v>286</v>
-      </c>
-      <c r="I48" s="43" t="s">
-        <v>285</v>
-      </c>
-      <c r="J48" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="K48" s="43" t="s">
-        <v>301</v>
-      </c>
-      <c r="L48" s="43" t="s">
+      <c r="H48" s="42" t="s">
+        <v>263</v>
+      </c>
+      <c r="I48" s="42" t="s">
+        <v>262</v>
+      </c>
+      <c r="J48" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="K48" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="L48" s="42" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="105.6">
       <c r="A49" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="B49" s="42">
+        <v>280</v>
+      </c>
+      <c r="B49" s="41">
         <v>44791</v>
       </c>
-      <c r="C49" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="D49" s="43" t="s">
-        <v>254</v>
-      </c>
-      <c r="E49" s="43" t="s">
+      <c r="C49" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="D49" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="E49" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F49" s="44" t="s">
-        <v>255</v>
+      <c r="F49" s="43" t="s">
+        <v>232</v>
       </c>
       <c r="G49" s="20"/>
-      <c r="H49" s="43" t="s">
-        <v>287</v>
-      </c>
-      <c r="I49" s="43" t="s">
-        <v>288</v>
-      </c>
-      <c r="J49" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="K49" s="43" t="s">
-        <v>301</v>
-      </c>
-      <c r="L49" s="43" t="s">
+      <c r="H49" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="I49" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="J49" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="K49" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="L49" s="42" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="39.6">
       <c r="A50" s="20" t="s">
-        <v>304</v>
-      </c>
-      <c r="B50" s="42">
+        <v>281</v>
+      </c>
+      <c r="B50" s="41">
         <v>44791</v>
       </c>
-      <c r="C50" s="43" t="s">
-        <v>256</v>
-      </c>
-      <c r="D50" s="43" t="s">
-        <v>257</v>
-      </c>
-      <c r="E50" s="43" t="s">
+      <c r="C50" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="D50" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="E50" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="F50" s="44" t="s">
-        <v>255</v>
+      <c r="F50" s="43" t="s">
+        <v>232</v>
       </c>
       <c r="G50" s="20"/>
-      <c r="H50" s="43"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="K50" s="43" t="s">
-        <v>301</v>
-      </c>
-      <c r="L50" s="43" t="s">
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="K50" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="L50" s="42" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="105.6">
       <c r="A51" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="B51" s="42">
+        <v>282</v>
+      </c>
+      <c r="B51" s="41">
         <v>44791</v>
       </c>
-      <c r="C51" s="43" t="s">
-        <v>258</v>
-      </c>
-      <c r="D51" s="43" t="s">
-        <v>259</v>
-      </c>
-      <c r="E51" s="43" t="s">
+      <c r="C51" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="D51" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="E51" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="44" t="s">
-        <v>255</v>
+      <c r="F51" s="43" t="s">
+        <v>232</v>
       </c>
       <c r="G51" s="20"/>
-      <c r="H51" s="43" t="s">
-        <v>287</v>
-      </c>
-      <c r="I51" s="43" t="s">
-        <v>288</v>
-      </c>
-      <c r="J51" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="K51" s="43" t="s">
-        <v>301</v>
-      </c>
-      <c r="L51" s="43" t="s">
+      <c r="H51" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="I51" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="J51" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="K51" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="L51" s="42" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="132">
       <c r="A52" s="20" t="s">
-        <v>306</v>
-      </c>
-      <c r="B52" s="42">
+        <v>283</v>
+      </c>
+      <c r="B52" s="41">
         <v>44791</v>
       </c>
-      <c r="C52" s="43" t="s">
-        <v>260</v>
-      </c>
-      <c r="D52" s="43" t="s">
-        <v>261</v>
-      </c>
-      <c r="E52" s="43" t="s">
+      <c r="C52" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="D52" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="E52" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F52" s="44" t="s">
-        <v>255</v>
+      <c r="F52" s="43" t="s">
+        <v>232</v>
       </c>
       <c r="G52" s="20"/>
-      <c r="H52" s="43" t="s">
-        <v>289</v>
-      </c>
-      <c r="I52" s="45" t="s">
-        <v>290</v>
-      </c>
-      <c r="J52" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="K52" s="43" t="s">
-        <v>301</v>
-      </c>
-      <c r="L52" s="43" t="s">
+      <c r="H52" s="42" t="s">
+        <v>266</v>
+      </c>
+      <c r="I52" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="J52" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="K52" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="L52" s="42" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="132">
       <c r="A53" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="B53" s="42">
+        <v>284</v>
+      </c>
+      <c r="B53" s="41">
         <v>44791</v>
       </c>
-      <c r="C53" s="43" t="s">
-        <v>262</v>
-      </c>
-      <c r="D53" s="43" t="s">
-        <v>263</v>
-      </c>
-      <c r="E53" s="43" t="s">
+      <c r="C53" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="D53" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="E53" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F53" s="44" t="s">
-        <v>264</v>
+      <c r="F53" s="43" t="s">
+        <v>241</v>
       </c>
       <c r="G53" s="20"/>
-      <c r="H53" s="43" t="s">
-        <v>291</v>
-      </c>
-      <c r="I53" s="45" t="s">
-        <v>292</v>
-      </c>
-      <c r="J53" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="K53" s="43" t="s">
-        <v>301</v>
-      </c>
-      <c r="L53" s="43" t="s">
+      <c r="H53" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="I53" s="44" t="s">
+        <v>269</v>
+      </c>
+      <c r="J53" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="K53" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="L53" s="42" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="118.8">
       <c r="A54" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="B54" s="42">
+        <v>285</v>
+      </c>
+      <c r="B54" s="41">
         <v>44791</v>
       </c>
-      <c r="C54" s="43" t="s">
-        <v>265</v>
-      </c>
-      <c r="D54" s="43" t="s">
-        <v>266</v>
-      </c>
-      <c r="E54" s="43" t="s">
+      <c r="C54" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="D54" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="E54" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F54" s="44" t="s">
-        <v>264</v>
+      <c r="F54" s="43" t="s">
+        <v>241</v>
       </c>
       <c r="G54" s="20"/>
-      <c r="H54" s="43" t="s">
-        <v>293</v>
-      </c>
-      <c r="I54" s="45" t="s">
-        <v>294</v>
-      </c>
-      <c r="J54" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="K54" s="43" t="s">
-        <v>301</v>
-      </c>
-      <c r="L54" s="43" t="s">
+      <c r="H54" s="42" t="s">
+        <v>270</v>
+      </c>
+      <c r="I54" s="44" t="s">
+        <v>271</v>
+      </c>
+      <c r="J54" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="K54" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="L54" s="42" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="158.4">
       <c r="A55" s="20" t="s">
-        <v>309</v>
-      </c>
-      <c r="B55" s="42">
+        <v>286</v>
+      </c>
+      <c r="B55" s="41">
         <v>44791</v>
       </c>
-      <c r="C55" s="43" t="s">
-        <v>267</v>
-      </c>
-      <c r="D55" s="43" t="s">
-        <v>268</v>
-      </c>
-      <c r="E55" s="43" t="s">
+      <c r="C55" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="D55" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="E55" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F55" s="44" t="s">
-        <v>264</v>
+      <c r="F55" s="43" t="s">
+        <v>241</v>
       </c>
       <c r="G55" s="20"/>
-      <c r="H55" s="43" t="s">
-        <v>295</v>
-      </c>
-      <c r="I55" s="45" t="s">
-        <v>296</v>
-      </c>
-      <c r="J55" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="K55" s="43" t="s">
-        <v>301</v>
-      </c>
-      <c r="L55" s="43" t="s">
+      <c r="H55" s="42" t="s">
+        <v>272</v>
+      </c>
+      <c r="I55" s="44" t="s">
+        <v>273</v>
+      </c>
+      <c r="J55" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="K55" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="L55" s="42" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="132">
       <c r="A56" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="B56" s="42">
+        <v>287</v>
+      </c>
+      <c r="B56" s="41">
         <v>44791</v>
       </c>
-      <c r="C56" s="43" t="s">
-        <v>269</v>
-      </c>
-      <c r="D56" s="43" t="s">
-        <v>270</v>
-      </c>
-      <c r="E56" s="43" t="s">
+      <c r="C56" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="D56" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="E56" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F56" s="44" t="s">
-        <v>264</v>
+      <c r="F56" s="43" t="s">
+        <v>241</v>
       </c>
       <c r="G56" s="20"/>
-      <c r="H56" s="43" t="s">
-        <v>297</v>
-      </c>
-      <c r="I56" s="45" t="s">
-        <v>298</v>
-      </c>
-      <c r="J56" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="K56" s="43" t="s">
-        <v>301</v>
-      </c>
-      <c r="L56" s="43" t="s">
+      <c r="H56" s="42" t="s">
+        <v>274</v>
+      </c>
+      <c r="I56" s="44" t="s">
+        <v>275</v>
+      </c>
+      <c r="J56" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="K56" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="L56" s="42" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="132">
       <c r="A57" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="B57" s="41">
+        <v>44798</v>
+      </c>
+      <c r="C57" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="D57" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="E57" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="G57" s="20"/>
+      <c r="H57" s="42" t="s">
+        <v>274</v>
+      </c>
+      <c r="I57" s="44" t="s">
+        <v>275</v>
+      </c>
+      <c r="J57" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="K57" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="L57" s="42" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="158.4">
+      <c r="A58" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="B58" s="41">
+        <v>44791</v>
+      </c>
+      <c r="C58" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="D58" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="E58" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="G58" s="20"/>
+      <c r="H58" s="42" t="s">
+        <v>276</v>
+      </c>
+      <c r="I58" s="44" t="s">
+        <v>277</v>
+      </c>
+      <c r="J58" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="K58" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="L58" s="42" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="158.4">
+      <c r="A59" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="B59" s="41">
+        <v>44791</v>
+      </c>
+      <c r="C59" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="D59" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="E59" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="G59" s="20"/>
+      <c r="H59" s="42" t="s">
+        <v>276</v>
+      </c>
+      <c r="I59" s="44" t="s">
+        <v>277</v>
+      </c>
+      <c r="J59" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="K59" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="L59" s="42" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="158.4">
+      <c r="A60" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="B60" s="41">
+        <v>44791</v>
+      </c>
+      <c r="C60" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="D60" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="E60" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="G60" s="20"/>
+      <c r="H60" s="42" t="s">
+        <v>276</v>
+      </c>
+      <c r="I60" s="44" t="s">
+        <v>277</v>
+      </c>
+      <c r="J60" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="K60" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="L60" s="42" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="158.4">
+      <c r="A61" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="B61" s="41">
+        <v>44791</v>
+      </c>
+      <c r="C61" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="D61" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="E61" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="G61" s="20"/>
+      <c r="H61" s="42" t="s">
+        <v>276</v>
+      </c>
+      <c r="I61" s="44" t="s">
+        <v>277</v>
+      </c>
+      <c r="J61" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="K61" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="L61" s="42" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="158.4">
+      <c r="A62" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="B62" s="41">
+        <v>44791</v>
+      </c>
+      <c r="C62" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="D62" s="42" t="s">
+        <v>258</v>
+      </c>
+      <c r="E62" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="G62" s="20"/>
+      <c r="H62" s="42" t="s">
+        <v>276</v>
+      </c>
+      <c r="I62" s="44" t="s">
+        <v>277</v>
+      </c>
+      <c r="J62" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="K62" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="L62" s="42" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="158.4">
+      <c r="A63" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="B63" s="41">
+        <v>44791</v>
+      </c>
+      <c r="C63" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="D63" s="42" t="s">
+        <v>260</v>
+      </c>
+      <c r="E63" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="G63" s="20"/>
+      <c r="H63" s="42" t="s">
+        <v>276</v>
+      </c>
+      <c r="I63" s="44" t="s">
+        <v>277</v>
+      </c>
+      <c r="J63" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="K63" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="L63" s="42" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="38.25" customHeight="1">
+      <c r="A64" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="B64" s="52">
+        <v>44795</v>
+      </c>
+      <c r="C64" s="54" t="s">
+        <v>207</v>
+      </c>
+      <c r="D64" s="54" t="s">
+        <v>294</v>
+      </c>
+      <c r="E64" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="F64" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="G64" s="54">
+        <v>1</v>
+      </c>
+      <c r="H64" s="54" t="s">
+        <v>213</v>
+      </c>
+      <c r="I64" s="54" t="s">
+        <v>295</v>
+      </c>
+      <c r="J64" s="56" t="s">
+        <v>204</v>
+      </c>
+      <c r="K64" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="L64" s="79" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="13.2">
+      <c r="A65" s="51"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="55"/>
+      <c r="D65" s="55"/>
+      <c r="E65" s="55"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="55"/>
+      <c r="H65" s="55"/>
+      <c r="I65" s="55"/>
+      <c r="J65" s="55"/>
+      <c r="K65" s="79"/>
+      <c r="L65" s="79"/>
+    </row>
+    <row r="66" spans="1:12" ht="39.6">
+      <c r="A66" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="B66" s="24">
+        <v>44795</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="D66" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="E66" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F66" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="G66" s="25">
+        <v>1</v>
+      </c>
+      <c r="H66" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="I66" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="J66" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="K66" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="L66" s="25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="39.6">
+      <c r="A67" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="B67" s="24">
+        <v>44792</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="D67" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="E67" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F67" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="G67" s="25">
+        <v>1</v>
+      </c>
+      <c r="H67" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="I67" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="J67" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="K67" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="L67" s="25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="39.6">
+      <c r="A68" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="B68" s="24">
+        <v>44792</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="D68" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="E68" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F68" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="G68" s="25">
+        <v>1</v>
+      </c>
+      <c r="H68" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="I68" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="J68" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="K68" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="L68" s="25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="26.4">
+      <c r="A69" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="B69" s="24">
+        <v>44793</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="D69" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="E69" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F69" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="G69" s="25">
+        <v>1</v>
+      </c>
+      <c r="H69" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="I69" s="25" t="s">
         <v>311</v>
       </c>
-      <c r="B57" s="42">
-        <v>44792</v>
-      </c>
-      <c r="C57" s="43" t="s">
-        <v>269</v>
-      </c>
-      <c r="D57" s="43" t="s">
-        <v>270</v>
-      </c>
-      <c r="E57" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F57" s="44" t="s">
-        <v>264</v>
-      </c>
-      <c r="G57" s="20"/>
-      <c r="H57" s="43" t="s">
-        <v>297</v>
-      </c>
-      <c r="I57" s="45" t="s">
-        <v>298</v>
-      </c>
-      <c r="J57" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="K57" s="43" t="s">
+      <c r="J69" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="K69" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="L69" s="25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="39.6">
+      <c r="A70" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="B70" s="24">
+        <v>44793</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="D70" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="E70" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F70" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="L57" s="43" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="132">
-      <c r="A58" s="20" t="s">
-        <v>312</v>
-      </c>
-      <c r="B58" s="42">
+      <c r="G70" s="25">
+        <v>1</v>
+      </c>
+      <c r="H70" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="I70" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="J70" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="K70" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="L70" s="25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="39.6">
+      <c r="A71" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="B71" s="24">
         <v>44793</v>
       </c>
-      <c r="C58" s="43" t="s">
-        <v>269</v>
-      </c>
-      <c r="D58" s="43" t="s">
-        <v>270</v>
-      </c>
-      <c r="E58" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F58" s="44" t="s">
-        <v>264</v>
-      </c>
-      <c r="G58" s="20"/>
-      <c r="H58" s="43" t="s">
-        <v>297</v>
-      </c>
-      <c r="I58" s="45" t="s">
-        <v>298</v>
-      </c>
-      <c r="J58" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="K58" s="43" t="s">
+      <c r="C71" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="D71" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="E71" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F71" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="L58" s="43" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="132">
-      <c r="A59" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="B59" s="42">
-        <v>44794</v>
-      </c>
-      <c r="C59" s="43" t="s">
-        <v>269</v>
-      </c>
-      <c r="D59" s="43" t="s">
-        <v>270</v>
-      </c>
-      <c r="E59" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F59" s="44" t="s">
-        <v>264</v>
-      </c>
-      <c r="G59" s="20"/>
-      <c r="H59" s="43" t="s">
-        <v>297</v>
-      </c>
-      <c r="I59" s="45" t="s">
-        <v>298</v>
-      </c>
-      <c r="J59" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="K59" s="43" t="s">
+      <c r="G71" s="25">
+        <v>1</v>
+      </c>
+      <c r="H71" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="I71" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="J71" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="K71" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="L71" s="25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="26.4">
+      <c r="A72" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="B72" s="24">
+        <v>44793</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="D72" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="E72" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F72" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="L59" s="43" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="132">
-      <c r="A60" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="B60" s="42">
-        <v>44795</v>
-      </c>
-      <c r="C60" s="43" t="s">
-        <v>269</v>
-      </c>
-      <c r="D60" s="43" t="s">
-        <v>270</v>
-      </c>
-      <c r="E60" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F60" s="44" t="s">
-        <v>264</v>
-      </c>
-      <c r="G60" s="20"/>
-      <c r="H60" s="43" t="s">
-        <v>297</v>
-      </c>
-      <c r="I60" s="45" t="s">
-        <v>298</v>
-      </c>
-      <c r="J60" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="K60" s="43" t="s">
-        <v>301</v>
-      </c>
-      <c r="L60" s="43" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="132">
-      <c r="A61" s="20" t="s">
-        <v>315</v>
-      </c>
-      <c r="B61" s="42">
-        <v>44796</v>
-      </c>
-      <c r="C61" s="43" t="s">
-        <v>269</v>
-      </c>
-      <c r="D61" s="43" t="s">
-        <v>270</v>
-      </c>
-      <c r="E61" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F61" s="44" t="s">
-        <v>264</v>
-      </c>
-      <c r="G61" s="20"/>
-      <c r="H61" s="43" t="s">
-        <v>297</v>
-      </c>
-      <c r="I61" s="45" t="s">
-        <v>298</v>
-      </c>
-      <c r="J61" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="K61" s="43" t="s">
-        <v>301</v>
-      </c>
-      <c r="L61" s="43" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="132">
-      <c r="A62" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="B62" s="42">
-        <v>44797</v>
-      </c>
-      <c r="C62" s="43" t="s">
-        <v>269</v>
-      </c>
-      <c r="D62" s="43" t="s">
-        <v>270</v>
-      </c>
-      <c r="E62" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F62" s="44" t="s">
-        <v>264</v>
-      </c>
-      <c r="G62" s="20"/>
-      <c r="H62" s="43" t="s">
-        <v>297</v>
-      </c>
-      <c r="I62" s="45" t="s">
-        <v>298</v>
-      </c>
-      <c r="J62" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="K62" s="43" t="s">
-        <v>301</v>
-      </c>
-      <c r="L62" s="43" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="132">
-      <c r="A63" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="B63" s="42">
-        <v>44798</v>
-      </c>
-      <c r="C63" s="43" t="s">
-        <v>269</v>
-      </c>
-      <c r="D63" s="43" t="s">
-        <v>270</v>
-      </c>
-      <c r="E63" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F63" s="44" t="s">
-        <v>264</v>
-      </c>
-      <c r="G63" s="20"/>
-      <c r="H63" s="43" t="s">
-        <v>297</v>
-      </c>
-      <c r="I63" s="45" t="s">
-        <v>298</v>
-      </c>
-      <c r="J63" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="K63" s="43" t="s">
-        <v>301</v>
-      </c>
-      <c r="L63" s="43" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="158.4">
-      <c r="A64" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B64" s="42">
-        <v>44791</v>
-      </c>
-      <c r="C64" s="43" t="s">
-        <v>272</v>
-      </c>
-      <c r="D64" s="43" t="s">
-        <v>273</v>
-      </c>
-      <c r="E64" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F64" s="44" t="s">
-        <v>271</v>
-      </c>
-      <c r="G64" s="20"/>
-      <c r="H64" s="43" t="s">
-        <v>299</v>
-      </c>
-      <c r="I64" s="45" t="s">
-        <v>300</v>
-      </c>
-      <c r="J64" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="K64" s="43" t="s">
-        <v>301</v>
-      </c>
-      <c r="L64" s="43" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="158.4">
-      <c r="A65" s="20" t="s">
+      <c r="G72" s="25">
+        <v>1</v>
+      </c>
+      <c r="H72" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="B65" s="42">
-        <v>44791</v>
-      </c>
-      <c r="C65" s="46" t="s">
-        <v>274</v>
-      </c>
-      <c r="D65" s="43" t="s">
-        <v>275</v>
-      </c>
-      <c r="E65" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F65" s="44" t="s">
-        <v>271</v>
-      </c>
-      <c r="G65" s="20"/>
-      <c r="H65" s="43" t="s">
-        <v>299</v>
-      </c>
-      <c r="I65" s="45" t="s">
-        <v>300</v>
-      </c>
-      <c r="J65" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="K65" s="43" t="s">
-        <v>301</v>
-      </c>
-      <c r="L65" s="43" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="158.4">
-      <c r="A66" s="20" t="s">
+      <c r="I72" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="B66" s="42">
-        <v>44791</v>
-      </c>
-      <c r="C66" s="46" t="s">
-        <v>276</v>
-      </c>
-      <c r="D66" s="43" t="s">
-        <v>277</v>
-      </c>
-      <c r="E66" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F66" s="44" t="s">
-        <v>271</v>
-      </c>
-      <c r="G66" s="20"/>
-      <c r="H66" s="43" t="s">
-        <v>299</v>
-      </c>
-      <c r="I66" s="45" t="s">
-        <v>300</v>
-      </c>
-      <c r="J66" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="K66" s="43" t="s">
-        <v>301</v>
-      </c>
-      <c r="L66" s="43" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="158.4">
-      <c r="A67" s="20" t="s">
-        <v>321</v>
-      </c>
-      <c r="B67" s="42">
-        <v>44791</v>
-      </c>
-      <c r="C67" s="46" t="s">
-        <v>278</v>
-      </c>
-      <c r="D67" s="43" t="s">
-        <v>279</v>
-      </c>
-      <c r="E67" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F67" s="44" t="s">
-        <v>271</v>
-      </c>
-      <c r="G67" s="20"/>
-      <c r="H67" s="43" t="s">
-        <v>299</v>
-      </c>
-      <c r="I67" s="45" t="s">
-        <v>300</v>
-      </c>
-      <c r="J67" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="K67" s="43" t="s">
-        <v>301</v>
-      </c>
-      <c r="L67" s="43" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="158.4">
-      <c r="A68" s="20" t="s">
-        <v>322</v>
-      </c>
-      <c r="B68" s="42">
-        <v>44791</v>
-      </c>
-      <c r="C68" s="46" t="s">
-        <v>280</v>
-      </c>
-      <c r="D68" s="43" t="s">
-        <v>281</v>
-      </c>
-      <c r="E68" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F68" s="44" t="s">
-        <v>271</v>
-      </c>
-      <c r="G68" s="20"/>
-      <c r="H68" s="43" t="s">
-        <v>299</v>
-      </c>
-      <c r="I68" s="45" t="s">
-        <v>300</v>
-      </c>
-      <c r="J68" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="K68" s="43" t="s">
-        <v>301</v>
-      </c>
-      <c r="L68" s="43" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="158.4">
-      <c r="A69" s="20" t="s">
-        <v>323</v>
-      </c>
-      <c r="B69" s="42">
-        <v>44791</v>
-      </c>
-      <c r="C69" s="46" t="s">
-        <v>282</v>
-      </c>
-      <c r="D69" s="43" t="s">
-        <v>283</v>
-      </c>
-      <c r="E69" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F69" s="44" t="s">
-        <v>271</v>
-      </c>
-      <c r="G69" s="20"/>
-      <c r="H69" s="43" t="s">
-        <v>299</v>
-      </c>
-      <c r="I69" s="45" t="s">
-        <v>300</v>
-      </c>
-      <c r="J69" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="K69" s="43" t="s">
-        <v>301</v>
-      </c>
-      <c r="L69" s="43" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="38.25" customHeight="1">
-      <c r="A70" s="53" t="s">
-        <v>324</v>
-      </c>
-      <c r="B70" s="55">
-        <v>44795</v>
-      </c>
-      <c r="C70" s="57" t="s">
-        <v>230</v>
-      </c>
-      <c r="D70" s="57" t="s">
-        <v>336</v>
-      </c>
-      <c r="E70" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="F70" s="57" t="s">
-        <v>92</v>
-      </c>
-      <c r="G70" s="57">
-        <v>1</v>
-      </c>
-      <c r="H70" s="57" t="s">
-        <v>236</v>
-      </c>
-      <c r="I70" s="57" t="s">
-        <v>337</v>
-      </c>
-      <c r="J70" s="59" t="s">
-        <v>227</v>
-      </c>
-      <c r="K70" s="85" t="s">
-        <v>102</v>
-      </c>
-      <c r="L70" s="85" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="13.2">
-      <c r="A71" s="54"/>
-      <c r="B71" s="56"/>
-      <c r="C71" s="58"/>
-      <c r="D71" s="58"/>
-      <c r="E71" s="58"/>
-      <c r="F71" s="58"/>
-      <c r="G71" s="58"/>
-      <c r="H71" s="58"/>
-      <c r="I71" s="58"/>
-      <c r="J71" s="58"/>
-      <c r="K71" s="85"/>
-      <c r="L71" s="85"/>
-    </row>
-    <row r="72" spans="1:12" ht="39.6">
-      <c r="A72" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="B72" s="25">
-        <v>44795</v>
-      </c>
-      <c r="C72" s="26" t="s">
-        <v>338</v>
-      </c>
-      <c r="D72" s="26" t="s">
-        <v>339</v>
-      </c>
-      <c r="E72" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="F72" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="G72" s="26">
-        <v>1</v>
-      </c>
-      <c r="H72" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="I72" s="26" t="s">
-        <v>340</v>
-      </c>
-      <c r="J72" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="K72" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="L72" s="26" t="s">
+      <c r="J72" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="K72" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="L72" s="25" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="39.6">
       <c r="A73" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="B73" s="25">
-        <v>44792</v>
-      </c>
-      <c r="C73" s="26" t="s">
-        <v>341</v>
-      </c>
-      <c r="D73" s="26" t="s">
-        <v>342</v>
-      </c>
-      <c r="E73" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="B73" s="24">
+        <v>44795</v>
+      </c>
+      <c r="C73" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="D73" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="E73" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="F73" s="26" t="s">
-        <v>343</v>
-      </c>
-      <c r="G73" s="26">
+      <c r="F73" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="G73" s="25">
         <v>1</v>
       </c>
-      <c r="H73" s="26" t="s">
-        <v>344</v>
-      </c>
-      <c r="I73" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="J73" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="K73" s="26" t="s">
+      <c r="H73" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="I73" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="J73" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="K73" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="L73" s="26" t="s">
+      <c r="L73" s="25" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="39.6">
       <c r="A74" s="20" t="s">
-        <v>327</v>
-      </c>
-      <c r="B74" s="25">
-        <v>44792</v>
-      </c>
-      <c r="C74" s="26" t="s">
-        <v>346</v>
-      </c>
-      <c r="D74" s="26" t="s">
-        <v>347</v>
-      </c>
-      <c r="E74" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="B74" s="24">
+        <v>44795</v>
+      </c>
+      <c r="C74" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="D74" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="E74" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="F74" s="26" t="s">
-        <v>343</v>
-      </c>
-      <c r="G74" s="26">
+      <c r="F74" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="G74" s="25">
         <v>1</v>
       </c>
-      <c r="H74" s="26" t="s">
-        <v>348</v>
-      </c>
-      <c r="I74" s="26" t="s">
-        <v>349</v>
-      </c>
-      <c r="J74" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="K74" s="26" t="s">
+      <c r="H74" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="I74" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="J74" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="K74" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="L74" s="26" t="s">
+      <c r="L74" s="25" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="26.4">
       <c r="A75" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="B75" s="24">
+        <v>44795</v>
+      </c>
+      <c r="C75" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="D75" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="E75" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F75" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="G75" s="25">
+        <v>1</v>
+      </c>
+      <c r="H75" s="25" t="s">
         <v>328</v>
       </c>
-      <c r="B75" s="25">
-        <v>44793</v>
-      </c>
-      <c r="C75" s="26" t="s">
-        <v>350</v>
-      </c>
-      <c r="D75" s="26" t="s">
-        <v>351</v>
-      </c>
-      <c r="E75" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="F75" s="26" t="s">
-        <v>343</v>
-      </c>
-      <c r="G75" s="26">
-        <v>1</v>
-      </c>
-      <c r="H75" s="26" t="s">
-        <v>352</v>
-      </c>
-      <c r="I75" s="26" t="s">
-        <v>353</v>
-      </c>
-      <c r="J75" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="K75" s="26" t="s">
+      <c r="I75" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="J75" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="K75" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="L75" s="26" t="s">
+      <c r="L75" s="25" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="39.6">
       <c r="A76" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="B76" s="25">
-        <v>44793</v>
-      </c>
-      <c r="C76" s="26" t="s">
-        <v>354</v>
-      </c>
-      <c r="D76" s="26" t="s">
-        <v>355</v>
-      </c>
-      <c r="E76" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="B76" s="24">
+        <v>44795</v>
+      </c>
+      <c r="C76" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="D76" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="E76" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="F76" s="26" t="s">
-        <v>343</v>
-      </c>
-      <c r="G76" s="26">
+      <c r="F76" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="G76" s="25">
         <v>1</v>
       </c>
-      <c r="H76" s="26" t="s">
-        <v>348</v>
-      </c>
-      <c r="I76" s="26" t="s">
-        <v>356</v>
-      </c>
-      <c r="J76" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="K76" s="26" t="s">
+      <c r="H76" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="I76" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="J76" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="K76" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="L76" s="26" t="s">
+      <c r="L76" s="25" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="39.6">
       <c r="A77" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="B77" s="25">
-        <v>44793</v>
-      </c>
-      <c r="C77" s="26" t="s">
-        <v>357</v>
-      </c>
-      <c r="D77" s="26" t="s">
-        <v>358</v>
-      </c>
-      <c r="E77" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="B77" s="24">
+        <v>44795</v>
+      </c>
+      <c r="C77" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="D77" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="E77" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="F77" s="26" t="s">
-        <v>343</v>
-      </c>
-      <c r="G77" s="26">
+      <c r="F77" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="G77" s="25">
         <v>1</v>
       </c>
-      <c r="H77" s="26" t="s">
-        <v>344</v>
-      </c>
-      <c r="I77" s="26" t="s">
-        <v>359</v>
-      </c>
-      <c r="J77" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="K77" s="26" t="s">
+      <c r="H77" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="I77" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="J77" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="K77" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="L77" s="26" t="s">
+      <c r="L77" s="25" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="26.4">
       <c r="A78" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="B78" s="25">
-        <v>44793</v>
-      </c>
-      <c r="C78" s="26" t="s">
-        <v>350</v>
-      </c>
-      <c r="D78" s="26" t="s">
-        <v>360</v>
-      </c>
-      <c r="E78" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="B78" s="24">
+        <v>44795</v>
+      </c>
+      <c r="C78" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="D78" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="E78" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="F78" s="26" t="s">
-        <v>343</v>
-      </c>
-      <c r="G78" s="26">
+      <c r="F78" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="G78" s="25">
         <v>1</v>
       </c>
-      <c r="H78" s="26" t="s">
-        <v>361</v>
-      </c>
-      <c r="I78" s="26" t="s">
-        <v>362</v>
-      </c>
-      <c r="J78" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="K78" s="26" t="s">
+      <c r="H78" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="I78" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="J78" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="K78" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="L78" s="26" t="s">
+      <c r="L78" s="25" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="39.6">
       <c r="A79" s="20" t="s">
-        <v>332</v>
-      </c>
-      <c r="B79" s="25">
+        <v>388</v>
+      </c>
+      <c r="B79" s="24">
         <v>44795</v>
       </c>
-      <c r="C79" s="26" t="s">
-        <v>363</v>
-      </c>
-      <c r="D79" s="26" t="s">
-        <v>364</v>
-      </c>
-      <c r="E79" s="26" t="s">
+      <c r="C79" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="D79" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="E79" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="F79" s="26" t="s">
-        <v>343</v>
-      </c>
-      <c r="G79" s="26">
+      <c r="F79" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="G79" s="25">
         <v>1</v>
       </c>
-      <c r="H79" s="26" t="s">
-        <v>344</v>
-      </c>
-      <c r="I79" s="26" t="s">
-        <v>365</v>
-      </c>
-      <c r="J79" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="K79" s="26" t="s">
+      <c r="H79" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="I79" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="J79" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="K79" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="L79" s="26" t="s">
+      <c r="L79" s="25" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="39.6">
       <c r="A80" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="B80" s="25">
+        <v>389</v>
+      </c>
+      <c r="B80" s="24">
         <v>44795</v>
       </c>
-      <c r="C80" s="26" t="s">
-        <v>366</v>
-      </c>
-      <c r="D80" s="26" t="s">
-        <v>367</v>
-      </c>
-      <c r="E80" s="26" t="s">
+      <c r="C80" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="D80" s="28" t="s">
+        <v>343</v>
+      </c>
+      <c r="E80" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="F80" s="26" t="s">
-        <v>343</v>
-      </c>
-      <c r="G80" s="26">
+      <c r="F80" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="G80" s="25">
         <v>1</v>
       </c>
-      <c r="H80" s="26" t="s">
-        <v>348</v>
-      </c>
-      <c r="I80" s="26" t="s">
-        <v>368</v>
-      </c>
-      <c r="J80" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="K80" s="26" t="s">
+      <c r="H80" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="I80" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="J80" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="K80" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="L80" s="26" t="s">
+      <c r="L80" s="25" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="26.4">
       <c r="A81" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="B81" s="25">
+        <v>390</v>
+      </c>
+      <c r="B81" s="24">
         <v>44795</v>
       </c>
-      <c r="C81" s="26" t="s">
-        <v>350</v>
-      </c>
-      <c r="D81" s="26" t="s">
+      <c r="C81" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="D81" s="28" t="s">
+        <v>345</v>
+      </c>
+      <c r="E81" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F81" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="G81" s="25">
+        <v>1</v>
+      </c>
+      <c r="H81" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="I81" s="28" t="s">
+        <v>347</v>
+      </c>
+      <c r="J81" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="K81" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="L81" s="25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="26.4">
+      <c r="A82" s="122" t="s">
+        <v>391</v>
+      </c>
+      <c r="B82" s="123">
+        <v>44798</v>
+      </c>
+      <c r="C82" s="122" t="s">
+        <v>353</v>
+      </c>
+      <c r="D82" s="124" t="s">
+        <v>354</v>
+      </c>
+      <c r="E82" s="56" t="s">
+        <v>355</v>
+      </c>
+      <c r="F82" s="56" t="s">
+        <v>356</v>
+      </c>
+      <c r="G82" s="25">
+        <v>1</v>
+      </c>
+      <c r="H82" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="I82" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="J82" s="56" t="s">
+        <v>359</v>
+      </c>
+      <c r="K82" s="54"/>
+      <c r="L82" s="56" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="26.4">
+      <c r="A83" s="125"/>
+      <c r="B83" s="126"/>
+      <c r="C83" s="125"/>
+      <c r="D83" s="127"/>
+      <c r="E83" s="88"/>
+      <c r="F83" s="88"/>
+      <c r="G83" s="25">
+        <v>2</v>
+      </c>
+      <c r="H83" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="I83" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="J83" s="88"/>
+      <c r="K83" s="87"/>
+      <c r="L83" s="88"/>
+    </row>
+    <row r="84" spans="1:12" ht="79.2">
+      <c r="A84" s="128"/>
+      <c r="B84" s="129"/>
+      <c r="C84" s="128"/>
+      <c r="D84" s="130"/>
+      <c r="E84" s="89"/>
+      <c r="F84" s="89"/>
+      <c r="G84" s="25">
+        <v>3</v>
+      </c>
+      <c r="H84" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="I84" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="J84" s="89"/>
+      <c r="K84" s="55"/>
+      <c r="L84" s="89"/>
+    </row>
+    <row r="85" spans="1:12" ht="66">
+      <c r="A85" s="122" t="s">
+        <v>392</v>
+      </c>
+      <c r="B85" s="123">
+        <v>44799</v>
+      </c>
+      <c r="C85" s="122" t="s">
+        <v>365</v>
+      </c>
+      <c r="D85" s="124" t="s">
+        <v>366</v>
+      </c>
+      <c r="E85" s="56" t="s">
+        <v>355</v>
+      </c>
+      <c r="F85" s="54" t="s">
+        <v>367</v>
+      </c>
+      <c r="G85" s="25">
+        <v>1</v>
+      </c>
+      <c r="H85" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="I85" s="29" t="s">
         <v>369</v>
       </c>
-      <c r="E81" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="F81" s="26" t="s">
-        <v>343</v>
-      </c>
-      <c r="G81" s="26">
-        <v>1</v>
-      </c>
-      <c r="H81" s="26" t="s">
+      <c r="J85" s="56" t="s">
+        <v>359</v>
+      </c>
+      <c r="K85" s="56" t="s">
         <v>370</v>
       </c>
-      <c r="I81" s="26" t="s">
+      <c r="L85" s="56" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="66">
+      <c r="A86" s="128"/>
+      <c r="B86" s="129"/>
+      <c r="C86" s="128"/>
+      <c r="D86" s="130"/>
+      <c r="E86" s="89"/>
+      <c r="F86" s="55"/>
+      <c r="G86" s="25">
+        <v>2</v>
+      </c>
+      <c r="H86" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="J81" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="K81" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="L81" s="26" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" ht="39.6">
-      <c r="A82" s="20" t="s">
-        <v>335</v>
-      </c>
-      <c r="B82" s="25">
-        <v>44795</v>
-      </c>
-      <c r="C82" s="26" t="s">
+      <c r="I86" s="29" t="s">
         <v>372</v>
       </c>
-      <c r="D82" s="26" t="s">
-        <v>373</v>
-      </c>
-      <c r="E82" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="F82" s="26" t="s">
-        <v>343</v>
-      </c>
-      <c r="G82" s="26">
-        <v>1</v>
-      </c>
-      <c r="H82" s="26" t="s">
-        <v>344</v>
-      </c>
-      <c r="I82" s="26" t="s">
-        <v>374</v>
-      </c>
-      <c r="J82" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="K82" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="L82" s="26" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" ht="39.6">
-      <c r="A83" s="20" t="s">
-        <v>390</v>
-      </c>
-      <c r="B83" s="25">
-        <v>44795</v>
-      </c>
-      <c r="C83" s="26" t="s">
-        <v>375</v>
-      </c>
-      <c r="D83" s="26" t="s">
-        <v>376</v>
-      </c>
-      <c r="E83" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="F83" s="26" t="s">
-        <v>343</v>
-      </c>
-      <c r="G83" s="26">
-        <v>1</v>
-      </c>
-      <c r="H83" s="26" t="s">
-        <v>348</v>
-      </c>
-      <c r="I83" s="26" t="s">
-        <v>377</v>
-      </c>
-      <c r="J83" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="K83" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="L83" s="26" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" ht="26.4">
-      <c r="A84" s="20" t="s">
-        <v>391</v>
-      </c>
-      <c r="B84" s="25">
-        <v>44795</v>
-      </c>
-      <c r="C84" s="26" t="s">
-        <v>350</v>
-      </c>
-      <c r="D84" s="26" t="s">
-        <v>378</v>
-      </c>
-      <c r="E84" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="F84" s="26" t="s">
-        <v>343</v>
-      </c>
-      <c r="G84" s="26">
-        <v>1</v>
-      </c>
-      <c r="H84" s="26" t="s">
-        <v>379</v>
-      </c>
-      <c r="I84" s="26" t="s">
-        <v>380</v>
-      </c>
-      <c r="J84" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="K84" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="L84" s="26" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="39.6">
-      <c r="A85" s="20" t="s">
-        <v>392</v>
-      </c>
-      <c r="B85" s="25">
-        <v>44795</v>
-      </c>
-      <c r="C85" s="29" t="s">
-        <v>381</v>
-      </c>
-      <c r="D85" s="29" t="s">
-        <v>382</v>
-      </c>
-      <c r="E85" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="F85" s="26" t="s">
-        <v>343</v>
-      </c>
-      <c r="G85" s="26">
-        <v>1</v>
-      </c>
-      <c r="H85" s="29" t="s">
-        <v>344</v>
-      </c>
-      <c r="I85" s="29" t="s">
-        <v>383</v>
-      </c>
-      <c r="J85" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="K85" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="L85" s="26" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" ht="39.6">
-      <c r="A86" s="20" t="s">
-        <v>393</v>
-      </c>
-      <c r="B86" s="25">
-        <v>44795</v>
-      </c>
-      <c r="C86" s="29" t="s">
-        <v>384</v>
-      </c>
-      <c r="D86" s="29" t="s">
-        <v>385</v>
-      </c>
-      <c r="E86" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="F86" s="26" t="s">
-        <v>343</v>
-      </c>
-      <c r="G86" s="26">
-        <v>1</v>
-      </c>
-      <c r="H86" s="26" t="s">
-        <v>348</v>
-      </c>
-      <c r="I86" s="29" t="s">
-        <v>386</v>
-      </c>
-      <c r="J86" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="K86" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="L86" s="26" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="26.4">
-      <c r="A87" s="20" t="s">
-        <v>394</v>
-      </c>
-      <c r="B87" s="25">
-        <v>44795</v>
-      </c>
-      <c r="C87" s="26" t="s">
-        <v>350</v>
-      </c>
-      <c r="D87" s="29" t="s">
-        <v>387</v>
-      </c>
-      <c r="E87" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="F87" s="26" t="s">
-        <v>343</v>
-      </c>
-      <c r="G87" s="26">
-        <v>1</v>
-      </c>
-      <c r="H87" s="29" t="s">
-        <v>388</v>
-      </c>
-      <c r="I87" s="29" t="s">
-        <v>389</v>
-      </c>
-      <c r="J87" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="K87" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="L87" s="26" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" ht="26.4">
-      <c r="A88" s="57" t="s">
-        <v>402</v>
-      </c>
-      <c r="B88" s="55">
-        <v>44798</v>
-      </c>
-      <c r="C88" s="57" t="s">
-        <v>403</v>
-      </c>
-      <c r="D88" s="112" t="s">
-        <v>404</v>
-      </c>
-      <c r="E88" s="59" t="s">
-        <v>405</v>
-      </c>
-      <c r="F88" s="59" t="s">
-        <v>406</v>
-      </c>
-      <c r="G88" s="26">
-        <v>1</v>
-      </c>
-      <c r="H88" s="30" t="s">
-        <v>407</v>
-      </c>
-      <c r="I88" s="30" t="s">
-        <v>408</v>
-      </c>
-      <c r="J88" s="59" t="s">
-        <v>409</v>
-      </c>
-      <c r="K88" s="57"/>
-      <c r="L88" s="59" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" ht="26.4">
-      <c r="A89" s="111"/>
-      <c r="B89" s="115"/>
-      <c r="C89" s="111"/>
-      <c r="D89" s="113"/>
-      <c r="E89" s="109"/>
-      <c r="F89" s="109"/>
-      <c r="G89" s="26">
-        <v>2</v>
-      </c>
-      <c r="H89" s="30" t="s">
-        <v>411</v>
-      </c>
-      <c r="I89" s="30" t="s">
-        <v>412</v>
-      </c>
-      <c r="J89" s="109"/>
-      <c r="K89" s="111"/>
-      <c r="L89" s="109"/>
-    </row>
-    <row r="90" spans="1:12" ht="79.2">
-      <c r="A90" s="58"/>
-      <c r="B90" s="56"/>
-      <c r="C90" s="58"/>
-      <c r="D90" s="114"/>
-      <c r="E90" s="110"/>
-      <c r="F90" s="110"/>
-      <c r="G90" s="26">
-        <v>3</v>
-      </c>
-      <c r="H90" s="30" t="s">
-        <v>413</v>
-      </c>
-      <c r="I90" s="30" t="s">
-        <v>414</v>
-      </c>
-      <c r="J90" s="110"/>
-      <c r="K90" s="58"/>
-      <c r="L90" s="110"/>
-    </row>
-    <row r="91" spans="1:12" ht="66">
-      <c r="A91" s="57" t="s">
-        <v>415</v>
-      </c>
-      <c r="B91" s="55">
-        <v>44799</v>
-      </c>
-      <c r="C91" s="57" t="s">
-        <v>416</v>
-      </c>
-      <c r="D91" s="112" t="s">
-        <v>417</v>
-      </c>
-      <c r="E91" s="59" t="s">
-        <v>405</v>
-      </c>
-      <c r="F91" s="57" t="s">
-        <v>418</v>
-      </c>
-      <c r="G91" s="26">
-        <v>1</v>
-      </c>
-      <c r="H91" s="30" t="s">
-        <v>419</v>
-      </c>
-      <c r="I91" s="30" t="s">
-        <v>420</v>
-      </c>
-      <c r="J91" s="59" t="s">
-        <v>409</v>
-      </c>
-      <c r="K91" s="59" t="s">
-        <v>421</v>
-      </c>
-      <c r="L91" s="59" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" ht="66">
-      <c r="A92" s="58"/>
-      <c r="B92" s="56"/>
-      <c r="C92" s="58"/>
-      <c r="D92" s="114"/>
-      <c r="E92" s="110"/>
-      <c r="F92" s="58"/>
-      <c r="G92" s="26">
-        <v>2</v>
-      </c>
-      <c r="H92" s="30" t="s">
-        <v>422</v>
-      </c>
-      <c r="I92" s="30" t="s">
-        <v>423</v>
-      </c>
-      <c r="J92" s="110"/>
-      <c r="K92" s="110"/>
-      <c r="L92" s="110"/>
+      <c r="J86" s="89"/>
+      <c r="K86" s="89"/>
+      <c r="L86" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="149">
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="J91:J92"/>
-    <mergeCell ref="K91:K92"/>
-    <mergeCell ref="L91:L92"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="C88:C90"/>
-    <mergeCell ref="D88:D90"/>
-    <mergeCell ref="E88:E90"/>
-    <mergeCell ref="F88:F90"/>
-    <mergeCell ref="J88:J90"/>
-    <mergeCell ref="K88:K90"/>
-    <mergeCell ref="L88:L90"/>
+    <mergeCell ref="F82:F84"/>
+    <mergeCell ref="J82:J84"/>
+    <mergeCell ref="K82:K84"/>
+    <mergeCell ref="L82:L84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="J85:J86"/>
+    <mergeCell ref="K85:K86"/>
+    <mergeCell ref="L85:L86"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="D82:D84"/>
+    <mergeCell ref="E82:E84"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="D33:D34"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="L70:L71"/>
+    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="L64:L65"/>
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="K41:K42"/>
     <mergeCell ref="L41:L42"/>
@@ -5782,6 +5770,31 @@
     <mergeCell ref="F35:F36"/>
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="I25:I26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="C27:C28"/>
@@ -5793,47 +5806,6 @@
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="I35:I36"/>
     <mergeCell ref="L39:L40"/>
     <mergeCell ref="K39:K40"/>
     <mergeCell ref="J39:J40"/>
@@ -5854,6 +5826,7 @@
     <mergeCell ref="J35:J36"/>
     <mergeCell ref="J33:J34"/>
     <mergeCell ref="K33:K34"/>
+    <mergeCell ref="F39:F40"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="H20:H21"/>
@@ -5872,17 +5845,23 @@
     <mergeCell ref="D20:D22"/>
     <mergeCell ref="E20:E22"/>
     <mergeCell ref="F20:F22"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="A29:A30"/>
     <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="J64:J65"/>
     <mergeCell ref="K27:K28"/>
     <mergeCell ref="J27:J28"/>
     <mergeCell ref="J25:J26"/>
@@ -5899,7 +5878,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H36" r:id="rId1" display="http://email.com/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H36" r:id="rId1" display="http://email.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -5907,14 +5886,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
@@ -5923,528 +5902,596 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="31" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="D2" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33" t="s">
+      <c r="D2" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="F2" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34" t="s">
+      <c r="A3" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33" t="s">
+      <c r="C3" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="F3" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34" t="s">
+      <c r="A4" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33" t="s">
+      <c r="C4" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="F4" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A5" s="33"/>
-      <c r="B5" s="34" t="s">
+      <c r="A5" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33" t="s">
+      <c r="C5" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="F5" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34" t="s">
+      <c r="A6" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="35" t="s">
+      <c r="C6" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="F6" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="33"/>
-      <c r="B7" s="34" t="s">
+      <c r="A7" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="35" t="s">
+      <c r="C7" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="F7" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A8" s="33"/>
-      <c r="B8" s="34" t="s">
+      <c r="A8" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="35" t="s">
+      <c r="C8" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="F8" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="33"/>
-      <c r="B9" s="34" t="s">
+      <c r="A9" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="35" t="s">
+      <c r="C9" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="F9" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="33"/>
-      <c r="B10" s="34" t="s">
+      <c r="A10" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="35" t="s">
+      <c r="C10" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="F10" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="33"/>
-      <c r="B11" s="34" t="s">
+      <c r="A11" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="B11" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33" t="s">
+      <c r="C11" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="F11" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="33"/>
-      <c r="B12" s="34" t="s">
+      <c r="A12" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33" t="s">
+      <c r="C12" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="F12" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="33"/>
-      <c r="B13" s="34" t="s">
+      <c r="A13" s="32"/>
+      <c r="B13" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A14" s="33"/>
-      <c r="B14" s="34" t="s">
+      <c r="A14" s="32"/>
+      <c r="B14" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A15" s="33"/>
-      <c r="B15" s="34" t="s">
+      <c r="A15" s="32"/>
+      <c r="B15" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A16" s="33"/>
-      <c r="B16" s="34" t="s">
+      <c r="A16" s="32"/>
+      <c r="B16" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
     </row>
     <row r="17" spans="1:8" ht="13.2">
-      <c r="A17" s="36"/>
-      <c r="B17" s="34" t="s">
+      <c r="A17" s="35"/>
+      <c r="B17" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="131" t="s">
+        <v>204</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="F17" s="36"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
     </row>
     <row r="18" spans="1:8" ht="66">
-      <c r="A18" s="36">
+      <c r="A18" s="35">
         <v>44779</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="37" t="s">
-        <v>242</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="E18" s="37" t="s">
-        <v>246</v>
-      </c>
-      <c r="F18" s="37" t="s">
+      <c r="C18" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="D18" s="132" t="s">
+        <v>201</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="F18" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A19" s="33"/>
-      <c r="B19" s="34" t="s">
+      <c r="A19" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33" t="s">
+      <c r="C19" s="32"/>
+      <c r="D19" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A20" s="33"/>
-      <c r="B20" s="34" t="s">
+      <c r="A20" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="B20" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33" t="s">
+      <c r="C20" s="32"/>
+      <c r="D20" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A21" s="33"/>
-      <c r="B21" s="34" t="s">
+      <c r="A21" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="B21" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33" t="s">
+      <c r="C21" s="32"/>
+      <c r="D21" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A22" s="33"/>
-      <c r="B22" s="34" t="s">
+      <c r="A22" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33" t="s">
+      <c r="C22" s="32"/>
+      <c r="D22" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A23" s="33"/>
-      <c r="B23" s="34" t="s">
+      <c r="A23" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="B23" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33" t="s">
+      <c r="C23" s="32"/>
+      <c r="D23" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A24" s="33"/>
-      <c r="B24" s="34" t="s">
+      <c r="A24" s="32"/>
+      <c r="B24" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A25" s="33"/>
-      <c r="B25" s="34" t="s">
+      <c r="A25" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="B25" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33" t="s">
+      <c r="C25" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A26" s="33"/>
-      <c r="B26" s="34" t="s">
+      <c r="A26" s="32"/>
+      <c r="B26" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="C26" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="D26" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
+      <c r="C26" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A27" s="33"/>
-      <c r="B27" s="38" t="s">
-        <v>211</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
     </row>
     <row r="28" spans="1:8" ht="66">
-      <c r="A28" s="36">
+      <c r="A28" s="35">
         <v>44779</v>
       </c>
-      <c r="B28" s="37" t="s">
-        <v>228</v>
-      </c>
-      <c r="C28" s="37" t="s">
-        <v>242</v>
-      </c>
-      <c r="D28" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="E28" s="37" t="s">
-        <v>243</v>
-      </c>
-      <c r="F28" s="37" t="s">
+      <c r="B28" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="D28" s="132" t="s">
+        <v>201</v>
+      </c>
+      <c r="E28" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="F28" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
     </row>
     <row r="29" spans="1:8" ht="66">
-      <c r="A29" s="36">
+      <c r="A29" s="35">
         <v>44779</v>
       </c>
-      <c r="B29" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="C29" s="37" t="s">
-        <v>242</v>
-      </c>
-      <c r="D29" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="E29" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="F29" s="37" t="s">
+      <c r="B29" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="D29" s="132" t="s">
+        <v>201</v>
+      </c>
+      <c r="E29" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="F29" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
     </row>
     <row r="30" spans="1:8" ht="66">
-      <c r="A30" s="36">
+      <c r="A30" s="35">
         <v>44779</v>
       </c>
-      <c r="B30" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="C30" s="37" t="s">
-        <v>242</v>
-      </c>
-      <c r="D30" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="E30" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="F30" s="37" t="s">
+      <c r="B30" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="D30" s="132" t="s">
+        <v>201</v>
+      </c>
+      <c r="E30" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="F30" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -6453,215 +6500,603 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="36" customHeight="1">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:8" ht="36" customHeight="1" thickBot="1">
+      <c r="A1" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="47" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A2" s="109">
+        <v>44798</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
       <c r="H2" s="20"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A3" s="111">
+        <v>44798</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
       <c r="H3" s="20"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A4" s="111">
+        <v>44798</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="G4" s="11"/>
       <c r="H4" s="20"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A5" s="111">
+        <v>44798</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
       <c r="H5" s="20"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A6" s="111">
+        <v>44798</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="G6" s="11"/>
       <c r="H6" s="20"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A7" s="111">
+        <v>44798</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="G7" s="11"/>
       <c r="H7" s="20"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A8" s="111">
+        <v>44798</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="G8" s="11"/>
       <c r="H8" s="20"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A9" s="111">
+        <v>44798</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="G9" s="11"/>
       <c r="H9" s="20"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A10" s="111">
+        <v>44798</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="G10" s="11"/>
       <c r="H10" s="20"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A11" s="111">
+        <v>44798</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="G11" s="11"/>
       <c r="H11" s="20"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A12" s="111">
+        <v>44798</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="G12" s="11"/>
       <c r="H12" s="20"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A13" s="111">
+        <v>44798</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="G13" s="11"/>
       <c r="H13" s="20"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A14" s="111">
+        <v>44798</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="G14" s="11"/>
       <c r="H14" s="20"/>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A15" s="111">
+        <v>44798</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="G15" s="11"/>
       <c r="H15" s="20"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A16" s="111">
+        <v>44798</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="G16" s="11"/>
       <c r="H16" s="20"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A17" s="111">
+        <v>44798</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="G17" s="11"/>
       <c r="H17" s="20"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A18" s="111">
+        <v>44798</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A19" s="111">
+        <v>44798</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A20" s="111">
+        <v>44798</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A21" s="111">
+        <v>44798</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A22" s="111">
+        <v>44798</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A23" s="111">
+        <v>44798</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A24" s="111">
+        <v>44798</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A25" s="111">
+        <v>44798</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A26" s="111">
+        <v>44798</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A27" s="111">
+        <v>44798</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A28" s="111">
+        <v>44798</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A29" s="111">
+        <v>44798</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A30" s="111">
+        <v>44798</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A31" s="111">
+        <v>44798</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A32" s="111">
+        <v>44798</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A33" s="111">
+        <v>44798</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A34" s="111">
+        <v>44798</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+      <selection activeCell="E3" sqref="E3:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -6739,46 +7174,20 @@
       <c r="A3" s="94" t="s">
         <v>190</v>
       </c>
-      <c r="B3" s="101">
-        <v>44784</v>
-      </c>
-      <c r="C3" s="96" t="s">
-        <v>200</v>
-      </c>
-      <c r="D3" s="90" t="s">
-        <v>199</v>
-      </c>
-      <c r="E3" s="90" t="s">
-        <v>198</v>
-      </c>
-      <c r="F3" s="90" t="s">
-        <v>201</v>
-      </c>
-      <c r="G3" s="17">
-        <v>1</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>139</v>
-      </c>
+      <c r="B3" s="101"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
       <c r="I3" s="99"/>
-      <c r="J3" s="93" t="s">
-        <v>191</v>
-      </c>
-      <c r="K3" s="93" t="s">
-        <v>202</v>
-      </c>
-      <c r="L3" s="93" t="s">
-        <v>203</v>
-      </c>
-      <c r="M3" s="93" t="s">
-        <v>180</v>
-      </c>
-      <c r="N3" s="90" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="93" t="s">
-        <v>399</v>
-      </c>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="93"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="91"/>
@@ -6787,12 +7196,8 @@
       <c r="D4" s="91"/>
       <c r="E4" s="91"/>
       <c r="F4" s="91"/>
-      <c r="G4" s="17">
-        <v>2</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>204</v>
-      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
       <c r="I4" s="91"/>
       <c r="J4" s="91"/>
       <c r="K4" s="91"/>
@@ -6808,12 +7213,8 @@
       <c r="D5" s="91"/>
       <c r="E5" s="91"/>
       <c r="F5" s="91"/>
-      <c r="G5" s="17">
-        <v>3</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>205</v>
-      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
       <c r="I5" s="91"/>
       <c r="J5" s="91"/>
       <c r="K5" s="91"/>
@@ -6829,9 +7230,7 @@
       <c r="D6" s="91"/>
       <c r="E6" s="91"/>
       <c r="F6" s="91"/>
-      <c r="G6" s="17">
-        <v>4</v>
-      </c>
+      <c r="G6" s="17"/>
       <c r="H6" s="17"/>
       <c r="I6" s="91"/>
       <c r="J6" s="91"/>
@@ -6848,9 +7247,7 @@
       <c r="D7" s="92"/>
       <c r="E7" s="92"/>
       <c r="F7" s="92"/>
-      <c r="G7" s="17">
-        <v>5</v>
-      </c>
+      <c r="G7" s="17"/>
       <c r="H7" s="17"/>
       <c r="I7" s="92"/>
       <c r="J7" s="92"/>
@@ -7441,7 +7838,7 @@
     <mergeCell ref="N27:N30"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="J3 J8 J12 J15 J18 J22 J27 J31" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="J3 J8 J12 J15 J18 J22 J27 J31">
       <formula1>"Reportado,En revisión,Finalizado"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7451,11 +7848,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="A7" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -7465,258 +7862,480 @@
     <col min="6" max="6" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="49" t="s">
-        <v>206</v>
-      </c>
-      <c r="B1" s="49" t="s">
-        <v>207</v>
-      </c>
-      <c r="C1" s="49" t="s">
+    <row r="1" spans="1:9" ht="24" thickBot="1">
+      <c r="A1" s="112" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="113" t="s">
+        <v>413</v>
+      </c>
+      <c r="C1" s="113" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="49" t="s">
-        <v>208</v>
-      </c>
-      <c r="E1" s="49" t="s">
-        <v>209</v>
-      </c>
-      <c r="F1" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="G1" s="49" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="50" t="s">
-        <v>400</v>
-      </c>
-      <c r="B2" s="50" t="s">
-        <v>212</v>
-      </c>
-      <c r="C2" s="50" t="s">
-        <v>224</v>
-      </c>
-      <c r="D2" s="50" t="s">
-        <v>400</v>
-      </c>
-      <c r="E2" s="50" t="s">
-        <v>400</v>
-      </c>
-      <c r="F2" s="50" t="s">
-        <v>218</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="50" t="s">
-        <v>400</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>213</v>
-      </c>
-      <c r="C3" s="50" t="s">
-        <v>224</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>400</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>400</v>
-      </c>
-      <c r="F3" s="50" t="s">
-        <v>219</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="50" t="s">
-        <v>400</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>214</v>
-      </c>
-      <c r="C4" s="50" t="s">
-        <v>224</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>400</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>400</v>
-      </c>
-      <c r="F4" s="50" t="s">
-        <v>220</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="50" t="s">
-        <v>400</v>
-      </c>
-      <c r="B5" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="C5" s="50" t="s">
-        <v>224</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>400</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>400</v>
-      </c>
-      <c r="F5" s="50" t="s">
-        <v>222</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="23.4">
-      <c r="A6" s="50" t="s">
-        <v>400</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>216</v>
-      </c>
-      <c r="C6" s="50" t="s">
-        <v>224</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>400</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>400</v>
-      </c>
-      <c r="F6" s="50" t="s">
-        <v>221</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="50" t="s">
-        <v>400</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>217</v>
-      </c>
-      <c r="C7" s="50" t="s">
-        <v>224</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>400</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>400</v>
-      </c>
-      <c r="F7" s="50" t="s">
-        <v>223</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="E1" s="114" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="114" t="s">
+        <v>199</v>
+      </c>
+      <c r="G1" s="114" t="s">
+        <v>415</v>
+      </c>
+      <c r="H1" s="114" t="s">
+        <v>352</v>
+      </c>
+      <c r="I1" s="115" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="132.6" thickBot="1">
+      <c r="A2" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="B2" s="116">
+        <v>1</v>
+      </c>
+      <c r="C2" s="117" t="s">
+        <v>417</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E2" s="111">
+        <v>44784</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="I2" s="118" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="132.6" thickBot="1">
+      <c r="A3" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="B3" s="116">
+        <v>1</v>
+      </c>
+      <c r="C3" s="117" t="s">
+        <v>421</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E3" s="111">
+        <v>44784</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="I3" s="118" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="132.6" thickBot="1">
+      <c r="A4" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="B4" s="116">
+        <v>1</v>
+      </c>
+      <c r="C4" s="117" t="s">
+        <v>423</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E4" s="111">
+        <v>44784</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="I4" s="118" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="132.6" thickBot="1">
+      <c r="A5" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="B5" s="116">
+        <v>1</v>
+      </c>
+      <c r="C5" s="117" t="s">
+        <v>425</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E5" s="111">
+        <v>44784</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="I5" s="118" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="132.6" thickBot="1">
+      <c r="A6" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="B6" s="116">
+        <v>1</v>
+      </c>
+      <c r="C6" s="117" t="s">
+        <v>427</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E6" s="111">
+        <v>44784</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="I6" s="118" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="132.6" thickBot="1">
+      <c r="A7" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="B7" s="116">
+        <v>1</v>
+      </c>
+      <c r="C7" s="117" t="s">
+        <v>429</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7" s="111">
+        <v>44784</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="I7" s="118" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="132.6" thickBot="1">
+      <c r="A8" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="B8" s="116">
+        <v>1</v>
+      </c>
+      <c r="C8" s="117" t="s">
+        <v>431</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8" s="111">
+        <v>44784</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="I8" s="118" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="13.8" thickBot="1">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:9" ht="132.6" thickBot="1">
+      <c r="A10" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="B10" s="119">
+        <v>2</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="E10" s="120">
+        <v>44797</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="I10" s="121" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="132.6" thickBot="1">
+      <c r="A11" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="B11" s="119">
+        <v>2</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="E11" s="120">
+        <v>44797</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="I11" s="121" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="132.6" thickBot="1">
+      <c r="A12" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="B12" s="119">
+        <v>2</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="E12" s="120">
+        <v>44797</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="I12" s="121" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="132.6" thickBot="1">
+      <c r="A13" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="B13" s="119">
+        <v>2</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="E13" s="120">
+        <v>44797</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="I13" s="121" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="132.6" thickBot="1">
+      <c r="A14" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="B14" s="119">
+        <v>2</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="E14" s="120">
+        <v>44797</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="I14" s="121" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="132.6" thickBot="1">
+      <c r="A15" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="B15" s="119">
+        <v>2</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="E15" s="120">
+        <v>44797</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="I15" s="121" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="132.6" thickBot="1">
+      <c r="A16" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="B16" s="119">
+        <v>2</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="E16" s="120">
+        <v>44797</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="I16" s="121" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="132.6" thickBot="1">
+      <c r="A17" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="B17" s="119">
+        <v>2</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="E17" s="120">
+        <v>44797</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="I17" s="121" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="20"/>
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
@@ -7725,7 +8344,7 @@
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:9">
       <c r="A19" s="20"/>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
@@ -7734,7 +8353,7 @@
       <c r="F19" s="20"/>
       <c r="G19" s="20"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:9">
       <c r="A20" s="20"/>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
@@ -7743,7 +8362,7 @@
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:9">
       <c r="A21" s="20"/>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -7752,7 +8371,7 @@
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:9">
       <c r="A22" s="20"/>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
@@ -7762,6 +8381,23 @@
       <c r="G22" s="20"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="I4" r:id="rId3"/>
+    <hyperlink ref="I5" r:id="rId4"/>
+    <hyperlink ref="I6" r:id="rId5"/>
+    <hyperlink ref="I7" r:id="rId6"/>
+    <hyperlink ref="I8" r:id="rId7"/>
+    <hyperlink ref="I10" r:id="rId8"/>
+    <hyperlink ref="I11" r:id="rId9"/>
+    <hyperlink ref="I12" r:id="rId10"/>
+    <hyperlink ref="I13" r:id="rId11"/>
+    <hyperlink ref="I14" r:id="rId12"/>
+    <hyperlink ref="I15" r:id="rId13"/>
+    <hyperlink ref="I16" r:id="rId14"/>
+    <hyperlink ref="I17" r:id="rId15"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Testing/Sprint 2/Casos-de-prueba/Documentacion-Testing-S2.xlsx
+++ b/Testing/Sprint 2/Casos-de-prueba/Documentacion-Testing-S2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="460">
   <si>
     <t>ID</t>
   </si>
@@ -1304,9 +1304,6 @@
   </si>
   <si>
     <t>FALLED</t>
-  </si>
-  <si>
-    <t>CDP-71</t>
   </si>
   <si>
     <t>Título / Nombre</t>
@@ -1906,9 +1903,6 @@
       <bottom/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
       <right style="medium">
         <color rgb="FFCCCCCC"/>
       </right>
@@ -1983,7 +1977,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2147,21 +2141,21 @@
     <xf borderId="19" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="19" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="23" fillId="0" fontId="5" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="19" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="23" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="19" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="5" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -2261,6 +2255,9 @@
     </xf>
     <xf borderId="12" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="5" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -6580,56 +6577,6 @@
     <row r="999" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="119">
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="A46:L46"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="A41:A42"/>
     <mergeCell ref="J27:J28"/>
     <mergeCell ref="K27:K28"/>
     <mergeCell ref="A27:A28"/>
@@ -6699,6 +6646,56 @@
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="F39:F40"/>
     <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="A46:L46"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="H36"/>
@@ -8328,389 +8325,441 @@
       <c r="F1" s="63" t="s">
         <v>376</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="64" t="s">
         <v>377</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="64" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="64">
+      <c r="A2" s="65">
         <v>44798.0</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="49" t="s">
         <v>194</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
+      <c r="C2" s="49" t="s">
+        <v>391</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>386</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>293</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>202</v>
+      </c>
       <c r="G2" s="66"/>
       <c r="H2" s="67"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="68">
+      <c r="A3" s="65">
         <v>44798.0</v>
       </c>
       <c r="B3" s="49" t="s">
         <v>203</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
+      <c r="C3" s="49" t="s">
+        <v>391</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>386</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>293</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>202</v>
+      </c>
       <c r="G3" s="26"/>
       <c r="H3" s="67"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="68">
+      <c r="A4" s="65">
         <v>44798.0</v>
       </c>
       <c r="B4" s="49" t="s">
         <v>209</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="49" t="s">
         <v>391</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="49" t="s">
         <v>386</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="49" t="s">
         <v>293</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="49" t="s">
         <v>202</v>
       </c>
       <c r="G4" s="26"/>
       <c r="H4" s="67"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="68">
+      <c r="A5" s="65">
         <v>44798.0</v>
       </c>
       <c r="B5" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
+      <c r="C5" s="49" t="s">
+        <v>391</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>386</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>293</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>202</v>
+      </c>
       <c r="G5" s="26"/>
       <c r="H5" s="67"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="68">
+      <c r="A6" s="65">
         <v>44798.0</v>
       </c>
       <c r="B6" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>382</v>
-      </c>
-      <c r="D6" s="26" t="s">
+      <c r="C6" s="49" t="s">
+        <v>391</v>
+      </c>
+      <c r="D6" s="49" t="s">
         <v>386</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26" t="s">
+      <c r="E6" s="49" t="s">
+        <v>293</v>
+      </c>
+      <c r="F6" s="49" t="s">
         <v>202</v>
       </c>
       <c r="G6" s="26"/>
       <c r="H6" s="67"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="68">
+      <c r="A7" s="65">
         <v>44798.0</v>
       </c>
       <c r="B7" s="49" t="s">
         <v>224</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="49" t="s">
         <v>391</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="49" t="s">
         <v>386</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="49" t="s">
         <v>293</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="49" t="s">
         <v>202</v>
       </c>
       <c r="G7" s="26"/>
       <c r="H7" s="67"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="68">
+      <c r="A8" s="65">
         <v>44798.0</v>
       </c>
       <c r="B8" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="49" t="s">
         <v>391</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="49" t="s">
         <v>386</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="49" t="s">
         <v>293</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="49" t="s">
         <v>202</v>
       </c>
       <c r="G8" s="26"/>
       <c r="H8" s="67"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="68">
+      <c r="A9" s="65">
         <v>44798.0</v>
       </c>
       <c r="B9" s="49" t="s">
         <v>230</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>380</v>
-      </c>
-      <c r="D9" s="26" t="s">
+      <c r="C9" s="49" t="s">
+        <v>391</v>
+      </c>
+      <c r="D9" s="49" t="s">
         <v>386</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="49" t="s">
         <v>293</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="49" t="s">
         <v>202</v>
       </c>
       <c r="G9" s="26"/>
       <c r="H9" s="67"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="68">
+      <c r="A10" s="65">
         <v>44798.0</v>
       </c>
       <c r="B10" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="49" t="s">
         <v>391</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="49" t="s">
         <v>386</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="49" t="s">
         <v>293</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="49" t="s">
         <v>202</v>
       </c>
       <c r="G10" s="26"/>
       <c r="H10" s="67"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="68">
+      <c r="A11" s="65">
         <v>44798.0</v>
       </c>
       <c r="B11" s="49" t="s">
         <v>240</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="49" t="s">
         <v>391</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="49" t="s">
         <v>386</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="49" t="s">
         <v>293</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="49" t="s">
         <v>202</v>
       </c>
       <c r="G11" s="26"/>
       <c r="H11" s="67"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="68">
+      <c r="A12" s="65">
         <v>44798.0</v>
       </c>
       <c r="B12" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>386</v>
-      </c>
-      <c r="E12" s="26" t="s">
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49" t="s">
         <v>293</v>
       </c>
-      <c r="F12" s="26" t="s">
-        <v>202</v>
-      </c>
+      <c r="F12" s="49"/>
       <c r="G12" s="26"/>
       <c r="H12" s="67"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="68">
+      <c r="A13" s="65">
         <v>44798.0</v>
       </c>
       <c r="B13" s="49" t="s">
         <v>249</v>
       </c>
-      <c r="C13" s="26" t="s">
-        <v>382</v>
-      </c>
-      <c r="D13" s="26" t="s">
+      <c r="C13" s="49" t="s">
+        <v>391</v>
+      </c>
+      <c r="D13" s="49" t="s">
         <v>386</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="49" t="s">
         <v>293</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="49" t="s">
         <v>202</v>
       </c>
       <c r="G13" s="26"/>
       <c r="H13" s="67"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="68">
+      <c r="A14" s="65">
         <v>44798.0</v>
       </c>
       <c r="B14" s="49" t="s">
         <v>252</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="D14" s="26" t="s">
+      <c r="C14" s="49" t="s">
+        <v>391</v>
+      </c>
+      <c r="D14" s="49" t="s">
         <v>386</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="49" t="s">
         <v>293</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="49" t="s">
         <v>202</v>
       </c>
       <c r="G14" s="26"/>
       <c r="H14" s="67"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="68">
+      <c r="A15" s="65">
         <v>44798.0</v>
       </c>
       <c r="B15" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="49" t="s">
         <v>391</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="49" t="s">
         <v>386</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="49" t="s">
         <v>293</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="49" t="s">
         <v>202</v>
       </c>
       <c r="G15" s="26"/>
       <c r="H15" s="67"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="68">
+      <c r="A16" s="65">
         <v>44798.0</v>
       </c>
       <c r="B16" s="49" t="s">
         <v>258</v>
       </c>
-      <c r="C16" s="26" t="s">
-        <v>382</v>
-      </c>
-      <c r="D16" s="26" t="s">
+      <c r="C16" s="49" t="s">
+        <v>391</v>
+      </c>
+      <c r="D16" s="49" t="s">
         <v>386</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="49" t="s">
         <v>293</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="49" t="s">
         <v>202</v>
       </c>
       <c r="G16" s="26"/>
       <c r="H16" s="67"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="68">
+      <c r="A17" s="65">
         <v>44798.0</v>
       </c>
       <c r="B17" s="49" t="s">
         <v>262</v>
       </c>
-      <c r="C17" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>393</v>
-      </c>
-      <c r="E17" s="26" t="s">
+      <c r="C17" s="49" t="s">
+        <v>382</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>386</v>
+      </c>
+      <c r="E17" s="49" t="s">
         <v>293</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="49" t="s">
         <v>202</v>
       </c>
       <c r="G17" s="26"/>
       <c r="H17" s="67"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="68">
+      <c r="A18" s="65">
         <v>44798.0</v>
       </c>
       <c r="B18" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
+      <c r="C18" s="49" t="s">
+        <v>392</v>
+      </c>
+      <c r="D18" s="49" t="s">
+        <v>393</v>
+      </c>
+      <c r="E18" s="49" t="s">
+        <v>293</v>
+      </c>
+      <c r="F18" s="49" t="s">
+        <v>202</v>
+      </c>
       <c r="G18" s="26"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="68">
+      <c r="A19" s="65">
         <v>44798.0</v>
       </c>
       <c r="B19" s="49" t="s">
         <v>271</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
+      <c r="C19" s="49" t="s">
+        <v>391</v>
+      </c>
+      <c r="D19" s="49" t="s">
+        <v>386</v>
+      </c>
+      <c r="E19" s="49" t="s">
+        <v>293</v>
+      </c>
+      <c r="F19" s="49" t="s">
+        <v>202</v>
+      </c>
       <c r="G19" s="26"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="68">
+      <c r="A20" s="65">
         <v>44798.0</v>
       </c>
       <c r="B20" s="49" t="s">
         <v>276</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
+      <c r="C20" s="49" t="s">
+        <v>382</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>386</v>
+      </c>
+      <c r="E20" s="49" t="s">
+        <v>293</v>
+      </c>
+      <c r="F20" s="49" t="s">
+        <v>202</v>
+      </c>
       <c r="G20" s="26"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="68">
+      <c r="A21" s="65">
         <v>44798.0</v>
       </c>
       <c r="B21" s="49" t="s">
         <v>279</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
+      <c r="C21" s="49" t="s">
+        <v>392</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>393</v>
+      </c>
+      <c r="E21" s="49" t="s">
+        <v>293</v>
+      </c>
+      <c r="F21" s="49" t="s">
+        <v>202</v>
+      </c>
       <c r="G21" s="26"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -8718,173 +8767,203 @@
       <c r="B22" s="49" t="s">
         <v>282</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
       <c r="G22" s="26"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="68"/>
       <c r="B23" s="49" t="s">
-        <v>290</v>
-      </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
+        <v>286</v>
+      </c>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
       <c r="G23" s="26"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="68"/>
       <c r="B24" s="49" t="s">
-        <v>296</v>
-      </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
+        <v>290</v>
+      </c>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
       <c r="G24" s="26"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="68"/>
       <c r="B25" s="49" t="s">
-        <v>301</v>
-      </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
+        <v>296</v>
+      </c>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
       <c r="G25" s="26"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="68"/>
       <c r="B26" s="49" t="s">
-        <v>306</v>
-      </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
+        <v>301</v>
+      </c>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
       <c r="G26" s="26"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="68"/>
       <c r="B27" s="49" t="s">
-        <v>310</v>
-      </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
+        <v>306</v>
+      </c>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
       <c r="G27" s="26"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="68"/>
       <c r="B28" s="49" t="s">
-        <v>314</v>
-      </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
+        <v>310</v>
+      </c>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
       <c r="G28" s="26"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="68"/>
       <c r="B29" s="49" t="s">
-        <v>318</v>
-      </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
+        <v>314</v>
+      </c>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
       <c r="G29" s="26"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="68"/>
       <c r="B30" s="49" t="s">
-        <v>322</v>
-      </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
+        <v>318</v>
+      </c>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
       <c r="G30" s="26"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="68"/>
       <c r="B31" s="49" t="s">
-        <v>326</v>
-      </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
+        <v>322</v>
+      </c>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
       <c r="G31" s="26"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="68"/>
       <c r="B32" s="49" t="s">
-        <v>330</v>
-      </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
+        <v>326</v>
+      </c>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
       <c r="G32" s="26"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="68"/>
       <c r="B33" s="49" t="s">
-        <v>334</v>
-      </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
+        <v>330</v>
+      </c>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
       <c r="G33" s="26"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="68"/>
       <c r="B34" s="49" t="s">
+        <v>334</v>
+      </c>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="26"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="69"/>
+      <c r="B35" s="69" t="s">
         <v>338</v>
       </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="B35" s="69" t="s">
+      <c r="C35" s="69"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="69"/>
+      <c r="B36" s="69" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="B36" s="69" t="s">
+      <c r="C36" s="69"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="69"/>
+      <c r="B37" s="69" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="B37" s="69" t="s">
+      <c r="C37" s="69"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="69"/>
+      <c r="B38" s="69" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="B38" s="69" t="s">
+      <c r="C38" s="69"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="69"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="69"/>
+      <c r="B39" s="69" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="B39" s="69" t="s">
+      <c r="C39" s="69"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="69"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="69"/>
+      <c r="B40" s="69" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="B40" s="69" t="s">
-        <v>394</v>
-      </c>
+      <c r="C40" s="69"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="69"/>
     </row>
     <row r="41" ht="15.75" customHeight="1"/>
     <row r="42" ht="15.75" customHeight="1"/>
@@ -9887,41 +9966,41 @@
         <v>1</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D1" s="71" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="71" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1" s="71" t="s">
         <v>396</v>
-      </c>
-      <c r="F1" s="71" t="s">
-        <v>397</v>
       </c>
       <c r="G1" s="72" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="73" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J1" s="73" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="73" t="s">
+        <v>398</v>
+      </c>
+      <c r="L1" s="73" t="s">
         <v>399</v>
       </c>
-      <c r="L1" s="73" t="s">
+      <c r="M1" s="73" t="s">
         <v>400</v>
       </c>
-      <c r="M1" s="73" t="s">
+      <c r="N1" s="73" t="s">
         <v>401</v>
       </c>
-      <c r="N1" s="73" t="s">
+      <c r="O1" s="73" t="s">
         <v>402</v>
-      </c>
-      <c r="O1" s="73" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
@@ -9947,49 +10026,49 @@
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="76" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B3" s="77">
         <v>44798.0</v>
       </c>
       <c r="C3" s="78" t="s">
+        <v>404</v>
+      </c>
+      <c r="D3" s="79" t="s">
         <v>405</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="E3" s="80" t="s">
         <v>406</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="F3" s="80" t="s">
         <v>407</v>
-      </c>
-      <c r="F3" s="80" t="s">
-        <v>408</v>
       </c>
       <c r="G3" s="81">
         <v>1.0</v>
       </c>
       <c r="H3" s="82" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I3" s="80" t="s">
         <v>293</v>
       </c>
       <c r="J3" s="80" t="s">
+        <v>409</v>
+      </c>
+      <c r="K3" s="80" t="s">
         <v>410</v>
       </c>
-      <c r="K3" s="80" t="s">
-        <v>411</v>
-      </c>
       <c r="L3" s="80" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M3" s="80" t="s">
         <v>202</v>
       </c>
       <c r="N3" s="80" t="s">
+        <v>411</v>
+      </c>
+      <c r="O3" s="83" t="s">
         <v>412</v>
-      </c>
-      <c r="O3" s="83" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
@@ -10003,7 +10082,7 @@
         <v>2.0</v>
       </c>
       <c r="H4" s="82" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I4" s="84"/>
       <c r="J4" s="84"/>
@@ -10066,49 +10145,49 @@
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="87" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B8" s="88">
         <v>44798.0</v>
       </c>
       <c r="C8" s="87" t="s">
+        <v>415</v>
+      </c>
+      <c r="D8" s="79" t="s">
         <v>416</v>
       </c>
-      <c r="D8" s="79" t="s">
+      <c r="E8" s="79" t="s">
         <v>417</v>
       </c>
-      <c r="E8" s="79" t="s">
+      <c r="F8" s="80" t="s">
         <v>418</v>
-      </c>
-      <c r="F8" s="80" t="s">
-        <v>419</v>
       </c>
       <c r="G8" s="81">
         <v>1.0</v>
       </c>
       <c r="H8" s="82" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I8" s="80" t="s">
         <v>293</v>
       </c>
       <c r="J8" s="80" t="s">
+        <v>409</v>
+      </c>
+      <c r="K8" s="80" t="s">
         <v>410</v>
       </c>
-      <c r="K8" s="80" t="s">
-        <v>411</v>
-      </c>
       <c r="L8" s="80" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M8" s="80" t="s">
         <v>202</v>
       </c>
       <c r="N8" s="80" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O8" s="83" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
@@ -10122,7 +10201,7 @@
         <v>2.0</v>
       </c>
       <c r="H9" s="82" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I9" s="84"/>
       <c r="J9" s="84"/>
@@ -11611,12 +11690,12 @@
     <mergeCell ref="N3:N7"/>
     <mergeCell ref="O3:O7"/>
     <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
     <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
     <mergeCell ref="F3:F7"/>
     <mergeCell ref="I3:I7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="E3:E7"/>
     <mergeCell ref="J8:J11"/>
     <mergeCell ref="K8:K11"/>
     <mergeCell ref="L8:L11"/>
@@ -11681,234 +11760,234 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="100" t="s">
+        <v>420</v>
+      </c>
+      <c r="B1" s="101" t="s">
         <v>421</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="C1" s="101" t="s">
         <v>422</v>
-      </c>
-      <c r="C1" s="101" t="s">
-        <v>423</v>
       </c>
       <c r="D1" s="102" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="102" t="s">
+        <v>423</v>
+      </c>
+      <c r="F1" s="102" t="s">
         <v>424</v>
       </c>
-      <c r="F1" s="102" t="s">
+      <c r="G1" s="102" t="s">
         <v>425</v>
       </c>
-      <c r="G1" s="102" t="s">
+      <c r="H1" s="102" t="s">
         <v>426</v>
       </c>
-      <c r="H1" s="102" t="s">
-        <v>427</v>
-      </c>
       <c r="I1" s="103" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="26" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B2" s="104">
         <v>1.0</v>
       </c>
       <c r="C2" s="105" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>386</v>
       </c>
-      <c r="E2" s="68">
+      <c r="E2" s="106">
         <v>44784.0</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>293</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H2" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="I2" s="106" t="s">
-        <v>431</v>
+      <c r="I2" s="107" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="26" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B3" s="104">
         <v>1.0</v>
       </c>
       <c r="C3" s="105" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>386</v>
       </c>
-      <c r="E3" s="68">
+      <c r="E3" s="106">
         <v>44784.0</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>293</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H3" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="I3" s="106" t="s">
-        <v>431</v>
+      <c r="I3" s="107" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="26" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B4" s="104">
         <v>1.0</v>
       </c>
       <c r="C4" s="105" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>386</v>
       </c>
-      <c r="E4" s="68">
+      <c r="E4" s="106">
         <v>44784.0</v>
       </c>
       <c r="F4" s="26" t="s">
         <v>293</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H4" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="I4" s="106" t="s">
-        <v>431</v>
+      <c r="I4" s="107" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="26" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B5" s="104">
         <v>1.0</v>
       </c>
       <c r="C5" s="105" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>386</v>
       </c>
-      <c r="E5" s="68">
+      <c r="E5" s="106">
         <v>44784.0</v>
       </c>
       <c r="F5" s="26" t="s">
         <v>293</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H5" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="I5" s="106" t="s">
-        <v>431</v>
+      <c r="I5" s="107" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="26" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B6" s="104">
         <v>1.0</v>
       </c>
       <c r="C6" s="105" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>386</v>
       </c>
-      <c r="E6" s="68">
+      <c r="E6" s="106">
         <v>44784.0</v>
       </c>
       <c r="F6" s="26" t="s">
         <v>293</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H6" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="I6" s="106" t="s">
-        <v>431</v>
+      <c r="I6" s="107" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="26" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B7" s="104">
         <v>1.0</v>
       </c>
       <c r="C7" s="105" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>386</v>
       </c>
-      <c r="E7" s="68">
+      <c r="E7" s="106">
         <v>44784.0</v>
       </c>
       <c r="F7" s="26" t="s">
         <v>293</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H7" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="I7" s="106" t="s">
-        <v>431</v>
+      <c r="I7" s="107" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="26" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B8" s="104">
         <v>1.0</v>
       </c>
       <c r="C8" s="105" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>386</v>
       </c>
-      <c r="E8" s="68">
+      <c r="E8" s="106">
         <v>44784.0</v>
       </c>
       <c r="F8" s="26" t="s">
         <v>293</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H8" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="I8" s="106" t="s">
-        <v>431</v>
+      <c r="I8" s="107" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
@@ -11924,232 +12003,232 @@
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="26" t="s">
+        <v>443</v>
+      </c>
+      <c r="B10" s="108">
+        <v>2.0</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>444</v>
-      </c>
-      <c r="B10" s="107">
-        <v>2.0</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>445</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="E10" s="108">
+      <c r="E10" s="109">
         <v>44797.0</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H10" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="I10" s="109" t="s">
-        <v>446</v>
+      <c r="I10" s="110" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="26" t="s">
+        <v>446</v>
+      </c>
+      <c r="B11" s="108">
+        <v>2.0</v>
+      </c>
+      <c r="C11" s="26" t="s">
         <v>447</v>
-      </c>
-      <c r="B11" s="107">
-        <v>2.0</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>448</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="E11" s="108">
+      <c r="E11" s="109">
         <v>44797.0</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>293</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H11" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="I11" s="109" t="s">
-        <v>446</v>
+      <c r="I11" s="110" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="26" t="s">
+        <v>448</v>
+      </c>
+      <c r="B12" s="108">
+        <v>2.0</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>449</v>
-      </c>
-      <c r="B12" s="107">
-        <v>2.0</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>450</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="E12" s="108">
+      <c r="E12" s="109">
         <v>44797.0</v>
       </c>
       <c r="F12" s="20" t="s">
         <v>293</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H12" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="I12" s="109" t="s">
-        <v>446</v>
+      <c r="I12" s="110" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="26" t="s">
+        <v>450</v>
+      </c>
+      <c r="B13" s="108">
+        <v>2.0</v>
+      </c>
+      <c r="C13" s="20" t="s">
         <v>451</v>
-      </c>
-      <c r="B13" s="107">
-        <v>2.0</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>452</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="E13" s="108">
+      <c r="E13" s="109">
         <v>44797.0</v>
       </c>
       <c r="F13" s="20" t="s">
         <v>293</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H13" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="I13" s="109" t="s">
-        <v>446</v>
+      <c r="I13" s="110" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="26" t="s">
+        <v>452</v>
+      </c>
+      <c r="B14" s="108">
+        <v>2.0</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>453</v>
-      </c>
-      <c r="B14" s="107">
-        <v>2.0</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>454</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="E14" s="108">
+      <c r="E14" s="109">
         <v>44797.0</v>
       </c>
       <c r="F14" s="20" t="s">
         <v>293</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H14" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="I14" s="109" t="s">
-        <v>446</v>
+      <c r="I14" s="110" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="B15" s="108">
+        <v>2.0</v>
+      </c>
+      <c r="C15" s="20" t="s">
         <v>455</v>
-      </c>
-      <c r="B15" s="107">
-        <v>2.0</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>456</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="E15" s="108">
+      <c r="E15" s="109">
         <v>44797.0</v>
       </c>
       <c r="F15" s="20" t="s">
         <v>293</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H15" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="I15" s="109" t="s">
-        <v>446</v>
+      <c r="I15" s="110" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="26" t="s">
+        <v>456</v>
+      </c>
+      <c r="B16" s="108">
+        <v>2.0</v>
+      </c>
+      <c r="C16" s="20" t="s">
         <v>457</v>
-      </c>
-      <c r="B16" s="107">
-        <v>2.0</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>458</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="E16" s="108">
+      <c r="E16" s="109">
         <v>44797.0</v>
       </c>
       <c r="F16" s="20" t="s">
         <v>293</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H16" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="I16" s="109" t="s">
-        <v>446</v>
+      <c r="I16" s="110" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="26" t="s">
+        <v>458</v>
+      </c>
+      <c r="B17" s="108">
+        <v>2.0</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>459</v>
-      </c>
-      <c r="B17" s="107">
-        <v>2.0</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>460</v>
       </c>
       <c r="D17" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="E17" s="108">
+      <c r="E17" s="109">
         <v>44797.0</v>
       </c>
       <c r="F17" s="20" t="s">
         <v>293</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H17" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="I17" s="109" t="s">
-        <v>446</v>
+      <c r="I17" s="110" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
